--- a/ObjectNames.xlsx
+++ b/ObjectNames.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1652330842" val="1046" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1652330842" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1652330842" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1652330842"/>
+      <pm:revision xmlns:pm="smNativeData" day="1652360888" val="1046" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1652360888" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1652360888" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1652360888"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="3049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="3050">
   <si>
     <t>Project</t>
   </si>
@@ -7072,34 +7072,37 @@
     <t>Small Interior Wood Crate</t>
   </si>
   <si>
+    <t>インテリア木箱(小)</t>
+  </si>
+  <si>
+    <t>IcarusLib</t>
+  </si>
+  <si>
+    <t>Properties\ObjectNames</t>
+  </si>
+  <si>
+    <t>SmallIronCrate</t>
+  </si>
+  <si>
+    <t>Small Iron Crate</t>
+  </si>
+  <si>
+    <t>鉄の木箱(小)</t>
+  </si>
+  <si>
+    <t>IcarusLib</t>
+  </si>
+  <si>
+    <t>Properties\ObjectNames</t>
+  </si>
+  <si>
+    <t>SmallWoodCrate</t>
+  </si>
+  <si>
+    <t>Small Wood Crate</t>
+  </si>
+  <si>
     <t>木箱(小)</t>
-  </si>
-  <si>
-    <t>IcarusLib</t>
-  </si>
-  <si>
-    <t>Properties\ObjectNames</t>
-  </si>
-  <si>
-    <t>SmallIronCrate</t>
-  </si>
-  <si>
-    <t>Small Iron Crate</t>
-  </si>
-  <si>
-    <t>鉄の木箱(小)</t>
-  </si>
-  <si>
-    <t>IcarusLib</t>
-  </si>
-  <si>
-    <t>Properties\ObjectNames</t>
-  </si>
-  <si>
-    <t>SmallWoodCrate</t>
-  </si>
-  <si>
-    <t>Small Wood Crate</t>
   </si>
   <si>
     <t>IcarusLib</t>
@@ -9194,7 +9197,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1652330842" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1652360888" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9209,7 +9212,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1652330842" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1652360888" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -9218,15 +9221,26 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1652360888" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -9242,7 +9256,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1652330842"/>
+          <pm:border xmlns:pm="smNativeData" id="1652360888"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1652360888"/>
         </ext>
       </extLst>
     </border>
@@ -9262,7 +9295,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1652330842" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1652360888" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -9528,8 +9561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G610"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A452" workbookViewId="0">
+      <selection activeCell="G471" sqref="G471"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -20392,3188 +20425,3188 @@
         <v>4</v>
       </c>
       <c r="G472" s="1" t="s">
-        <v>2349</v>
+        <v>2359</v>
       </c>
     </row>
     <row r="473" spans="1:7">
       <c r="A473" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="B473" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="C473" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="F473" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G473" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
     </row>
     <row r="474" spans="1:7">
       <c r="A474" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="B474" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="C474" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="D474" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="F474" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G474" s="1" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
     </row>
     <row r="475" spans="1:7">
       <c r="A475" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="B475" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="C475" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="D475" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="F475" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G475" s="1" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
     </row>
     <row r="476" spans="1:7">
       <c r="A476" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="B476" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="C476" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="F476" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G476" s="1" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="477" spans="1:7">
       <c r="A477" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="B477" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="C477" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="F477" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G477" s="1" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="478" spans="1:7">
       <c r="A478" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B478" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="C478" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="F478" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G478" s="1" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
     </row>
     <row r="479" spans="1:7">
       <c r="A479" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="B479" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="C479" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="D479" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="F479" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G479" s="1" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
     </row>
     <row r="480" spans="1:7">
       <c r="A480" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="B480" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="C480" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="F480" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G480" s="1" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
     </row>
     <row r="481" spans="1:7">
       <c r="A481" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="B481" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="C481" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="F481" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G481" s="1" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
     </row>
     <row r="482" spans="1:7">
       <c r="A482" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="B482" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="C482" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="F482" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G482" s="1" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
     </row>
     <row r="483" spans="1:7">
       <c r="A483" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="B483" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="C483" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G483" s="1" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
     </row>
     <row r="484" spans="1:7">
       <c r="A484" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="B484" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="C484" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G484" s="1" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
     </row>
     <row r="485" spans="1:7">
       <c r="A485" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="B485" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="C485" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G485" s="1" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="486" spans="1:7">
       <c r="A486" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="B486" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="C486" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G486" s="1" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
     </row>
     <row r="487" spans="1:7">
       <c r="A487" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="B487" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="C487" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="F487" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G487" s="1" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="488" spans="1:7">
       <c r="A488" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="B488" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="C488" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="F488" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G488" s="1" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="489" spans="1:7">
       <c r="A489" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="B489" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="C489" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="D489" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="F489" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G489" s="1" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="490" spans="1:7">
       <c r="A490" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="B490" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="C490" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="F490" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G490" s="1" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="491" spans="1:7">
       <c r="A491" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="B491" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="C491" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="D491" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="F491" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G491" s="1" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="492" spans="1:7">
       <c r="A492" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="B492" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="C492" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="F492" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G492" s="1" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="493" spans="1:7">
       <c r="A493" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="B493" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="C493" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="F493" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G493" s="1" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="494" spans="1:7">
       <c r="A494" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="B494" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="C494" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="F494" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G494" s="1" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="495" spans="1:7">
       <c r="A495" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="B495" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="C495" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G495" s="1" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
     </row>
     <row r="496" spans="1:7">
       <c r="A496" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="B496" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="C496" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G496" s="1" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="497" spans="1:7">
       <c r="A497" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="B497" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="C497" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G497" s="1" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="498" spans="1:7">
       <c r="A498" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="B498" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="C498" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="D498" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G498" s="1" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="499" spans="1:7">
       <c r="A499" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="B499" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="C499" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="D499" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G499" s="1" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="500" spans="1:7">
       <c r="A500" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="B500" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="C500" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="D500" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="F500" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G500" s="1" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="501" spans="1:7">
       <c r="A501" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="B501" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="C501" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="F501" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G501" s="1" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="502" spans="1:7">
       <c r="A502" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="B502" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="C502" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="D502" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="F502" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G502" s="1" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
     </row>
     <row r="503" spans="1:7">
       <c r="A503" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="B503" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="C503" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="F503" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G503" s="1" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="504" spans="1:7">
       <c r="A504" t="s">
-        <v>2514</v>
+        <v>2515</v>
       </c>
       <c r="B504" t="s">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="C504" t="s">
-        <v>2516</v>
+        <v>2517</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>2517</v>
+        <v>2518</v>
       </c>
       <c r="F504" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G504" s="1" t="s">
-        <v>2518</v>
+        <v>2519</v>
       </c>
     </row>
     <row r="505" spans="1:7">
       <c r="A505" t="s">
-        <v>2519</v>
+        <v>2520</v>
       </c>
       <c r="B505" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="C505" t="s">
-        <v>2521</v>
+        <v>2522</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>2522</v>
+        <v>2523</v>
       </c>
       <c r="F505" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G505" s="1" t="s">
-        <v>2523</v>
+        <v>2524</v>
       </c>
     </row>
     <row r="506" spans="1:7">
       <c r="A506" t="s">
-        <v>2524</v>
+        <v>2525</v>
       </c>
       <c r="B506" t="s">
-        <v>2525</v>
+        <v>2526</v>
       </c>
       <c r="C506" t="s">
-        <v>2526</v>
+        <v>2527</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>2527</v>
+        <v>2528</v>
       </c>
       <c r="F506" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G506" s="1" t="s">
-        <v>2528</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="507" spans="1:7">
       <c r="A507" t="s">
-        <v>2529</v>
+        <v>2530</v>
       </c>
       <c r="B507" t="s">
-        <v>2530</v>
+        <v>2531</v>
       </c>
       <c r="C507" t="s">
-        <v>2531</v>
+        <v>2532</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>2532</v>
+        <v>2533</v>
       </c>
       <c r="F507" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G507" s="1" t="s">
-        <v>2533</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="508" spans="1:7">
       <c r="A508" t="s">
-        <v>2534</v>
+        <v>2535</v>
       </c>
       <c r="B508" t="s">
-        <v>2535</v>
+        <v>2536</v>
       </c>
       <c r="C508" t="s">
-        <v>2536</v>
+        <v>2537</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>2537</v>
+        <v>2538</v>
       </c>
       <c r="F508" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G508" s="1" t="s">
-        <v>2538</v>
+        <v>2539</v>
       </c>
     </row>
     <row r="509" spans="1:7">
       <c r="A509" t="s">
-        <v>2539</v>
+        <v>2540</v>
       </c>
       <c r="B509" t="s">
-        <v>2540</v>
+        <v>2541</v>
       </c>
       <c r="C509" t="s">
-        <v>2541</v>
+        <v>2542</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>2542</v>
+        <v>2543</v>
       </c>
       <c r="F509" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G509" s="1" t="s">
-        <v>2543</v>
+        <v>2544</v>
       </c>
     </row>
     <row r="510" spans="1:7">
       <c r="A510" t="s">
-        <v>2544</v>
+        <v>2545</v>
       </c>
       <c r="B510" t="s">
-        <v>2545</v>
+        <v>2546</v>
       </c>
       <c r="C510" t="s">
-        <v>2546</v>
+        <v>2547</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>2547</v>
+        <v>2548</v>
       </c>
       <c r="F510" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G510" s="1" t="s">
-        <v>2548</v>
+        <v>2549</v>
       </c>
     </row>
     <row r="511" spans="1:7">
       <c r="A511" t="s">
-        <v>2549</v>
+        <v>2550</v>
       </c>
       <c r="B511" t="s">
-        <v>2550</v>
+        <v>2551</v>
       </c>
       <c r="C511" t="s">
-        <v>2551</v>
+        <v>2552</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>2552</v>
+        <v>2553</v>
       </c>
       <c r="F511" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G511" s="1" t="s">
-        <v>2553</v>
+        <v>2554</v>
       </c>
     </row>
     <row r="512" spans="1:7">
       <c r="A512" t="s">
-        <v>2554</v>
+        <v>2555</v>
       </c>
       <c r="B512" t="s">
-        <v>2555</v>
+        <v>2556</v>
       </c>
       <c r="C512" t="s">
-        <v>2556</v>
+        <v>2557</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E512" s="1" t="s">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="F512" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G512" s="1" t="s">
-        <v>2558</v>
+        <v>2559</v>
       </c>
     </row>
     <row r="513" spans="1:7">
       <c r="A513" t="s">
-        <v>2559</v>
+        <v>2560</v>
       </c>
       <c r="B513" t="s">
-        <v>2560</v>
+        <v>2561</v>
       </c>
       <c r="C513" t="s">
-        <v>2561</v>
+        <v>2562</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E513" s="1" t="s">
-        <v>2562</v>
+        <v>2563</v>
       </c>
       <c r="F513" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G513" s="1" t="s">
-        <v>2563</v>
+        <v>2564</v>
       </c>
     </row>
     <row r="514" spans="1:7">
       <c r="A514" t="s">
-        <v>2564</v>
+        <v>2565</v>
       </c>
       <c r="B514" t="s">
-        <v>2565</v>
+        <v>2566</v>
       </c>
       <c r="C514" t="s">
-        <v>2566</v>
+        <v>2567</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E514" s="1" t="s">
-        <v>2567</v>
+        <v>2568</v>
       </c>
       <c r="F514" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G514" s="1" t="s">
-        <v>2568</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="515" spans="1:7">
       <c r="A515" t="s">
-        <v>2569</v>
+        <v>2570</v>
       </c>
       <c r="B515" t="s">
-        <v>2570</v>
+        <v>2571</v>
       </c>
       <c r="C515" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E515" s="1" t="s">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="F515" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G515" s="1" t="s">
-        <v>2573</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="516" spans="1:7">
       <c r="A516" t="s">
-        <v>2574</v>
+        <v>2575</v>
       </c>
       <c r="B516" t="s">
-        <v>2575</v>
+        <v>2576</v>
       </c>
       <c r="C516" t="s">
-        <v>2576</v>
+        <v>2577</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E516" s="1" t="s">
-        <v>2577</v>
+        <v>2578</v>
       </c>
       <c r="F516" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G516" s="1" t="s">
-        <v>2578</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="517" spans="1:7">
       <c r="A517" t="s">
-        <v>2579</v>
+        <v>2580</v>
       </c>
       <c r="B517" t="s">
-        <v>2580</v>
+        <v>2581</v>
       </c>
       <c r="C517" t="s">
-        <v>2581</v>
+        <v>2582</v>
       </c>
       <c r="D517" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E517" s="1" t="s">
-        <v>2582</v>
+        <v>2583</v>
       </c>
       <c r="F517" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G517" s="1" t="s">
-        <v>2583</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="518" spans="1:7">
       <c r="A518" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="B518" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="C518" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="D518" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E518" s="1" t="s">
-        <v>2587</v>
+        <v>2588</v>
       </c>
       <c r="F518" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G518" s="1" t="s">
-        <v>2588</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="519" spans="1:7">
       <c r="A519" t="s">
-        <v>2589</v>
+        <v>2590</v>
       </c>
       <c r="B519" t="s">
-        <v>2590</v>
+        <v>2591</v>
       </c>
       <c r="C519" t="s">
-        <v>2591</v>
+        <v>2592</v>
       </c>
       <c r="D519" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E519" s="1" t="s">
-        <v>2592</v>
+        <v>2593</v>
       </c>
       <c r="F519" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G519" s="1" t="s">
-        <v>2593</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="520" spans="1:7">
       <c r="A520" t="s">
-        <v>2594</v>
+        <v>2595</v>
       </c>
       <c r="B520" t="s">
-        <v>2595</v>
+        <v>2596</v>
       </c>
       <c r="C520" t="s">
-        <v>2596</v>
+        <v>2597</v>
       </c>
       <c r="D520" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E520" s="1" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="F520" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G520" s="1" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
     </row>
     <row r="521" spans="1:7">
       <c r="A521" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="B521" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="C521" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="D521" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E521" s="1" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="F521" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G521" s="1" t="s">
-        <v>2603</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="522" spans="1:7">
       <c r="A522" t="s">
-        <v>2604</v>
+        <v>2605</v>
       </c>
       <c r="B522" t="s">
-        <v>2605</v>
+        <v>2606</v>
       </c>
       <c r="C522" t="s">
-        <v>2606</v>
+        <v>2607</v>
       </c>
       <c r="D522" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E522" s="1" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
       <c r="F522" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G522" s="1" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="523" spans="1:7">
       <c r="A523" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
       <c r="B523" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
       <c r="C523" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
       <c r="D523" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E523" s="1" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
       <c r="F523" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G523" s="1" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="524" spans="1:7">
       <c r="A524" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
       <c r="B524" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
       <c r="C524" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
       <c r="D524" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E524" s="1" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
       <c r="F524" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G524" s="1" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="525" spans="1:7">
       <c r="A525" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
       <c r="B525" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
       <c r="C525" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
       <c r="D525" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E525" s="1" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
       <c r="F525" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G525" s="1" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="526" spans="1:7">
       <c r="A526" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
       <c r="B526" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="C526" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="D526" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E526" s="1" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="F526" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G526" s="1" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="527" spans="1:7">
       <c r="A527" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="B527" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="C527" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="D527" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E527" s="1" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="F527" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G527" s="1" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="528" spans="1:7">
       <c r="A528" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
       <c r="B528" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
       <c r="C528" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
       <c r="D528" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E528" s="1" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G528" s="1" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="529" spans="1:7">
       <c r="A529" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
       <c r="B529" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
       <c r="C529" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="D529" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E529" s="1" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
       <c r="F529" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G529" s="1" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="530" spans="1:7">
       <c r="A530" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
       <c r="B530" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
       <c r="C530" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
       <c r="D530" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E530" s="1" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
       <c r="F530" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G530" s="1" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="531" spans="1:7">
       <c r="A531" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
       <c r="B531" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
       <c r="C531" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
       <c r="D531" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E531" s="1" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
       <c r="F531" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G531" s="1" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="532" spans="1:7">
       <c r="A532" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
       <c r="B532" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
       <c r="C532" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
       <c r="D532" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E532" s="1" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
       <c r="F532" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G532" s="1" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="533" spans="1:7">
       <c r="A533" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
       <c r="B533" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="C533" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
       <c r="D533" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E533" s="1" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G533" s="1" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="534" spans="1:7">
       <c r="A534" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
       <c r="B534" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
       <c r="C534" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
       <c r="D534" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E534" s="1" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
       <c r="F534" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G534" s="1" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="535" spans="1:7">
       <c r="A535" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
       <c r="B535" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
       <c r="C535" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
       <c r="D535" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E535" s="1" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
       <c r="F535" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G535" s="1" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="536" spans="1:7">
       <c r="A536" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
       <c r="B536" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
       <c r="C536" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="D536" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E536" s="1" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="F536" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G536" s="1" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="537" spans="1:7">
       <c r="A537" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
       <c r="B537" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
       <c r="C537" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
       <c r="D537" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E537" s="1" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
       <c r="F537" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G537" s="1" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="538" spans="1:7">
       <c r="A538" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
       <c r="B538" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
       <c r="C538" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
       <c r="D538" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E538" s="1" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
       <c r="F538" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G538" s="1" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="539" spans="1:7">
       <c r="A539" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="B539" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
       <c r="C539" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
       <c r="D539" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E539" s="1" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
       <c r="F539" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G539" s="1" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="540" spans="1:7">
       <c r="A540" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
       <c r="B540" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
       <c r="C540" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="D540" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E540" s="1" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
       <c r="F540" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G540" s="1" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="541" spans="1:7">
       <c r="A541" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
       <c r="B541" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="C541" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
       <c r="D541" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E541" s="1" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
       <c r="F541" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G541" s="1" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="542" spans="1:7">
       <c r="A542" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
       <c r="B542" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
       <c r="C542" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
       <c r="D542" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E542" s="1" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="F542" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G542" s="1" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="543" spans="1:7">
       <c r="A543" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="B543" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
       <c r="C543" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
       <c r="D543" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E543" s="1" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
       <c r="F543" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G543" s="1" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="544" spans="1:7">
       <c r="A544" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
       <c r="B544" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="C544" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
       <c r="D544" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E544" s="1" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
       <c r="F544" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G544" s="1" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="545" spans="1:7">
       <c r="A545" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
       <c r="B545" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
       <c r="C545" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
       <c r="D545" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E545" s="1" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
       <c r="F545" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G545" s="1" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="546" spans="1:7">
       <c r="A546" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
       <c r="B546" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
       <c r="C546" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="D546" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E546" s="1" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
       <c r="F546" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G546" s="1" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="547" spans="1:7">
       <c r="A547" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
       <c r="B547" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
       <c r="C547" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="D547" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E547" s="1" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
       <c r="F547" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G547" s="1" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="548" spans="1:7">
       <c r="A548" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
       <c r="B548" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
       <c r="C548" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
       <c r="D548" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E548" s="1" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
       <c r="F548" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G548" s="1" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="549" spans="1:7">
       <c r="A549" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
       <c r="B549" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
       <c r="C549" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
       <c r="D549" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E549" s="1" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
       <c r="F549" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G549" s="1" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="550" spans="1:7">
       <c r="A550" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
       <c r="B550" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
       <c r="C550" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
       <c r="D550" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E550" s="1" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
       <c r="F550" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G550" s="1" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="551" spans="1:7">
       <c r="A551" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
       <c r="B551" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
       <c r="C551" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
       <c r="D551" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E551" s="1" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
       <c r="F551" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G551" s="1" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="552" spans="1:7">
       <c r="A552" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="B552" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
       <c r="C552" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
       <c r="D552" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E552" s="1" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
       <c r="F552" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G552" s="1" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="553" spans="1:7">
       <c r="A553" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
       <c r="B553" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
       <c r="C553" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="D553" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E553" s="1" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
       <c r="F553" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G553" s="1" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="554" spans="1:7">
       <c r="A554" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
       <c r="B554" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
       <c r="C554" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
       <c r="D554" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E554" s="1" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
       <c r="F554" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G554" s="1" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="555" spans="1:7">
       <c r="A555" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
       <c r="B555" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
       <c r="C555" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
       <c r="D555" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E555" s="1" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
       <c r="F555" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G555" s="1" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="556" spans="1:7">
       <c r="A556" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
       <c r="B556" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
       <c r="C556" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
       <c r="D556" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E556" s="1" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
       <c r="F556" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G556" s="1" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="557" spans="1:7">
       <c r="A557" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="B557" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="C557" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="D557" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E557" s="1" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
       <c r="F557" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G557" s="1" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="558" spans="1:7">
       <c r="A558" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
       <c r="B558" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
       <c r="C558" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="D558" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E558" s="1" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="F558" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G558" s="1" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="559" spans="1:7">
       <c r="A559" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
       <c r="B559" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
       <c r="C559" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
       <c r="D559" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E559" s="1" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
       <c r="F559" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G559" s="1" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
     </row>
     <row r="560" spans="1:7">
       <c r="A560" t="s">
-        <v>2794</v>
+        <v>2795</v>
       </c>
       <c r="B560" t="s">
-        <v>2795</v>
+        <v>2796</v>
       </c>
       <c r="C560" t="s">
-        <v>2796</v>
+        <v>2797</v>
       </c>
       <c r="D560" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E560" s="1" t="s">
-        <v>2797</v>
+        <v>2798</v>
       </c>
       <c r="F560" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G560" s="1" t="s">
-        <v>2798</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="561" spans="1:7">
       <c r="A561" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="B561" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="C561" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="D561" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E561" s="1" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="F561" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G561" s="1" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="562" spans="1:7">
       <c r="A562" t="s">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="B562" t="s">
-        <v>2805</v>
+        <v>2806</v>
       </c>
       <c r="C562" t="s">
-        <v>2806</v>
+        <v>2807</v>
       </c>
       <c r="D562" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E562" s="1" t="s">
-        <v>2807</v>
+        <v>2808</v>
       </c>
       <c r="F562" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G562" s="1" t="s">
-        <v>2808</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="563" spans="1:7">
       <c r="A563" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="B563" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="C563" t="s">
-        <v>2811</v>
+        <v>2812</v>
       </c>
       <c r="D563" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E563" s="1" t="s">
-        <v>2812</v>
+        <v>2813</v>
       </c>
       <c r="F563" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G563" s="1" t="s">
-        <v>2813</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="564" spans="1:7">
       <c r="A564" t="s">
-        <v>2814</v>
+        <v>2815</v>
       </c>
       <c r="B564" t="s">
-        <v>2815</v>
+        <v>2816</v>
       </c>
       <c r="C564" t="s">
-        <v>2816</v>
+        <v>2817</v>
       </c>
       <c r="D564" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E564" s="1" t="s">
-        <v>2817</v>
+        <v>2818</v>
       </c>
       <c r="F564" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G564" s="1" t="s">
-        <v>2818</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="565" spans="1:7">
       <c r="A565" t="s">
-        <v>2819</v>
+        <v>2820</v>
       </c>
       <c r="B565" t="s">
-        <v>2820</v>
+        <v>2821</v>
       </c>
       <c r="C565" t="s">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="D565" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E565" s="1" t="s">
-        <v>2822</v>
+        <v>2823</v>
       </c>
       <c r="F565" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G565" s="1" t="s">
-        <v>2823</v>
+        <v>2824</v>
       </c>
     </row>
     <row r="566" spans="1:7">
       <c r="A566" t="s">
-        <v>2824</v>
+        <v>2825</v>
       </c>
       <c r="B566" t="s">
-        <v>2825</v>
+        <v>2826</v>
       </c>
       <c r="C566" t="s">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="D566" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E566" s="1" t="s">
-        <v>2827</v>
+        <v>2828</v>
       </c>
       <c r="F566" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G566" s="1" t="s">
-        <v>2828</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="567" spans="1:7">
       <c r="A567" t="s">
-        <v>2829</v>
+        <v>2830</v>
       </c>
       <c r="B567" t="s">
-        <v>2830</v>
+        <v>2831</v>
       </c>
       <c r="C567" t="s">
-        <v>2831</v>
+        <v>2832</v>
       </c>
       <c r="D567" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E567" s="1" t="s">
-        <v>2832</v>
+        <v>2833</v>
       </c>
       <c r="F567" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G567" s="1" t="s">
-        <v>2833</v>
+        <v>2834</v>
       </c>
     </row>
     <row r="568" spans="1:7">
       <c r="A568" t="s">
-        <v>2834</v>
+        <v>2835</v>
       </c>
       <c r="B568" t="s">
-        <v>2835</v>
+        <v>2836</v>
       </c>
       <c r="C568" t="s">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="D568" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E568" s="1" t="s">
-        <v>2837</v>
+        <v>2838</v>
       </c>
       <c r="F568" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G568" s="1" t="s">
-        <v>2838</v>
+        <v>2839</v>
       </c>
     </row>
     <row r="569" spans="1:7">
       <c r="A569" t="s">
-        <v>2839</v>
+        <v>2840</v>
       </c>
       <c r="B569" t="s">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="C569" t="s">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="D569" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E569" s="1" t="s">
-        <v>2842</v>
+        <v>2843</v>
       </c>
       <c r="F569" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G569" s="1" t="s">
-        <v>2843</v>
+        <v>2844</v>
       </c>
     </row>
     <row r="570" spans="1:7">
       <c r="A570" t="s">
-        <v>2844</v>
+        <v>2845</v>
       </c>
       <c r="B570" t="s">
-        <v>2845</v>
+        <v>2846</v>
       </c>
       <c r="C570" t="s">
-        <v>2846</v>
+        <v>2847</v>
       </c>
       <c r="D570" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E570" s="1" t="s">
-        <v>2847</v>
+        <v>2848</v>
       </c>
       <c r="F570" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G570" s="1" t="s">
-        <v>2848</v>
+        <v>2849</v>
       </c>
     </row>
     <row r="571" spans="1:7">
       <c r="A571" t="s">
-        <v>2849</v>
+        <v>2850</v>
       </c>
       <c r="B571" t="s">
-        <v>2850</v>
+        <v>2851</v>
       </c>
       <c r="C571" t="s">
-        <v>2851</v>
+        <v>2852</v>
       </c>
       <c r="D571" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E571" s="1" t="s">
-        <v>2852</v>
+        <v>2853</v>
       </c>
       <c r="F571" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G571" s="1" t="s">
-        <v>2853</v>
+        <v>2854</v>
       </c>
     </row>
     <row r="572" spans="1:7">
       <c r="A572" t="s">
-        <v>2854</v>
+        <v>2855</v>
       </c>
       <c r="B572" t="s">
-        <v>2855</v>
+        <v>2856</v>
       </c>
       <c r="C572" t="s">
-        <v>2856</v>
+        <v>2857</v>
       </c>
       <c r="D572" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E572" s="1" t="s">
-        <v>2857</v>
+        <v>2858</v>
       </c>
       <c r="F572" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G572" s="1" t="s">
-        <v>2858</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="573" spans="1:7">
       <c r="A573" t="s">
-        <v>2859</v>
+        <v>2860</v>
       </c>
       <c r="B573" t="s">
-        <v>2860</v>
+        <v>2861</v>
       </c>
       <c r="C573" t="s">
-        <v>2861</v>
+        <v>2862</v>
       </c>
       <c r="D573" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E573" s="1" t="s">
-        <v>2862</v>
+        <v>2863</v>
       </c>
       <c r="F573" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G573" s="1" t="s">
-        <v>2863</v>
+        <v>2864</v>
       </c>
     </row>
     <row r="574" spans="1:7">
       <c r="A574" t="s">
-        <v>2864</v>
+        <v>2865</v>
       </c>
       <c r="B574" t="s">
-        <v>2865</v>
+        <v>2866</v>
       </c>
       <c r="C574" t="s">
-        <v>2866</v>
+        <v>2867</v>
       </c>
       <c r="D574" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E574" s="1" t="s">
-        <v>2867</v>
+        <v>2868</v>
       </c>
       <c r="F574" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G574" s="1" t="s">
-        <v>2868</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="575" spans="1:7">
       <c r="A575" t="s">
-        <v>2869</v>
+        <v>2870</v>
       </c>
       <c r="B575" t="s">
-        <v>2870</v>
+        <v>2871</v>
       </c>
       <c r="C575" t="s">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="D575" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E575" s="1" t="s">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="F575" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G575" s="1" t="s">
-        <v>2873</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="576" spans="1:7">
       <c r="A576" t="s">
-        <v>2874</v>
+        <v>2875</v>
       </c>
       <c r="B576" t="s">
-        <v>2875</v>
+        <v>2876</v>
       </c>
       <c r="C576" t="s">
-        <v>2876</v>
+        <v>2877</v>
       </c>
       <c r="D576" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E576" s="1" t="s">
-        <v>2877</v>
+        <v>2878</v>
       </c>
       <c r="F576" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G576" s="1" t="s">
-        <v>2878</v>
+        <v>2879</v>
       </c>
     </row>
     <row r="577" spans="1:7">
       <c r="A577" t="s">
-        <v>2879</v>
+        <v>2880</v>
       </c>
       <c r="B577" t="s">
-        <v>2880</v>
+        <v>2881</v>
       </c>
       <c r="C577" t="s">
-        <v>2881</v>
+        <v>2882</v>
       </c>
       <c r="D577" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E577" s="1" t="s">
-        <v>2882</v>
+        <v>2883</v>
       </c>
       <c r="F577" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G577" s="1" t="s">
-        <v>2883</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="578" spans="1:7">
       <c r="A578" t="s">
-        <v>2884</v>
+        <v>2885</v>
       </c>
       <c r="B578" t="s">
-        <v>2885</v>
+        <v>2886</v>
       </c>
       <c r="C578" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="D578" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E578" s="1" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="F578" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G578" s="1" t="s">
-        <v>2888</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="579" spans="1:7">
       <c r="A579" t="s">
-        <v>2889</v>
+        <v>2890</v>
       </c>
       <c r="B579" t="s">
-        <v>2890</v>
+        <v>2891</v>
       </c>
       <c r="C579" t="s">
-        <v>2891</v>
+        <v>2892</v>
       </c>
       <c r="D579" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E579" s="1" t="s">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="F579" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G579" s="1" t="s">
-        <v>2893</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="580" spans="1:7">
       <c r="A580" t="s">
-        <v>2894</v>
+        <v>2895</v>
       </c>
       <c r="B580" t="s">
-        <v>2895</v>
+        <v>2896</v>
       </c>
       <c r="C580" t="s">
-        <v>2896</v>
+        <v>2897</v>
       </c>
       <c r="D580" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E580" s="1" t="s">
-        <v>2897</v>
+        <v>2898</v>
       </c>
       <c r="F580" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G580" s="1" t="s">
-        <v>2898</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="581" spans="1:7">
       <c r="A581" t="s">
-        <v>2899</v>
+        <v>2900</v>
       </c>
       <c r="B581" t="s">
-        <v>2900</v>
+        <v>2901</v>
       </c>
       <c r="C581" t="s">
-        <v>2901</v>
+        <v>2902</v>
       </c>
       <c r="D581" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E581" s="1" t="s">
-        <v>2902</v>
+        <v>2903</v>
       </c>
       <c r="F581" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G581" s="1" t="s">
-        <v>2903</v>
+        <v>2904</v>
       </c>
     </row>
     <row r="582" spans="1:7">
       <c r="A582" t="s">
-        <v>2904</v>
+        <v>2905</v>
       </c>
       <c r="B582" t="s">
-        <v>2905</v>
+        <v>2906</v>
       </c>
       <c r="C582" t="s">
-        <v>2906</v>
+        <v>2907</v>
       </c>
       <c r="D582" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E582" s="1" t="s">
-        <v>2907</v>
+        <v>2908</v>
       </c>
       <c r="F582" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G582" s="1" t="s">
-        <v>2908</v>
+        <v>2909</v>
       </c>
     </row>
     <row r="583" spans="1:7">
       <c r="A583" t="s">
-        <v>2909</v>
+        <v>2910</v>
       </c>
       <c r="B583" t="s">
-        <v>2910</v>
+        <v>2911</v>
       </c>
       <c r="C583" t="s">
-        <v>2911</v>
+        <v>2912</v>
       </c>
       <c r="D583" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E583" s="1" t="s">
-        <v>2912</v>
+        <v>2913</v>
       </c>
       <c r="F583" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G583" s="1" t="s">
-        <v>2913</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="584" spans="1:7">
       <c r="A584" t="s">
-        <v>2914</v>
+        <v>2915</v>
       </c>
       <c r="B584" t="s">
-        <v>2915</v>
+        <v>2916</v>
       </c>
       <c r="C584" t="s">
-        <v>2916</v>
+        <v>2917</v>
       </c>
       <c r="D584" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E584" s="1" t="s">
-        <v>2917</v>
+        <v>2918</v>
       </c>
       <c r="F584" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G584" s="1" t="s">
-        <v>2918</v>
+        <v>2919</v>
       </c>
     </row>
     <row r="585" spans="1:7">
       <c r="A585" t="s">
-        <v>2919</v>
+        <v>2920</v>
       </c>
       <c r="B585" t="s">
-        <v>2920</v>
+        <v>2921</v>
       </c>
       <c r="C585" t="s">
-        <v>2921</v>
+        <v>2922</v>
       </c>
       <c r="D585" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E585" s="1" t="s">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="F585" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G585" s="1" t="s">
-        <v>2923</v>
+        <v>2924</v>
       </c>
     </row>
     <row r="586" spans="1:7">
       <c r="A586" t="s">
-        <v>2924</v>
+        <v>2925</v>
       </c>
       <c r="B586" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="C586" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="D586" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E586" s="1" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="F586" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G586" s="1" t="s">
-        <v>2928</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="587" spans="1:7">
       <c r="A587" t="s">
-        <v>2929</v>
+        <v>2930</v>
       </c>
       <c r="B587" t="s">
-        <v>2930</v>
+        <v>2931</v>
       </c>
       <c r="C587" t="s">
-        <v>2931</v>
+        <v>2932</v>
       </c>
       <c r="D587" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E587" s="1" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="F587" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G587" s="1" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="588" spans="1:7">
       <c r="A588" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="B588" t="s">
-        <v>2935</v>
+        <v>2936</v>
       </c>
       <c r="C588" t="s">
-        <v>2936</v>
+        <v>2937</v>
       </c>
       <c r="D588" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E588" s="1" t="s">
-        <v>2937</v>
+        <v>2938</v>
       </c>
       <c r="F588" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G588" s="1" t="s">
-        <v>2938</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="589" spans="1:7">
       <c r="A589" t="s">
-        <v>2939</v>
+        <v>2940</v>
       </c>
       <c r="B589" t="s">
-        <v>2940</v>
+        <v>2941</v>
       </c>
       <c r="C589" t="s">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="D589" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E589" s="1" t="s">
-        <v>2942</v>
+        <v>2943</v>
       </c>
       <c r="F589" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G589" s="1" t="s">
-        <v>2943</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="590" spans="1:7">
       <c r="A590" t="s">
-        <v>2944</v>
+        <v>2945</v>
       </c>
       <c r="B590" t="s">
-        <v>2945</v>
+        <v>2946</v>
       </c>
       <c r="C590" t="s">
-        <v>2946</v>
+        <v>2947</v>
       </c>
       <c r="D590" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E590" s="1" t="s">
-        <v>2947</v>
+        <v>2948</v>
       </c>
       <c r="F590" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G590" s="1" t="s">
-        <v>2948</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="591" spans="1:7">
       <c r="A591" t="s">
-        <v>2949</v>
+        <v>2950</v>
       </c>
       <c r="B591" t="s">
-        <v>2950</v>
+        <v>2951</v>
       </c>
       <c r="C591" t="s">
-        <v>2951</v>
+        <v>2952</v>
       </c>
       <c r="D591" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E591" s="1" t="s">
-        <v>2952</v>
+        <v>2953</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G591" s="1" t="s">
-        <v>2953</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="592" spans="1:7">
       <c r="A592" t="s">
-        <v>2954</v>
+        <v>2955</v>
       </c>
       <c r="B592" t="s">
-        <v>2955</v>
+        <v>2956</v>
       </c>
       <c r="C592" t="s">
-        <v>2956</v>
+        <v>2957</v>
       </c>
       <c r="D592" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E592" s="1" t="s">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="F592" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G592" s="1" t="s">
-        <v>2958</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="593" spans="1:7">
       <c r="A593" t="s">
-        <v>2959</v>
+        <v>2960</v>
       </c>
       <c r="B593" t="s">
-        <v>2960</v>
+        <v>2961</v>
       </c>
       <c r="C593" t="s">
-        <v>2961</v>
+        <v>2962</v>
       </c>
       <c r="D593" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E593" s="1" t="s">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G593" s="1" t="s">
-        <v>2963</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="594" spans="1:7">
       <c r="A594" t="s">
-        <v>2964</v>
+        <v>2965</v>
       </c>
       <c r="B594" t="s">
-        <v>2965</v>
+        <v>2966</v>
       </c>
       <c r="C594" t="s">
-        <v>2966</v>
+        <v>2967</v>
       </c>
       <c r="D594" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E594" s="1" t="s">
-        <v>2967</v>
+        <v>2968</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G594" s="1" t="s">
-        <v>2968</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="595" spans="1:7">
       <c r="A595" t="s">
-        <v>2969</v>
+        <v>2970</v>
       </c>
       <c r="B595" t="s">
-        <v>2970</v>
+        <v>2971</v>
       </c>
       <c r="C595" t="s">
-        <v>2971</v>
+        <v>2972</v>
       </c>
       <c r="D595" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E595" s="1" t="s">
-        <v>2972</v>
+        <v>2973</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G595" s="1" t="s">
-        <v>2973</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="596" spans="1:7">
       <c r="A596" t="s">
-        <v>2974</v>
+        <v>2975</v>
       </c>
       <c r="B596" t="s">
-        <v>2975</v>
+        <v>2976</v>
       </c>
       <c r="C596" t="s">
-        <v>2976</v>
+        <v>2977</v>
       </c>
       <c r="D596" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E596" s="1" t="s">
-        <v>2977</v>
+        <v>2978</v>
       </c>
       <c r="F596" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G596" s="1" t="s">
-        <v>2978</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="597" spans="1:7">
       <c r="A597" t="s">
-        <v>2979</v>
+        <v>2980</v>
       </c>
       <c r="B597" t="s">
-        <v>2980</v>
+        <v>2981</v>
       </c>
       <c r="C597" t="s">
-        <v>2981</v>
+        <v>2982</v>
       </c>
       <c r="D597" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E597" s="1" t="s">
-        <v>2982</v>
+        <v>2983</v>
       </c>
       <c r="F597" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G597" s="1" t="s">
-        <v>2983</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="598" spans="1:7">
       <c r="A598" t="s">
-        <v>2984</v>
+        <v>2985</v>
       </c>
       <c r="B598" t="s">
-        <v>2985</v>
+        <v>2986</v>
       </c>
       <c r="C598" t="s">
-        <v>2986</v>
+        <v>2987</v>
       </c>
       <c r="D598" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E598" s="1" t="s">
-        <v>2987</v>
+        <v>2988</v>
       </c>
       <c r="F598" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G598" s="1" t="s">
-        <v>2988</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="599" spans="1:7">
       <c r="A599" t="s">
-        <v>2989</v>
+        <v>2990</v>
       </c>
       <c r="B599" t="s">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="C599" t="s">
-        <v>2991</v>
+        <v>2992</v>
       </c>
       <c r="D599" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E599" s="1" t="s">
-        <v>2992</v>
+        <v>2993</v>
       </c>
       <c r="F599" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G599" s="1" t="s">
-        <v>2993</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="600" spans="1:7">
       <c r="A600" t="s">
-        <v>2994</v>
+        <v>2995</v>
       </c>
       <c r="B600" t="s">
-        <v>2995</v>
+        <v>2996</v>
       </c>
       <c r="C600" t="s">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="D600" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E600" s="1" t="s">
-        <v>2997</v>
+        <v>2998</v>
       </c>
       <c r="F600" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G600" s="1" t="s">
-        <v>2998</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="601" spans="1:7">
       <c r="A601" t="s">
-        <v>2999</v>
+        <v>3000</v>
       </c>
       <c r="B601" t="s">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="C601" t="s">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="D601" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E601" s="1" t="s">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="F601" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G601" s="1" t="s">
-        <v>3003</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="602" spans="1:7">
       <c r="A602" t="s">
-        <v>3004</v>
+        <v>3005</v>
       </c>
       <c r="B602" t="s">
-        <v>3005</v>
+        <v>3006</v>
       </c>
       <c r="C602" t="s">
-        <v>3006</v>
+        <v>3007</v>
       </c>
       <c r="D602" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E602" s="1" t="s">
-        <v>3007</v>
+        <v>3008</v>
       </c>
       <c r="F602" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G602" s="1" t="s">
-        <v>3008</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="603" spans="1:7">
       <c r="A603" t="s">
-        <v>3009</v>
+        <v>3010</v>
       </c>
       <c r="B603" t="s">
-        <v>3010</v>
+        <v>3011</v>
       </c>
       <c r="C603" t="s">
-        <v>3011</v>
+        <v>3012</v>
       </c>
       <c r="D603" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E603" s="1" t="s">
-        <v>3012</v>
+        <v>3013</v>
       </c>
       <c r="F603" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G603" s="1" t="s">
-        <v>3013</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="604" spans="1:7">
       <c r="A604" t="s">
-        <v>3014</v>
+        <v>3015</v>
       </c>
       <c r="B604" t="s">
-        <v>3015</v>
+        <v>3016</v>
       </c>
       <c r="C604" t="s">
-        <v>3016</v>
+        <v>3017</v>
       </c>
       <c r="D604" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E604" s="1" t="s">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="F604" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G604" s="1" t="s">
-        <v>3018</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="605" spans="1:7">
       <c r="A605" t="s">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="B605" t="s">
-        <v>3020</v>
+        <v>3021</v>
       </c>
       <c r="C605" t="s">
-        <v>3021</v>
+        <v>3022</v>
       </c>
       <c r="D605" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E605" s="1" t="s">
-        <v>3022</v>
+        <v>3023</v>
       </c>
       <c r="F605" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G605" s="1" t="s">
-        <v>3023</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="606" spans="1:7">
       <c r="A606" t="s">
-        <v>3024</v>
+        <v>3025</v>
       </c>
       <c r="B606" t="s">
-        <v>3025</v>
+        <v>3026</v>
       </c>
       <c r="C606" t="s">
-        <v>3026</v>
+        <v>3027</v>
       </c>
       <c r="D606" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E606" s="1" t="s">
-        <v>3027</v>
+        <v>3028</v>
       </c>
       <c r="F606" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G606" s="1" t="s">
-        <v>3028</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="607" spans="1:7">
       <c r="A607" t="s">
-        <v>3029</v>
+        <v>3030</v>
       </c>
       <c r="B607" t="s">
-        <v>3030</v>
+        <v>3031</v>
       </c>
       <c r="C607" t="s">
-        <v>3031</v>
+        <v>3032</v>
       </c>
       <c r="D607" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E607" s="1" t="s">
-        <v>3032</v>
+        <v>3033</v>
       </c>
       <c r="F607" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G607" s="1" t="s">
-        <v>3033</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="608" spans="1:7">
       <c r="A608" t="s">
-        <v>3034</v>
+        <v>3035</v>
       </c>
       <c r="B608" t="s">
-        <v>3035</v>
+        <v>3036</v>
       </c>
       <c r="C608" t="s">
-        <v>3036</v>
+        <v>3037</v>
       </c>
       <c r="D608" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E608" s="1" t="s">
-        <v>3037</v>
+        <v>3038</v>
       </c>
       <c r="F608" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G608" s="1" t="s">
-        <v>3038</v>
+        <v>3039</v>
       </c>
     </row>
     <row r="609" spans="1:7">
       <c r="A609" t="s">
-        <v>3039</v>
+        <v>3040</v>
       </c>
       <c r="B609" t="s">
-        <v>3040</v>
+        <v>3041</v>
       </c>
       <c r="C609" t="s">
-        <v>3041</v>
+        <v>3042</v>
       </c>
       <c r="D609" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>3042</v>
+        <v>3043</v>
       </c>
       <c r="F609" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G609" s="1" t="s">
-        <v>3043</v>
+        <v>3044</v>
       </c>
     </row>
     <row r="610" spans="1:7">
       <c r="A610" t="s">
-        <v>3044</v>
+        <v>3045</v>
       </c>
       <c r="B610" t="s">
-        <v>3045</v>
+        <v>3046</v>
       </c>
       <c r="C610" t="s">
-        <v>3046</v>
+        <v>3047</v>
       </c>
       <c r="D610" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E610" s="1" t="s">
-        <v>3047</v>
+        <v>3048</v>
       </c>
       <c r="F610" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G610" s="1" t="s">
-        <v>3048</v>
+        <v>3049</v>
       </c>
     </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1652330842" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1652360888" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23582,16 +23615,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1652330842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1652330842" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1652330842" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1652330842" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1652360888" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1652360888" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1652360888" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1652360888" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1652330842" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1652360888" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/ObjectNames.xlsx
+++ b/ObjectNames.xlsx
@@ -13,17 +13,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1652360888" val="1046" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1652360888" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1652360888" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1652360888"/>
+      <pm:revision xmlns:pm="smNativeData" day="1652409564" val="1046" rev="124" rev64="64" revOS="4" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1652409564" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1652409564" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1652409564"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="3050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4263" uniqueCount="3045">
   <si>
     <t>Project</t>
   </si>
@@ -6443,21 +6443,6 @@
   </si>
   <si>
     <t>強化窓</t>
-  </si>
-  <si>
-    <t>IcarusLib</t>
-  </si>
-  <si>
-    <t>Properties\ObjectNames</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>Resources</t>
-  </si>
-  <si>
-    <t>資源</t>
   </si>
   <si>
     <t>IcarusLib</t>
@@ -9197,7 +9182,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1652360888" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1652409564" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -9212,7 +9197,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1652360888" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1652409564" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -9221,26 +9206,15 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-        <extLst>
-          <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1652360888" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
-          </ext>
-        </extLst>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -9256,26 +9230,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1652360888"/>
-        </ext>
-      </extLst>
-    </border>
-    <border>
-      <left style="none">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="none">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="none">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FF000000"/>
-      </bottom>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1652360888"/>
+          <pm:border xmlns:pm="smNativeData" id="1652409564"/>
         </ext>
       </extLst>
     </border>
@@ -9295,7 +9250,7 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1652360888" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1652409564" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
     </ext>
@@ -9559,10 +9514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G610"/>
+  <dimension ref="A1:G609"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" topLeftCell="A452" workbookViewId="0">
-      <selection activeCell="G471" sqref="G471"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429:XFD429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.40"/>
@@ -23579,34 +23534,11 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="610" spans="1:7">
-      <c r="A610" t="s">
-        <v>3045</v>
-      </c>
-      <c r="B610" t="s">
-        <v>3046</v>
-      </c>
-      <c r="C610" t="s">
-        <v>3047</v>
-      </c>
-      <c r="D610" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E610" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="F610" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G610" s="1" t="s">
-        <v>3049</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1652360888" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1652409564" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -23615,16 +23547,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1652360888" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1652360888" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1652360888" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1652360888" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1652409564" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1652409564" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1652409564" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1652409564" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1652360888" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1652409564" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/ObjectNames.xlsx
+++ b/ObjectNames.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1764">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -907,7 +907,7 @@
     <t xml:space="preserve">Campfire</t>
   </si>
   <si>
-    <t xml:space="preserve">たき火穴</t>
+    <t xml:space="preserve">たき火</t>
   </si>
   <si>
     <t xml:space="preserve">Canteen</t>
@@ -1424,7 +1424,7 @@
     <t xml:space="preserve">Cooked Game Meat</t>
   </si>
   <si>
-    <t xml:space="preserve">ゲームミート</t>
+    <t xml:space="preserve">調理したゲームミート</t>
   </si>
   <si>
     <t xml:space="preserve">CookedGiantSteak</t>
@@ -1433,7 +1433,7 @@
     <t xml:space="preserve">Cooked Giant Steak</t>
   </si>
   <si>
-    <t xml:space="preserve">精肉</t>
+    <t xml:space="preserve">調理した精肉</t>
   </si>
   <si>
     <t xml:space="preserve">CookedMeat</t>
@@ -1451,7 +1451,7 @@
     <t xml:space="preserve">Cooked Soft Meat</t>
   </si>
   <si>
-    <t xml:space="preserve">ソフトミート</t>
+    <t xml:space="preserve">調理したソフトミート</t>
   </si>
   <si>
     <t xml:space="preserve">CookedStringyMeat</t>
@@ -1460,7 +1460,7 @@
     <t xml:space="preserve">Cooked Stringy Meat</t>
   </si>
   <si>
-    <t xml:space="preserve">筋のある肉</t>
+    <t xml:space="preserve">調理したスジ肉</t>
   </si>
   <si>
     <t xml:space="preserve">CookedWhiteMeat</t>
@@ -1469,7 +1469,7 @@
     <t xml:space="preserve">Cooked White Meat</t>
   </si>
   <si>
-    <t xml:space="preserve">白身肉</t>
+    <t xml:space="preserve">調理したホワイトミート</t>
   </si>
   <si>
     <t xml:space="preserve">CookingStation</t>
@@ -1983,6 +1983,9 @@
   </si>
   <si>
     <t xml:space="preserve">Firepit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たき火穴</t>
   </si>
   <si>
     <t xml:space="preserve">Fireplace</t>
@@ -3987,7 +3990,7 @@
     <t xml:space="preserve">Raw Bacon</t>
   </si>
   <si>
-    <t xml:space="preserve">生ベーコン</t>
+    <t xml:space="preserve">ベーコン</t>
   </si>
   <si>
     <t xml:space="preserve">RawFattyTbone</t>
@@ -3996,7 +3999,7 @@
     <t xml:space="preserve">Raw Fatty Tbone</t>
   </si>
   <si>
-    <t xml:space="preserve">生の脂肪の骨</t>
+    <t xml:space="preserve">脂ののったTボーン肉</t>
   </si>
   <si>
     <t xml:space="preserve">RawFish</t>
@@ -4005,7 +4008,7 @@
     <t xml:space="preserve">Raw Fish</t>
   </si>
   <si>
-    <t xml:space="preserve">生魚</t>
+    <t xml:space="preserve">魚</t>
   </si>
   <si>
     <t xml:space="preserve">RawGameMeat</t>
@@ -4014,7 +4017,7 @@
     <t xml:space="preserve">Raw Game Meat</t>
   </si>
   <si>
-    <t xml:space="preserve">生ゲームミート</t>
+    <t xml:space="preserve">ゲームミート</t>
   </si>
   <si>
     <t xml:space="preserve">RawGiantSteak</t>
@@ -4023,7 +4026,7 @@
     <t xml:space="preserve">Raw Giant Steak</t>
   </si>
   <si>
-    <t xml:space="preserve">巨大な精肉</t>
+    <t xml:space="preserve">精肉</t>
   </si>
   <si>
     <t xml:space="preserve">RawMeat</t>
@@ -4041,7 +4044,7 @@
     <t xml:space="preserve">Raw Soft Meat</t>
   </si>
   <si>
-    <t xml:space="preserve">生ソフトミート</t>
+    <t xml:space="preserve">ソフトミート</t>
   </si>
   <si>
     <t xml:space="preserve">RawStringyMeat</t>
@@ -4050,7 +4053,7 @@
     <t xml:space="preserve">Raw Stringy Meat</t>
   </si>
   <si>
-    <t xml:space="preserve">生のスジ肉</t>
+    <t xml:space="preserve">スジ肉</t>
   </si>
   <si>
     <t xml:space="preserve">RawWhiteMeat</t>
@@ -4059,7 +4062,7 @@
     <t xml:space="preserve">Raw White Meat</t>
   </si>
   <si>
-    <t xml:space="preserve">生のホワイトミート</t>
+    <t xml:space="preserve">ホワイトミート</t>
   </si>
   <si>
     <t xml:space="preserve">RecurveBow</t>
@@ -4095,7 +4098,7 @@
     <t xml:space="preserve">Refined Wood</t>
   </si>
   <si>
-    <t xml:space="preserve">木</t>
+    <t xml:space="preserve">洗練された木</t>
   </si>
   <si>
     <t xml:space="preserve">Refrigerator</t>
@@ -4221,7 +4224,7 @@
     <t xml:space="preserve">Sandworm Scale</t>
   </si>
   <si>
-    <t xml:space="preserve">蚕の鱗</t>
+    <t xml:space="preserve">サンドワームの鱗</t>
   </si>
   <si>
     <t xml:space="preserve">SandwormSpear</t>
@@ -4257,7 +4260,7 @@
     <t xml:space="preserve">Shengong Akira Hammer</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製明ハンマー</t>
+    <t xml:space="preserve">シェンゴン社製「アキラ」ハンマー</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongDaokouKnife</t>
@@ -4266,7 +4269,7 @@
     <t xml:space="preserve">Shengong Daokou Knife</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製大光包丁</t>
+    <t xml:space="preserve">シェンゴン社製「ダオコウ」包丁</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongDidaSpear</t>
@@ -4275,7 +4278,7 @@
     <t xml:space="preserve">Shengong Dida Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製陀槍</t>
+    <t xml:space="preserve">シェンゴン社製「ディーダ」槍</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongDongPickaxe</t>
@@ -4284,7 +4287,7 @@
     <t xml:space="preserve">Shengong Dong Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製董卓斧</t>
+    <t xml:space="preserve">シェンゴン社製「ドン」斧</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongGongBuSpear</t>
@@ -4293,7 +4296,7 @@
     <t xml:space="preserve">Shengong Gong Bu Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製功夫槍</t>
+    <t xml:space="preserve">シェンゴン社製「ゴンブー」槍</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongHeikeAxe</t>
@@ -4302,7 +4305,7 @@
     <t xml:space="preserve">Shengong Heike Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製平家斧</t>
+    <t xml:space="preserve">シェンゴン社製「ヘイケ」斧</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongHuluCanteen</t>
@@ -4311,7 +4314,7 @@
     <t xml:space="preserve">Shengong Hulu Canteen</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製胡盧餐飲</t>
+    <t xml:space="preserve">シェンゴン社製「フールー」水筒</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongJiBow</t>
@@ -4320,7 +4323,7 @@
     <t xml:space="preserve">Shengong Ji Bow</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製智弓</t>
+    <t xml:space="preserve">シェンゴン社製「ジー」弓</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongJijingBow</t>
@@ -4329,7 +4332,7 @@
     <t xml:space="preserve">Shengong Jijing Bow</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製之弓</t>
+    <t xml:space="preserve">シェンゴン社製「ジージン」弓</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongJijuSpear</t>
@@ -4338,7 +4341,7 @@
     <t xml:space="preserve">Shengong Jiju Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製集鎗</t>
+    <t xml:space="preserve">シェンゴン社製「ジジュ」鎗</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongJushiPickaxe</t>
@@ -4347,7 +4350,7 @@
     <t xml:space="preserve">Shengong Jushi Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製柔斧</t>
+    <t xml:space="preserve">シェンゴン社製「ジュシー」斧</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongKuangPickaxe</t>
@@ -4356,7 +4359,7 @@
     <t xml:space="preserve">Shengong Kuang Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製つるはし</t>
+    <t xml:space="preserve">シェンゴン社製「クアン」つるはし</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongLieAxe</t>
@@ -4365,7 +4368,7 @@
     <t xml:space="preserve">Shengong Lie Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製李斧</t>
+    <t xml:space="preserve">シェンゴン社製「りー」斧</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongLiweiO2Tank</t>
@@ -4374,33 +4377,7 @@
     <t xml:space="preserve">Shengong Liwei O2 Tank</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">シェンゴン社製李維</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">O2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">タンク</t>
-    </r>
+    <t xml:space="preserve">シェンゴン社製「リーイー」O2タンク</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongQieKnife</t>
@@ -4409,7 +4386,7 @@
     <t xml:space="preserve">Shengong Qie Knife</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製羯磨刀</t>
+    <t xml:space="preserve">シェンゴン社製「チー」ナイフ</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongSenAxe</t>
@@ -4418,7 +4395,7 @@
     <t xml:space="preserve">Shengong Sen Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製仙斧</t>
+    <t xml:space="preserve">シェンゴン社製「セン」斧</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongShuiKnife</t>
@@ -4427,7 +4404,7 @@
     <t xml:space="preserve">Shengong Shui Knife</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製水ナイフ</t>
+    <t xml:space="preserve">シェンゴン社製「シュイ」ナイフ</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongSichouKnife</t>
@@ -4436,7 +4413,7 @@
     <t xml:space="preserve">Shengong Sichou Knife</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製四川包丁</t>
+    <t xml:space="preserve">シェンゴン社製「シチョウ」ナイフ</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongSuiShiPickaxe</t>
@@ -4445,7 +4422,7 @@
     <t xml:space="preserve">Shengong Sui Shi Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製水石つるはし</t>
+    <t xml:space="preserve">シェンゴン社製「スイ・シー」つるはし</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongTetsuoHammer</t>
@@ -4454,7 +4431,7 @@
     <t xml:space="preserve">Shengong Tetsuo Hammer</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製鉄鎚</t>
+    <t xml:space="preserve">シェンゴン社製「テツオ」ハンマー</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongWenheArrow</t>
@@ -4463,7 +4440,7 @@
     <t xml:space="preserve">Shengong Wenhe Arrow</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製文和矢</t>
+    <t xml:space="preserve">シェンゴン社製「ウエンヘー」矢</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongXingxingSpear</t>
@@ -4472,7 +4449,7 @@
     <t xml:space="preserve">Shengong Xingxing Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製興業槍</t>
+    <t xml:space="preserve">シェンゴン社製「ジンジン」槍</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongYeyingBandage</t>
@@ -4481,7 +4458,7 @@
     <t xml:space="preserve">Shengong Yeying Bandage</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製玉英包帯</t>
+    <t xml:space="preserve">シェンゴン社製「イエンイン」包帯</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongZhangHuBow</t>
@@ -4490,7 +4467,7 @@
     <t xml:space="preserve">Shengong Zhang Hu Bow</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製張惠妹弓</t>
+    <t xml:space="preserve">シェンゴン社製「ジャン・フー」弓</t>
   </si>
   <si>
     <t xml:space="preserve">Shotgun</t>
@@ -5676,6 +5653,9 @@
     <t xml:space="preserve">Wood</t>
   </si>
   <si>
+    <t xml:space="preserve">木</t>
+  </si>
+  <si>
     <t xml:space="preserve">WoodBeam</t>
   </si>
   <si>
@@ -5992,9 +5972,6 @@
   </si>
   <si>
     <t xml:space="preserve">ワームの毒嚢</t>
-  </si>
-  <si>
-    <t xml:space="preserve">サンドワームの鱗</t>
   </si>
   <si>
     <t xml:space="preserve">Water</t>
@@ -6137,8 +6114,8 @@
   </sheetPr>
   <dimension ref="A1:G614"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A596" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G615" activeCellId="0" sqref="G615"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A452" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G464" activeCellId="0" sqref="G464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9932,7 +9909,7 @@
       </c>
       <c r="F199" s="2"/>
       <c r="G199" s="2" t="s">
-        <v>261</v>
+        <v>579</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9943,15 +9920,15 @@
         <v>7</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F200" s="2"/>
       <c r="G200" s="2" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9962,15 +9939,15 @@
         <v>7</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F201" s="2"/>
       <c r="G201" s="2" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9981,15 +9958,15 @@
         <v>7</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F202" s="2"/>
       <c r="G202" s="2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10000,15 +9977,15 @@
         <v>7</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F203" s="2"/>
       <c r="G203" s="2" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10019,15 +9996,15 @@
         <v>7</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F204" s="2"/>
       <c r="G204" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10038,15 +10015,15 @@
         <v>7</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="3" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F205" s="2"/>
       <c r="G205" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10057,15 +10034,15 @@
         <v>7</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F206" s="2"/>
       <c r="G206" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10076,15 +10053,15 @@
         <v>7</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="3" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F207" s="2"/>
       <c r="G207" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10095,15 +10072,15 @@
         <v>7</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F208" s="2"/>
       <c r="G208" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10114,15 +10091,15 @@
         <v>7</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F209" s="2"/>
       <c r="G209" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10133,15 +10110,15 @@
         <v>7</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="3" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10152,15 +10129,15 @@
         <v>7</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F211" s="2"/>
       <c r="G211" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10171,15 +10148,15 @@
         <v>7</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="3" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F212" s="2"/>
       <c r="G212" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10190,15 +10167,15 @@
         <v>7</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="3" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F213" s="2"/>
       <c r="G213" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10209,15 +10186,15 @@
         <v>7</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10228,15 +10205,15 @@
         <v>7</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="F215" s="2"/>
       <c r="G215" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10247,15 +10224,15 @@
         <v>7</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="3" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F216" s="2"/>
       <c r="G216" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10266,15 +10243,15 @@
         <v>7</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="3" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10285,15 +10262,15 @@
         <v>7</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="3" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10304,15 +10281,15 @@
         <v>7</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F219" s="2"/>
       <c r="G219" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10323,15 +10300,15 @@
         <v>7</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="3" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="F220" s="2"/>
       <c r="G220" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10342,15 +10319,15 @@
         <v>7</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" s="3" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10361,15 +10338,15 @@
         <v>7</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" s="3" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F222" s="2"/>
       <c r="G222" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10380,15 +10357,15 @@
         <v>7</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F223" s="2"/>
       <c r="G223" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,15 +10376,15 @@
         <v>7</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F224" s="2"/>
       <c r="G224" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10418,15 +10395,15 @@
         <v>7</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="3" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F225" s="2"/>
       <c r="G225" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10437,15 +10414,15 @@
         <v>7</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="3" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F226" s="2"/>
       <c r="G226" s="2" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10456,15 +10433,15 @@
         <v>7</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D227" s="2"/>
       <c r="E227" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F227" s="2"/>
       <c r="G227" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10475,15 +10452,15 @@
         <v>7</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D228" s="2"/>
       <c r="E228" s="3" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F228" s="2"/>
       <c r="G228" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10494,15 +10471,15 @@
         <v>7</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D229" s="2"/>
       <c r="E229" s="3" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="F229" s="2"/>
       <c r="G229" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10513,15 +10490,15 @@
         <v>7</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F230" s="2"/>
       <c r="G230" s="2" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10532,15 +10509,15 @@
         <v>7</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10551,15 +10528,15 @@
         <v>7</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D232" s="2"/>
       <c r="E232" s="3" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F232" s="2"/>
       <c r="G232" s="2" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10570,15 +10547,15 @@
         <v>7</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10589,15 +10566,15 @@
         <v>7</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10608,15 +10585,15 @@
         <v>7</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="3" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F235" s="2"/>
       <c r="G235" s="2" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10627,15 +10604,15 @@
         <v>7</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="3" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F236" s="2"/>
       <c r="G236" s="2" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10646,15 +10623,15 @@
         <v>7</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="3" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F237" s="2"/>
       <c r="G237" s="2" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10665,15 +10642,15 @@
         <v>7</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="3" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="F238" s="2"/>
       <c r="G238" s="2" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10684,15 +10661,15 @@
         <v>7</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F239" s="2"/>
       <c r="G239" s="2" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10703,15 +10680,15 @@
         <v>7</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="F240" s="2"/>
       <c r="G240" s="2" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10722,15 +10699,15 @@
         <v>7</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="3" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F241" s="2"/>
       <c r="G241" s="2" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10741,15 +10718,15 @@
         <v>7</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F242" s="2"/>
       <c r="G242" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10760,15 +10737,15 @@
         <v>7</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="3" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="F243" s="2"/>
       <c r="G243" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10779,15 +10756,15 @@
         <v>7</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="3" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F244" s="2"/>
       <c r="G244" s="2" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10798,15 +10775,15 @@
         <v>7</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F245" s="2"/>
       <c r="G245" s="2" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10817,15 +10794,15 @@
         <v>7</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F246" s="2"/>
       <c r="G246" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10836,15 +10813,15 @@
         <v>7</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D247" s="2"/>
       <c r="E247" s="3" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F247" s="2"/>
       <c r="G247" s="2" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10855,15 +10832,15 @@
         <v>7</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D248" s="2"/>
       <c r="E248" s="3" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F248" s="2"/>
       <c r="G248" s="2" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10874,15 +10851,15 @@
         <v>7</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F249" s="2"/>
       <c r="G249" s="2" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10893,15 +10870,15 @@
         <v>7</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F250" s="2"/>
       <c r="G250" s="2" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10912,15 +10889,15 @@
         <v>7</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="3" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F251" s="2"/>
       <c r="G251" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10931,15 +10908,15 @@
         <v>7</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" s="3" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" s="2" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10950,15 +10927,15 @@
         <v>7</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" s="3" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F253" s="2"/>
       <c r="G253" s="2" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10969,15 +10946,15 @@
         <v>7</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" s="3" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F254" s="2"/>
       <c r="G254" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10988,15 +10965,15 @@
         <v>7</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" s="3" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="F255" s="2"/>
       <c r="G255" s="2" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11007,15 +10984,15 @@
         <v>7</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" s="3" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F256" s="2"/>
       <c r="G256" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11026,15 +11003,15 @@
         <v>7</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F257" s="2"/>
       <c r="G257" s="2" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11045,15 +11022,15 @@
         <v>7</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F258" s="2"/>
       <c r="G258" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11064,15 +11041,15 @@
         <v>7</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F259" s="2"/>
       <c r="G259" s="2" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11083,15 +11060,15 @@
         <v>7</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D260" s="2"/>
       <c r="E260" s="3" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11102,15 +11079,15 @@
         <v>7</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F261" s="2"/>
       <c r="G261" s="2" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11121,15 +11098,15 @@
         <v>7</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="F262" s="2"/>
       <c r="G262" s="2" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11140,15 +11117,15 @@
         <v>7</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F263" s="2"/>
       <c r="G263" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11159,15 +11136,15 @@
         <v>7</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="3" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F264" s="2"/>
       <c r="G264" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11178,15 +11155,15 @@
         <v>7</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="F265" s="2"/>
       <c r="G265" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11197,15 +11174,15 @@
         <v>7</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F266" s="2"/>
       <c r="G266" s="2" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11216,15 +11193,15 @@
         <v>7</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" s="3" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="F267" s="2"/>
       <c r="G267" s="2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11235,15 +11212,15 @@
         <v>7</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" s="3" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F268" s="2"/>
       <c r="G268" s="2" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11254,15 +11231,15 @@
         <v>7</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="F269" s="2"/>
       <c r="G269" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11273,15 +11250,15 @@
         <v>7</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" s="3" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="F270" s="2"/>
       <c r="G270" s="2" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11292,15 +11269,15 @@
         <v>7</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="3" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" s="2" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11311,15 +11288,15 @@
         <v>7</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="3" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="F272" s="2"/>
       <c r="G272" s="2" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11330,15 +11307,15 @@
         <v>7</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" s="3" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="F273" s="2"/>
       <c r="G273" s="2" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11349,15 +11326,15 @@
         <v>7</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" s="3" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F274" s="2"/>
       <c r="G274" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11368,15 +11345,15 @@
         <v>7</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="3" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="F275" s="2"/>
       <c r="G275" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11387,15 +11364,15 @@
         <v>7</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="3" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="F276" s="2"/>
       <c r="G276" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11406,15 +11383,15 @@
         <v>7</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="3" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="F277" s="2"/>
       <c r="G277" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11425,15 +11402,15 @@
         <v>7</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="3" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="F278" s="2"/>
       <c r="G278" s="2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11444,15 +11421,15 @@
         <v>7</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="3" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="F279" s="2"/>
       <c r="G279" s="2" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11463,15 +11440,15 @@
         <v>7</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="3" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F280" s="2"/>
       <c r="G280" s="2" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11482,15 +11459,15 @@
         <v>7</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="3" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F281" s="2"/>
       <c r="G281" s="2" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11501,15 +11478,15 @@
         <v>7</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" s="3" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F282" s="2"/>
       <c r="G282" s="2" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11520,15 +11497,15 @@
         <v>7</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" s="3" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F283" s="2"/>
       <c r="G283" s="2" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11539,15 +11516,15 @@
         <v>7</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="3" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F284" s="2"/>
       <c r="G284" s="2" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11558,15 +11535,15 @@
         <v>7</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" s="3" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F285" s="2"/>
       <c r="G285" s="2" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11577,15 +11554,15 @@
         <v>7</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" s="3" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F286" s="2"/>
       <c r="G286" s="2" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11596,15 +11573,15 @@
         <v>7</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" s="3" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F287" s="2"/>
       <c r="G287" s="2" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11615,15 +11592,15 @@
         <v>7</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" s="3" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F288" s="2"/>
       <c r="G288" s="2" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11634,15 +11611,15 @@
         <v>7</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D289" s="2"/>
       <c r="E289" s="3" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="F289" s="2"/>
       <c r="G289" s="2" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11653,15 +11630,15 @@
         <v>7</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" s="3" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="F290" s="2"/>
       <c r="G290" s="2" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11672,15 +11649,15 @@
         <v>7</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="F291" s="2"/>
       <c r="G291" s="2" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11691,15 +11668,15 @@
         <v>7</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" s="3" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F292" s="2"/>
       <c r="G292" s="2" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11710,15 +11687,15 @@
         <v>7</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" s="3" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F293" s="2"/>
       <c r="G293" s="2" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11729,15 +11706,15 @@
         <v>7</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F294" s="2"/>
       <c r="G294" s="2" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11748,15 +11725,15 @@
         <v>7</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" s="3" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F295" s="2"/>
       <c r="G295" s="2" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11767,15 +11744,15 @@
         <v>7</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" s="3" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F296" s="2"/>
       <c r="G296" s="2" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11786,15 +11763,15 @@
         <v>7</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="3" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F297" s="2"/>
       <c r="G297" s="2" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11805,15 +11782,15 @@
         <v>7</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="3" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F298" s="2"/>
       <c r="G298" s="2" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11824,15 +11801,15 @@
         <v>7</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="3" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" s="2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11843,15 +11820,15 @@
         <v>7</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="3" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F300" s="2"/>
       <c r="G300" s="2" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11862,15 +11839,15 @@
         <v>7</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="3" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F301" s="2"/>
       <c r="G301" s="2" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11881,15 +11858,15 @@
         <v>7</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="3" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F302" s="2"/>
       <c r="G302" s="2" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11900,15 +11877,15 @@
         <v>7</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" s="3" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="F303" s="2"/>
       <c r="G303" s="2" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11919,15 +11896,15 @@
         <v>7</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="3" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F304" s="2"/>
       <c r="G304" s="2" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11938,15 +11915,15 @@
         <v>7</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="3" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F305" s="2"/>
       <c r="G305" s="2" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11957,15 +11934,15 @@
         <v>7</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" s="3" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" s="2" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11976,15 +11953,15 @@
         <v>7</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="3" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" s="2" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11995,15 +11972,15 @@
         <v>7</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="3" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F308" s="2"/>
       <c r="G308" s="2" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12014,15 +11991,15 @@
         <v>7</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="3" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F309" s="2"/>
       <c r="G309" s="2" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12033,15 +12010,15 @@
         <v>7</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="3" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F310" s="2"/>
       <c r="G310" s="2" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12052,15 +12029,15 @@
         <v>7</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="3" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="F311" s="2"/>
       <c r="G311" s="2" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12071,15 +12048,15 @@
         <v>7</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D312" s="2"/>
       <c r="E312" s="3" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F312" s="2"/>
       <c r="G312" s="2" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12090,15 +12067,15 @@
         <v>7</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" s="3" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="F313" s="2"/>
       <c r="G313" s="2" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12109,15 +12086,15 @@
         <v>7</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" s="3" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F314" s="2"/>
       <c r="G314" s="2" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12128,15 +12105,15 @@
         <v>7</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" s="3" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F315" s="2"/>
       <c r="G315" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12147,15 +12124,15 @@
         <v>7</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" s="3" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12166,15 +12143,15 @@
         <v>7</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="3" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F317" s="2"/>
       <c r="G317" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12185,15 +12162,15 @@
         <v>7</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" s="3" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="F318" s="2"/>
       <c r="G318" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12204,15 +12181,15 @@
         <v>7</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="3" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="F319" s="2"/>
       <c r="G319" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12223,15 +12200,15 @@
         <v>7</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="3" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F320" s="2"/>
       <c r="G320" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12242,15 +12219,15 @@
         <v>7</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" s="3" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F321" s="2"/>
       <c r="G321" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12261,15 +12238,15 @@
         <v>7</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="3" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12280,15 +12257,15 @@
         <v>7</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="3" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F323" s="2"/>
       <c r="G323" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12299,15 +12276,15 @@
         <v>7</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="3" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F324" s="2"/>
       <c r="G324" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12318,15 +12295,15 @@
         <v>7</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="3" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F325" s="2"/>
       <c r="G325" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12337,15 +12314,15 @@
         <v>7</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="3" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" s="2" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12356,15 +12333,15 @@
         <v>7</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" s="3" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F327" s="2"/>
       <c r="G327" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12375,15 +12352,15 @@
         <v>7</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="3" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" s="2" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12394,15 +12371,15 @@
         <v>7</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="3" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" s="2" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12413,15 +12390,15 @@
         <v>7</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" s="3" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" s="2" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12432,15 +12409,15 @@
         <v>7</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" s="3" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" s="2" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12451,15 +12428,15 @@
         <v>7</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="3" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" s="2" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12470,15 +12447,15 @@
         <v>7</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" s="3" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" s="2" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12489,15 +12466,15 @@
         <v>7</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" s="3" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" s="2" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12508,15 +12485,15 @@
         <v>7</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" s="3" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12527,15 +12504,15 @@
         <v>7</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" s="3" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12546,15 +12523,15 @@
         <v>7</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" s="3" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="F337" s="2"/>
       <c r="G337" s="2" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12565,15 +12542,15 @@
         <v>7</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" s="3" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12584,15 +12561,15 @@
         <v>7</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" s="3" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F339" s="2"/>
       <c r="G339" s="2" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12603,15 +12580,15 @@
         <v>7</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="3" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="F340" s="2"/>
       <c r="G340" s="2" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12622,15 +12599,15 @@
         <v>7</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D341" s="2"/>
       <c r="E341" s="3" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" s="2" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12641,15 +12618,15 @@
         <v>7</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" s="3" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F342" s="2"/>
       <c r="G342" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12660,15 +12637,15 @@
         <v>7</v>
       </c>
       <c r="C343" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" s="3" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="F343" s="2"/>
       <c r="G343" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12679,15 +12656,15 @@
         <v>7</v>
       </c>
       <c r="C344" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" s="3" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F344" s="2"/>
       <c r="G344" s="2" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12698,13 +12675,13 @@
         <v>7</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="D345" s="2"/>
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
       <c r="G345" s="2" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12715,15 +12692,15 @@
         <v>7</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D346" s="2"/>
       <c r="E346" s="3" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F346" s="2"/>
       <c r="G346" s="2" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12734,15 +12711,15 @@
         <v>7</v>
       </c>
       <c r="C347" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="3" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12753,15 +12730,15 @@
         <v>7</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="3" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12772,15 +12749,15 @@
         <v>7</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12791,15 +12768,15 @@
         <v>7</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12810,15 +12787,15 @@
         <v>7</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12829,15 +12806,15 @@
         <v>7</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="3" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12848,15 +12825,15 @@
         <v>7</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12867,15 +12844,15 @@
         <v>7</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12886,15 +12863,15 @@
         <v>7</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="3" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12905,15 +12882,15 @@
         <v>7</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12924,15 +12901,15 @@
         <v>7</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12943,15 +12920,15 @@
         <v>7</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="3" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="3" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12962,15 +12939,15 @@
         <v>7</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="3" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="3" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12981,15 +12958,15 @@
         <v>7</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="3" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="2" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13000,15 +12977,15 @@
         <v>7</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="3" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13019,15 +12996,15 @@
         <v>7</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="3" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F362" s="2"/>
       <c r="G362" s="2" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13038,15 +13015,15 @@
         <v>7</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="3" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13057,15 +13034,15 @@
         <v>7</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="3" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" s="2" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13076,15 +13053,15 @@
         <v>7</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="3" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F365" s="2"/>
       <c r="G365" s="2" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13095,15 +13072,15 @@
         <v>7</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="3" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13114,15 +13091,15 @@
         <v>7</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="3" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13133,15 +13110,15 @@
         <v>7</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="3" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13152,15 +13129,15 @@
         <v>7</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="3" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13171,15 +13148,15 @@
         <v>7</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="3" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13190,15 +13167,15 @@
         <v>7</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="3" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13209,15 +13186,15 @@
         <v>7</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="3" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13228,15 +13205,15 @@
         <v>7</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="3" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F373" s="2"/>
       <c r="G373" s="2" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13247,15 +13224,15 @@
         <v>7</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" s="3" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13266,15 +13243,15 @@
         <v>7</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" s="3" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" s="2" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13285,15 +13262,15 @@
         <v>7</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="3" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" s="2" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13304,15 +13281,15 @@
         <v>7</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="3" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F377" s="2"/>
       <c r="G377" s="2" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13323,15 +13300,15 @@
         <v>7</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="3" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" s="2" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13342,15 +13319,15 @@
         <v>7</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="3" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13361,15 +13338,15 @@
         <v>7</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="3" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13380,15 +13357,15 @@
         <v>7</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="3" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13399,15 +13376,15 @@
         <v>7</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="3" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" s="2" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13418,15 +13395,15 @@
         <v>7</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="3" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" s="2" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13437,15 +13414,15 @@
         <v>7</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="3" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" s="2" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13456,15 +13433,15 @@
         <v>7</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="3" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" s="2" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13475,15 +13452,15 @@
         <v>7</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="3" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F386" s="2"/>
       <c r="G386" s="2" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13494,15 +13471,15 @@
         <v>7</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="3" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" s="2" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13513,15 +13490,15 @@
         <v>7</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="3" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="2" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13532,15 +13509,15 @@
         <v>7</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="3" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F389" s="2"/>
       <c r="G389" s="2" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13551,15 +13528,15 @@
         <v>7</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="3" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13570,15 +13547,15 @@
         <v>7</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="3" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" s="2" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13589,15 +13566,15 @@
         <v>7</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="3" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F392" s="2"/>
       <c r="G392" s="2" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13608,15 +13585,15 @@
         <v>7</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="3" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" s="2" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13627,15 +13604,15 @@
         <v>7</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="3" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13646,15 +13623,15 @@
         <v>7</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="3" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="2" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13665,15 +13642,15 @@
         <v>7</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="3" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" s="2" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13684,15 +13661,15 @@
         <v>7</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="3" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" s="2" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13703,15 +13680,15 @@
         <v>7</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="3" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="F398" s="2"/>
       <c r="G398" s="2" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13722,15 +13699,15 @@
         <v>7</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="3" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13741,15 +13718,15 @@
         <v>7</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="3" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="2" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13760,15 +13737,15 @@
         <v>7</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="3" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13779,15 +13756,15 @@
         <v>7</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="3" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="2" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13798,15 +13775,15 @@
         <v>7</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13817,15 +13794,15 @@
         <v>7</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13836,15 +13813,15 @@
         <v>7</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="2" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13855,15 +13832,15 @@
         <v>7</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="3" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13874,15 +13851,15 @@
         <v>7</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="3" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="2" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13893,15 +13870,15 @@
         <v>7</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" s="3" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="2" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13912,15 +13889,15 @@
         <v>7</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" s="3" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" s="2" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13931,15 +13908,15 @@
         <v>7</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="3" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="F410" s="2"/>
       <c r="G410" s="2" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13950,15 +13927,15 @@
         <v>7</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" s="3" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F411" s="2"/>
       <c r="G411" s="2" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13969,15 +13946,15 @@
         <v>7</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="3" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="2" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13988,15 +13965,15 @@
         <v>7</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" s="3" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14007,15 +13984,15 @@
         <v>7</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="3" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14026,15 +14003,15 @@
         <v>7</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="3" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="2" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14045,15 +14022,15 @@
         <v>7</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="3" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14064,15 +14041,15 @@
         <v>7</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="3" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" s="2" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14083,15 +14060,15 @@
         <v>7</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="3" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" s="2" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14102,15 +14079,15 @@
         <v>7</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="3" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F419" s="2"/>
       <c r="G419" s="2" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14121,15 +14098,15 @@
         <v>7</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="3" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="F420" s="2"/>
       <c r="G420" s="2" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14140,15 +14117,15 @@
         <v>7</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" s="3" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" s="2" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14159,15 +14136,15 @@
         <v>7</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="F422" s="2"/>
       <c r="G422" s="2" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14178,15 +14155,15 @@
         <v>7</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="3" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F423" s="2"/>
       <c r="G423" s="2" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14197,15 +14174,15 @@
         <v>7</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="3" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="F424" s="2"/>
       <c r="G424" s="2" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14216,15 +14193,15 @@
         <v>7</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="3" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="F425" s="2"/>
       <c r="G425" s="2" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14235,15 +14212,15 @@
         <v>7</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="3" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="F426" s="2"/>
       <c r="G426" s="2" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14254,15 +14231,15 @@
         <v>7</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="3" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F427" s="2"/>
       <c r="G427" s="2" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14273,15 +14250,15 @@
         <v>7</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="3" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F428" s="2"/>
       <c r="G428" s="2" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14292,15 +14269,15 @@
         <v>7</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="3" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" s="2" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14311,15 +14288,15 @@
         <v>7</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="3" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="F430" s="2"/>
       <c r="G430" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14330,15 +14307,15 @@
         <v>7</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="3" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F431" s="2"/>
       <c r="G431" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14349,15 +14326,15 @@
         <v>7</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="3" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F432" s="2"/>
       <c r="G432" s="2" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14368,15 +14345,15 @@
         <v>7</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="3" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" s="2" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14387,15 +14364,15 @@
         <v>7</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="3" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F434" s="2"/>
       <c r="G434" s="2" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14406,15 +14383,15 @@
         <v>7</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="3" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14425,15 +14402,15 @@
         <v>7</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="3" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F436" s="2"/>
       <c r="G436" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14444,15 +14421,15 @@
         <v>7</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="3" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F437" s="2"/>
       <c r="G437" s="2" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14463,15 +14440,15 @@
         <v>7</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="3" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="F438" s="2"/>
       <c r="G438" s="2" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14482,15 +14459,15 @@
         <v>7</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="3" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" s="2" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14501,15 +14478,15 @@
         <v>7</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="3" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F440" s="2"/>
       <c r="G440" s="2" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14520,15 +14497,15 @@
         <v>7</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="3" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F441" s="2"/>
       <c r="G441" s="2" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14539,15 +14516,15 @@
         <v>7</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="3" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F442" s="2"/>
       <c r="G442" s="2" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14558,15 +14535,15 @@
         <v>7</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="3" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="F443" s="2"/>
       <c r="G443" s="2" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14577,15 +14554,15 @@
         <v>7</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="3" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="F444" s="2"/>
       <c r="G444" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14596,15 +14573,15 @@
         <v>7</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="3" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F445" s="2"/>
       <c r="G445" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14615,15 +14592,15 @@
         <v>7</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="3" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F446" s="2"/>
       <c r="G446" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14634,15 +14611,15 @@
         <v>7</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="3" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F447" s="2"/>
       <c r="G447" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14653,15 +14630,15 @@
         <v>7</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="3" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F448" s="2"/>
       <c r="G448" s="2" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14672,15 +14649,15 @@
         <v>7</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="3" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F449" s="2"/>
       <c r="G449" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14691,15 +14668,15 @@
         <v>7</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="3" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F450" s="2"/>
       <c r="G450" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14710,15 +14687,15 @@
         <v>7</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="3" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F451" s="2"/>
       <c r="G451" s="2" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14729,18 +14706,18 @@
         <v>7</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="3" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F452" s="2"/>
       <c r="G452" s="2" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="453" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="s">
         <v>6</v>
       </c>
@@ -14748,15 +14725,15 @@
         <v>7</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="3" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="F453" s="2"/>
       <c r="G453" s="2" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14767,15 +14744,15 @@
         <v>7</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="3" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="F454" s="2"/>
       <c r="G454" s="2" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14786,15 +14763,15 @@
         <v>7</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" s="3" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="F455" s="2"/>
       <c r="G455" s="2" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14805,15 +14782,15 @@
         <v>7</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="3" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F456" s="2"/>
       <c r="G456" s="2" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14824,15 +14801,15 @@
         <v>7</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="3" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" s="2" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14843,15 +14820,15 @@
         <v>7</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" s="3" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F458" s="2"/>
       <c r="G458" s="2" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14862,15 +14839,15 @@
         <v>7</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" s="3" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" s="2" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14881,15 +14858,15 @@
         <v>7</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="3" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F460" s="2"/>
       <c r="G460" s="2" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14900,15 +14877,15 @@
         <v>7</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="3" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F461" s="2"/>
       <c r="G461" s="2" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14919,15 +14896,15 @@
         <v>7</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="3" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F462" s="2"/>
       <c r="G462" s="2" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14938,15 +14915,15 @@
         <v>7</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="3" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F463" s="2"/>
       <c r="G463" s="2" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14957,15 +14934,15 @@
         <v>7</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" s="3" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F464" s="2"/>
       <c r="G464" s="2" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14976,15 +14953,15 @@
         <v>7</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="3" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" s="2" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14995,15 +14972,15 @@
         <v>7</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="3" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F466" s="2"/>
       <c r="G466" s="2" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15014,15 +14991,15 @@
         <v>7</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="3" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" s="2" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15033,15 +15010,15 @@
         <v>7</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="3" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F468" s="2"/>
       <c r="G468" s="2" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15052,15 +15029,15 @@
         <v>7</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="3" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F469" s="2"/>
       <c r="G469" s="2" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15071,15 +15048,15 @@
         <v>7</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="3" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="F470" s="2"/>
       <c r="G470" s="2" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15090,15 +15067,15 @@
         <v>7</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="3" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="F471" s="2"/>
       <c r="G471" s="2" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15109,15 +15086,15 @@
         <v>7</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="F472" s="2"/>
       <c r="G472" s="2" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15128,15 +15105,15 @@
         <v>7</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F473" s="2"/>
       <c r="G473" s="2" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15147,15 +15124,15 @@
         <v>7</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" s="3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="F474" s="2"/>
       <c r="G474" s="2" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15166,15 +15143,15 @@
         <v>7</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" s="3" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="F475" s="2"/>
       <c r="G475" s="2" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15185,15 +15162,15 @@
         <v>7</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="F476" s="2"/>
       <c r="G476" s="2" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15204,15 +15181,15 @@
         <v>7</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="F477" s="2"/>
       <c r="G477" s="2" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15223,15 +15200,15 @@
         <v>7</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="F478" s="2"/>
       <c r="G478" s="2" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15242,15 +15219,15 @@
         <v>7</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="F479" s="2"/>
       <c r="G479" s="2" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15261,15 +15238,15 @@
         <v>7</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="3" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F480" s="2"/>
       <c r="G480" s="2" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15280,15 +15257,15 @@
         <v>7</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="3" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="F481" s="2"/>
       <c r="G481" s="2" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15299,15 +15276,15 @@
         <v>7</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="3" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F482" s="2"/>
       <c r="G482" s="2" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15318,15 +15295,15 @@
         <v>7</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" s="3" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="F483" s="2"/>
       <c r="G483" s="3" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15337,15 +15314,15 @@
         <v>7</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="3" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="F484" s="2"/>
       <c r="G484" s="3" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15356,15 +15333,15 @@
         <v>7</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="3" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="F485" s="2"/>
       <c r="G485" s="3" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15375,15 +15352,15 @@
         <v>7</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="3" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="F486" s="2"/>
       <c r="G486" s="3" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15394,15 +15371,15 @@
         <v>7</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="3" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F487" s="2"/>
       <c r="G487" s="3" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15413,15 +15390,15 @@
         <v>7</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="3" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="F488" s="2"/>
       <c r="G488" s="2" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15432,15 +15409,15 @@
         <v>7</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="3" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F489" s="2"/>
       <c r="G489" s="2" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15451,15 +15428,15 @@
         <v>7</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="3" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F490" s="2"/>
       <c r="G490" s="2" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15470,15 +15447,15 @@
         <v>7</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" s="3" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F491" s="2"/>
       <c r="G491" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15489,15 +15466,15 @@
         <v>7</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="3" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="F492" s="2"/>
       <c r="G492" s="2" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15508,15 +15485,15 @@
         <v>7</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="3" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="F493" s="2"/>
       <c r="G493" s="2" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15527,15 +15504,15 @@
         <v>7</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="3" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="F494" s="2"/>
       <c r="G494" s="2" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15546,15 +15523,15 @@
         <v>7</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="3" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F495" s="2"/>
       <c r="G495" s="2" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15565,15 +15542,15 @@
         <v>7</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="3" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="F496" s="2"/>
       <c r="G496" s="2" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15584,15 +15561,15 @@
         <v>7</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="3" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="F497" s="2"/>
       <c r="G497" s="2" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15603,15 +15580,15 @@
         <v>7</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" s="3" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F498" s="2"/>
       <c r="G498" s="2" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15622,15 +15599,15 @@
         <v>7</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" s="3" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="F499" s="2"/>
       <c r="G499" s="2" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15641,15 +15618,15 @@
         <v>7</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" s="3" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="F500" s="2"/>
       <c r="G500" s="2" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15660,15 +15637,15 @@
         <v>7</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" s="3" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="F501" s="2"/>
       <c r="G501" s="2" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15679,15 +15656,15 @@
         <v>7</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" s="3" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F502" s="2"/>
       <c r="G502" s="2" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15698,15 +15675,15 @@
         <v>7</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" s="3" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="F503" s="2"/>
       <c r="G503" s="2" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15717,15 +15694,15 @@
         <v>7</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" s="3" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="F504" s="2"/>
       <c r="G504" s="2" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15736,15 +15713,15 @@
         <v>7</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" s="3" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="F505" s="2"/>
       <c r="G505" s="2" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15755,15 +15732,15 @@
         <v>7</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" s="3" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="F506" s="2"/>
       <c r="G506" s="2" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15774,15 +15751,15 @@
         <v>7</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" s="3" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="F507" s="2"/>
       <c r="G507" s="2" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15793,15 +15770,15 @@
         <v>7</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" s="3" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="F508" s="2"/>
       <c r="G508" s="2" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15812,15 +15789,15 @@
         <v>7</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" s="3" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F509" s="2"/>
       <c r="G509" s="2" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15831,15 +15808,15 @@
         <v>7</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" s="3" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="F510" s="2"/>
       <c r="G510" s="2" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15850,15 +15827,15 @@
         <v>7</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" s="3" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="F511" s="2"/>
       <c r="G511" s="2" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15869,15 +15846,15 @@
         <v>7</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" s="3" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F512" s="2"/>
       <c r="G512" s="2" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15888,15 +15865,15 @@
         <v>7</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" s="3" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="F513" s="2"/>
       <c r="G513" s="2" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15907,15 +15884,15 @@
         <v>7</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" s="3" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="F514" s="2"/>
       <c r="G514" s="2" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15926,15 +15903,15 @@
         <v>7</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" s="3" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="F515" s="2"/>
       <c r="G515" s="2" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15945,15 +15922,15 @@
         <v>7</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" s="3" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F516" s="2"/>
       <c r="G516" s="2" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15964,15 +15941,15 @@
         <v>7</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" s="3" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F517" s="2"/>
       <c r="G517" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15983,15 +15960,15 @@
         <v>7</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" s="3" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="F518" s="2"/>
       <c r="G518" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16002,15 +15979,15 @@
         <v>7</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" s="3" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="F519" s="2"/>
       <c r="G519" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16021,15 +15998,15 @@
         <v>7</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" s="3" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="F520" s="2"/>
       <c r="G520" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16040,15 +16017,15 @@
         <v>7</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" s="3" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="F521" s="2"/>
       <c r="G521" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16059,15 +16036,15 @@
         <v>7</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" s="3" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="F522" s="2"/>
       <c r="G522" s="2" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16078,15 +16055,15 @@
         <v>7</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" s="3" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="F523" s="2"/>
       <c r="G523" s="2" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16097,15 +16074,15 @@
         <v>7</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" s="3" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="F524" s="2"/>
       <c r="G524" s="2" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16116,15 +16093,15 @@
         <v>7</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" s="3" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="F525" s="2"/>
       <c r="G525" s="2" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16135,15 +16112,15 @@
         <v>7</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" s="3" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="F526" s="2"/>
       <c r="G526" s="2" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16154,15 +16131,15 @@
         <v>7</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" s="3" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="F527" s="2"/>
       <c r="G527" s="2" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16173,15 +16150,15 @@
         <v>7</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" s="3" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="F528" s="2"/>
       <c r="G528" s="2" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16192,15 +16169,15 @@
         <v>7</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" s="3" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="F529" s="2"/>
       <c r="G529" s="2" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16211,15 +16188,15 @@
         <v>7</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" s="3" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="F530" s="2"/>
       <c r="G530" s="2" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16230,15 +16207,15 @@
         <v>7</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" s="3" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="F531" s="2"/>
       <c r="G531" s="2" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16249,15 +16226,15 @@
         <v>7</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" s="3" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" s="2" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16268,15 +16245,15 @@
         <v>7</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" s="3" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="F533" s="2"/>
       <c r="G533" s="2" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16287,15 +16264,15 @@
         <v>7</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" s="3" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="F534" s="2"/>
       <c r="G534" s="2" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16306,15 +16283,15 @@
         <v>7</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" s="3" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="F535" s="2"/>
       <c r="G535" s="2" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16325,15 +16302,15 @@
         <v>7</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" s="3" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="F536" s="2"/>
       <c r="G536" s="2" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16344,15 +16321,15 @@
         <v>7</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" s="3" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="F537" s="2"/>
       <c r="G537" s="2" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16363,15 +16340,15 @@
         <v>7</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" s="3" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="F538" s="2"/>
       <c r="G538" s="2" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16382,15 +16359,15 @@
         <v>7</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" s="3" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F539" s="2"/>
       <c r="G539" s="2" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16401,15 +16378,15 @@
         <v>7</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" s="3" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F540" s="2"/>
       <c r="G540" s="2" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16420,15 +16397,15 @@
         <v>7</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" s="3" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="F541" s="2"/>
       <c r="G541" s="2" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16439,15 +16416,15 @@
         <v>7</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" s="3" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" s="2" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16458,15 +16435,15 @@
         <v>7</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" s="3" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="F543" s="2"/>
       <c r="G543" s="2" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16477,15 +16454,15 @@
         <v>7</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" s="3" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" s="2" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16496,15 +16473,15 @@
         <v>7</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" s="3" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F545" s="2"/>
       <c r="G545" s="2" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16515,15 +16492,15 @@
         <v>7</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" s="3" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="F546" s="2"/>
       <c r="G546" s="2" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16534,15 +16511,15 @@
         <v>7</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" s="3" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="F547" s="2"/>
       <c r="G547" s="2" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16553,15 +16530,15 @@
         <v>7</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" s="3" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="F548" s="2"/>
       <c r="G548" s="2" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16572,15 +16549,15 @@
         <v>7</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" s="3" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="F549" s="2"/>
       <c r="G549" s="2" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16591,15 +16568,15 @@
         <v>7</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" s="3" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="F550" s="2"/>
       <c r="G550" s="2" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16610,15 +16587,15 @@
         <v>7</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" s="3" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="F551" s="2"/>
       <c r="G551" s="2" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16629,15 +16606,15 @@
         <v>7</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" s="3" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="F552" s="2"/>
       <c r="G552" s="2" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16648,15 +16625,15 @@
         <v>7</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" s="3" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="F553" s="2"/>
       <c r="G553" s="2" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16667,15 +16644,15 @@
         <v>7</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" s="3" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="F554" s="2"/>
       <c r="G554" s="2" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16686,15 +16663,15 @@
         <v>7</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" s="3" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="F555" s="2"/>
       <c r="G555" s="2" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16705,15 +16682,15 @@
         <v>7</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" s="3" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="F556" s="2"/>
       <c r="G556" s="2" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16724,15 +16701,15 @@
         <v>7</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" s="3" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="F557" s="2"/>
       <c r="G557" s="2" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16743,15 +16720,15 @@
         <v>7</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" s="3" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="F558" s="2"/>
       <c r="G558" s="2" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16762,15 +16739,15 @@
         <v>7</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" s="3" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="F559" s="2"/>
       <c r="G559" s="2" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16781,15 +16758,15 @@
         <v>7</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" s="3" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="F560" s="2"/>
       <c r="G560" s="2" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16800,15 +16777,15 @@
         <v>7</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" s="3" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="F561" s="2"/>
       <c r="G561" s="2" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16819,15 +16796,15 @@
         <v>7</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" s="3" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F562" s="2"/>
       <c r="G562" s="2" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16838,15 +16815,15 @@
         <v>7</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" s="3" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="F563" s="2"/>
       <c r="G563" s="2" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16857,15 +16834,15 @@
         <v>7</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" s="3" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="F564" s="2"/>
       <c r="G564" s="2" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16876,15 +16853,15 @@
         <v>7</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" s="3" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="F565" s="2"/>
       <c r="G565" s="2" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16895,15 +16872,15 @@
         <v>7</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" s="3" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="F566" s="2"/>
       <c r="G566" s="2" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16914,15 +16891,15 @@
         <v>7</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" s="3" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F567" s="2"/>
       <c r="G567" s="2" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16933,15 +16910,15 @@
         <v>7</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" s="3" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="F568" s="2"/>
       <c r="G568" s="2" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16952,15 +16929,15 @@
         <v>7</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" s="3" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="F569" s="2"/>
       <c r="G569" s="2" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16971,15 +16948,15 @@
         <v>7</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" s="3" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="F570" s="2"/>
       <c r="G570" s="2" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16990,15 +16967,15 @@
         <v>7</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" s="3" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F571" s="2"/>
       <c r="G571" s="2" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17009,15 +16986,15 @@
         <v>7</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" s="3" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="F572" s="2"/>
       <c r="G572" s="2" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17028,15 +17005,15 @@
         <v>7</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" s="3" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="F573" s="2"/>
       <c r="G573" s="2" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17047,15 +17024,15 @@
         <v>7</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" s="3" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="F574" s="2"/>
       <c r="G574" s="2" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17066,15 +17043,15 @@
         <v>7</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" s="3" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="F575" s="2"/>
       <c r="G575" s="2" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17085,15 +17062,15 @@
         <v>7</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" s="3" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="F576" s="2"/>
       <c r="G576" s="2" t="s">
-        <v>1211</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17104,15 +17081,15 @@
         <v>7</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" s="3" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
       <c r="F577" s="2"/>
       <c r="G577" s="2" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17123,15 +17100,15 @@
         <v>7</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" s="3" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
       <c r="F578" s="2"/>
       <c r="G578" s="2" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17142,15 +17119,15 @@
         <v>7</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" s="3" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
       <c r="F579" s="2"/>
       <c r="G579" s="2" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17161,15 +17138,15 @@
         <v>7</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" s="3" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
       <c r="F580" s="2"/>
       <c r="G580" s="2" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17180,15 +17157,15 @@
         <v>7</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" s="3" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
       <c r="F581" s="2"/>
       <c r="G581" s="2" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17199,15 +17176,15 @@
         <v>7</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" s="3" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
       <c r="F582" s="2"/>
       <c r="G582" s="2" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17218,15 +17195,15 @@
         <v>7</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" s="3" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
       <c r="F583" s="2"/>
       <c r="G583" s="2" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17237,15 +17214,15 @@
         <v>7</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" s="3" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="F584" s="2"/>
       <c r="G584" s="2" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17256,15 +17233,15 @@
         <v>7</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" s="3" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="F585" s="2"/>
       <c r="G585" s="2" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17275,15 +17252,15 @@
         <v>7</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" s="3" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
       <c r="F586" s="2"/>
       <c r="G586" s="2" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17294,15 +17271,15 @@
         <v>7</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" s="3" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
       <c r="F587" s="2"/>
       <c r="G587" s="2" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17313,15 +17290,15 @@
         <v>7</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" s="3" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
       <c r="F588" s="2"/>
       <c r="G588" s="2" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17332,15 +17309,15 @@
         <v>7</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" s="3" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
       <c r="F589" s="2"/>
       <c r="G589" s="2" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17351,15 +17328,15 @@
         <v>7</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" s="3" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="F590" s="2"/>
       <c r="G590" s="2" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17370,15 +17347,15 @@
         <v>7</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" s="3" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="F591" s="2"/>
       <c r="G591" s="2" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17389,15 +17366,15 @@
         <v>7</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" s="3" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="F592" s="2"/>
       <c r="G592" s="2" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17408,15 +17385,15 @@
         <v>7</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" s="3" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
       <c r="F593" s="2"/>
       <c r="G593" s="2" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17427,15 +17404,15 @@
         <v>7</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" s="3" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
       <c r="F594" s="2"/>
       <c r="G594" s="2" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17446,15 +17423,15 @@
         <v>7</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" s="3" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
       <c r="F595" s="2"/>
       <c r="G595" s="2" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17465,15 +17442,15 @@
         <v>7</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" s="3" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
       <c r="F596" s="2"/>
       <c r="G596" s="2" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17484,15 +17461,15 @@
         <v>7</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" s="3" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
       <c r="F597" s="2"/>
       <c r="G597" s="2" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17503,15 +17480,15 @@
         <v>7</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" s="3" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
       <c r="F598" s="2"/>
       <c r="G598" s="2" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17522,15 +17499,15 @@
         <v>7</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" s="3" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="F599" s="2"/>
       <c r="G599" s="2" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17541,15 +17518,15 @@
         <v>7</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" s="3" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="F600" s="2"/>
       <c r="G600" s="2" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17560,15 +17537,15 @@
         <v>7</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" s="3" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="F601" s="2"/>
       <c r="G601" s="2" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17579,15 +17556,15 @@
         <v>7</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" s="3" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
       <c r="F602" s="2"/>
       <c r="G602" s="2" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17598,15 +17575,15 @@
         <v>7</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" s="3" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
       <c r="F603" s="2"/>
       <c r="G603" s="2" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17617,15 +17594,15 @@
         <v>7</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" s="3" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
       <c r="F604" s="2"/>
       <c r="G604" s="2" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17636,15 +17613,15 @@
         <v>7</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" s="3" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
       <c r="F605" s="2"/>
       <c r="G605" s="2" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17655,15 +17632,15 @@
         <v>7</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" s="3" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
       <c r="F606" s="2"/>
       <c r="G606" s="2" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17674,15 +17651,15 @@
         <v>7</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" s="3" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" s="2" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17693,15 +17670,15 @@
         <v>7</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" s="3" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
       <c r="F608" s="2"/>
       <c r="G608" s="2" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17712,13 +17689,13 @@
         <v>7</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="G609" s="0" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17729,13 +17706,13 @@
         <v>7</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="E610" s="4" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
       <c r="G610" s="0" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17746,13 +17723,13 @@
         <v>7</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="G611" s="0" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17763,13 +17740,13 @@
         <v>7</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="G612" s="0" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17780,16 +17757,16 @@
         <v>7</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G613" s="0" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="s">
         <v>6</v>
       </c>
@@ -17797,13 +17774,13 @@
         <v>7</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="G614" s="0" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
   </sheetData>

--- a/ObjectNames.xlsx
+++ b/ObjectNames.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3070" uniqueCount="1766">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -463,6 +463,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I</t>
     </r>
@@ -489,6 +490,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">II</t>
     </r>
@@ -515,6 +517,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">III</t>
     </r>
@@ -739,6 +742,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I</t>
     </r>
@@ -765,6 +769,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">II</t>
     </r>
@@ -791,6 +796,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">III</t>
     </r>
@@ -817,7 +823,7 @@
     <t xml:space="preserve">Bone Arrow</t>
   </si>
   <si>
-    <t xml:space="preserve">ボーンの矢</t>
+    <t xml:space="preserve">骨の矢</t>
   </si>
   <si>
     <t xml:space="preserve">BoneKnife</t>
@@ -1096,7 +1102,7 @@
     <t xml:space="preserve">Coal Ore</t>
   </si>
   <si>
-    <t xml:space="preserve">石炭鉱石</t>
+    <t xml:space="preserve">石炭</t>
   </si>
   <si>
     <t xml:space="preserve">CocoaSeed</t>
@@ -1147,6 +1153,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1164,6 +1171,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -1883,7 +1891,7 @@
     <t xml:space="preserve">Electric Deep-Mining Drill</t>
   </si>
   <si>
-    <t xml:space="preserve">電動深堀りドリル</t>
+    <t xml:space="preserve">電動深部掘削ドリル</t>
   </si>
   <si>
     <t xml:space="preserve">ElectricDehumidifier</t>
@@ -1919,7 +1927,7 @@
     <t xml:space="preserve">Electric Masonry Bench</t>
   </si>
   <si>
-    <t xml:space="preserve">電動石工用ベンチ</t>
+    <t xml:space="preserve">電動石工台</t>
   </si>
   <si>
     <t xml:space="preserve">Electronics</t>
@@ -1937,7 +1945,7 @@
     <t xml:space="preserve">Epoxy</t>
   </si>
   <si>
-    <t xml:space="preserve">エポキシ樹脂</t>
+    <t xml:space="preserve">エポキシ</t>
   </si>
   <si>
     <t xml:space="preserve">Exotics</t>
@@ -1961,7 +1969,7 @@
     <t xml:space="preserve">Fiber</t>
   </si>
   <si>
-    <t xml:space="preserve">ファイバー</t>
+    <t xml:space="preserve">繊維</t>
   </si>
   <si>
     <t xml:space="preserve">FireArrow</t>
@@ -2066,7 +2074,7 @@
     <t xml:space="preserve">Flint Arrow</t>
   </si>
   <si>
-    <t xml:space="preserve">フリントの矢</t>
+    <t xml:space="preserve">石の矢</t>
   </si>
   <si>
     <t xml:space="preserve">FloorTorch</t>
@@ -2090,7 +2098,7 @@
     <t xml:space="preserve">Food Consumption Paste</t>
   </si>
   <si>
-    <t xml:space="preserve">食品消費用ペースト</t>
+    <t xml:space="preserve">食品消費ペースト</t>
   </si>
   <si>
     <t xml:space="preserve">FragGrenade</t>
@@ -2264,7 +2272,7 @@
     <t xml:space="preserve">Glass Jar</t>
   </si>
   <si>
-    <t xml:space="preserve">ガラスジャー</t>
+    <t xml:space="preserve">ガラス瓶</t>
   </si>
   <si>
     <t xml:space="preserve">GlassRoof</t>
@@ -2420,7 +2428,7 @@
     <t xml:space="preserve">Heat Bandage</t>
   </si>
   <si>
-    <t xml:space="preserve">ヒートバンテージ</t>
+    <t xml:space="preserve">温熱包帯</t>
   </si>
   <si>
     <t xml:space="preserve">HeavyAirConditioner</t>
@@ -2564,7 +2572,7 @@
     <t xml:space="preserve">Hydroponic Crop Plot</t>
   </si>
   <si>
-    <t xml:space="preserve">水耕栽培の作物</t>
+    <t xml:space="preserve">水耕栽培の畑棚</t>
   </si>
   <si>
     <t xml:space="preserve">Ice</t>
@@ -2633,7 +2641,7 @@
     <t xml:space="preserve">Incendiary Rifle Round</t>
   </si>
   <si>
-    <t xml:space="preserve">焼夷弾ライフル</t>
+    <t xml:space="preserve">焼夷弾</t>
   </si>
   <si>
     <t xml:space="preserve">InteriorWoodBeam</t>
@@ -2651,7 +2659,7 @@
     <t xml:space="preserve">Interior Wood Cupboard</t>
   </si>
   <si>
-    <t xml:space="preserve">内装用木製食器棚</t>
+    <t xml:space="preserve">インテリア木製食器棚</t>
   </si>
   <si>
     <t xml:space="preserve">InteriorWoodDoor</t>
@@ -2660,7 +2668,7 @@
     <t xml:space="preserve">Interior Wood Door</t>
   </si>
   <si>
-    <t xml:space="preserve">内装用木製ドア</t>
+    <t xml:space="preserve">インテリア木製ドア</t>
   </si>
   <si>
     <t xml:space="preserve">InteriorWoodFloor</t>
@@ -2768,7 +2776,7 @@
     <t xml:space="preserve">Iron Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">アイアンアックス</t>
+    <t xml:space="preserve">鉄の斧</t>
   </si>
   <si>
     <t xml:space="preserve">IronBolt</t>
@@ -2849,7 +2857,7 @@
     <t xml:space="preserve">Iron Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">鉄のつるはし</t>
+    <t xml:space="preserve">鉄のツルハシ</t>
   </si>
   <si>
     <t xml:space="preserve">IronSickle</t>
@@ -3140,7 +3148,7 @@
     <t xml:space="preserve">Masonry Bench</t>
   </si>
   <si>
-    <t xml:space="preserve">メイソンリーベンチ</t>
+    <t xml:space="preserve">石工台</t>
   </si>
   <si>
     <t xml:space="preserve">MassDampenerModule</t>
@@ -3149,7 +3157,7 @@
     <t xml:space="preserve">Mass Dampener Module</t>
   </si>
   <si>
-    <t xml:space="preserve">マスダンプナーモジュール</t>
+    <t xml:space="preserve">マスダンパーモジュール</t>
   </si>
   <si>
     <t xml:space="preserve">MaterialProcessor</t>
@@ -3167,7 +3175,7 @@
     <t xml:space="preserve">Mature Coconut</t>
   </si>
   <si>
-    <t xml:space="preserve">マチュアココナッツ</t>
+    <t xml:space="preserve">完熟ココナッツ</t>
   </si>
   <si>
     <t xml:space="preserve">MeatPie</t>
@@ -3185,7 +3193,7 @@
     <t xml:space="preserve">Medium Interior Wood Crate</t>
   </si>
   <si>
-    <t xml:space="preserve">ミディアムインテリア木製クレート</t>
+    <t xml:space="preserve">インテリア木製クレート(中型)</t>
   </si>
   <si>
     <t xml:space="preserve">MediumIronCrate</t>
@@ -3230,7 +3238,7 @@
     <t xml:space="preserve">Metal Oxite Dissolver</t>
   </si>
   <si>
-    <t xml:space="preserve">メタルオキサイトディゾルバー</t>
+    <t xml:space="preserve">金属製オキサイト分解機</t>
   </si>
   <si>
     <t xml:space="preserve">Micromeal</t>
@@ -3264,6 +3272,28 @@
   </si>
   <si>
     <t xml:space="preserve">MXCAxe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MXC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">斧</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">MXCCampfire</t>
@@ -3394,7 +3424,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">ファーネス</t>
+      <t xml:space="preserve">溶炉</t>
     </r>
   </si>
   <si>
@@ -3455,7 +3485,51 @@
     <t xml:space="preserve">MXCPickaxe</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MXC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ツルハシ</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">MXCSickle</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">MXC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">鎌</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">MXCSpear</t>
@@ -3481,7 +3555,7 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">スピア</t>
+      <t xml:space="preserve">槍</t>
     </r>
   </si>
   <si>
@@ -3527,7 +3601,7 @@
     <t xml:space="preserve">Naneo Chest Armor</t>
   </si>
   <si>
-    <t xml:space="preserve">ナノイー胸部アーマー</t>
+    <t xml:space="preserve">ナネオチェストアーマー</t>
   </si>
   <si>
     <t xml:space="preserve">NaneoFeetArmor</t>
@@ -3554,7 +3628,7 @@
     <t xml:space="preserve">Naneo Legs Armor</t>
   </si>
   <si>
-    <t xml:space="preserve">ナネオレッグスアーマー</t>
+    <t xml:space="preserve">ナネオレッグアーマー</t>
   </si>
   <si>
     <t xml:space="preserve">OmnidirectionalWorklamp</t>
@@ -3674,6 +3748,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">II </t>
     </r>
@@ -3709,6 +3784,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I </t>
     </r>
@@ -3807,7 +3883,7 @@
     <t xml:space="preserve">Platinum Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">プラチナつるはし</t>
+    <t xml:space="preserve">プラチナのツルハシ</t>
   </si>
   <si>
     <t xml:space="preserve">PlatinumSickle</t>
@@ -3825,7 +3901,7 @@
     <t xml:space="preserve">Platinum Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">プラチナスピアー</t>
+    <t xml:space="preserve">プラチナの槍</t>
   </si>
   <si>
     <t xml:space="preserve">PlayerTrackerModule</t>
@@ -3843,7 +3919,7 @@
     <t xml:space="preserve">Poison Arrow</t>
   </si>
   <si>
-    <t xml:space="preserve">ポイズンの矢</t>
+    <t xml:space="preserve">毒の矢</t>
   </si>
   <si>
     <t xml:space="preserve">PoisonedAnimalBait</t>
@@ -3861,7 +3937,7 @@
     <t xml:space="preserve">Poison Paste</t>
   </si>
   <si>
-    <t xml:space="preserve">ポイズンペースト</t>
+    <t xml:space="preserve">毒ペースト</t>
   </si>
   <si>
     <t xml:space="preserve">PolarBearArmsArmor</t>
@@ -4359,7 +4435,7 @@
     <t xml:space="preserve">Shengong Kuang Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製「クアン」つるはし</t>
+    <t xml:space="preserve">シェンゴン社製「クアン」ツルハシ</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongLieAxe</t>
@@ -4422,7 +4498,7 @@
     <t xml:space="preserve">Shengong Sui Shi Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">シェンゴン社製「スイ・シー」つるはし</t>
+    <t xml:space="preserve">シェンゴン社製「スイ・シー」ツルハシ</t>
   </si>
   <si>
     <t xml:space="preserve">ShengongTetsuoHammer</t>
@@ -4521,6 +4597,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4538,6 +4615,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4564,6 +4642,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4581,6 +4660,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4607,6 +4687,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4624,6 +4705,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4650,6 +4732,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4667,6 +4750,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4978,7 +5062,7 @@
     <t xml:space="preserve">Steel Ingot</t>
   </si>
   <si>
-    <t xml:space="preserve">鋼鉄のインゴット</t>
+    <t xml:space="preserve">鋼のインゴット</t>
   </si>
   <si>
     <t xml:space="preserve">SteelKnife</t>
@@ -4987,7 +5071,7 @@
     <t xml:space="preserve">Steel Knife</t>
   </si>
   <si>
-    <t xml:space="preserve">鋼鉄のナイフ</t>
+    <t xml:space="preserve">鋼のナイフ</t>
   </si>
   <si>
     <t xml:space="preserve">SteelPickaxe</t>
@@ -4996,7 +5080,7 @@
     <t xml:space="preserve">Steel Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">鋼鉄のつるはし</t>
+    <t xml:space="preserve">鋼のツルハシ</t>
   </si>
   <si>
     <t xml:space="preserve">SteelRebar</t>
@@ -5005,7 +5089,7 @@
     <t xml:space="preserve">Steel Rebar</t>
   </si>
   <si>
-    <t xml:space="preserve">鋼鉄鉄筋</t>
+    <t xml:space="preserve">鋼の鉄筋</t>
   </si>
   <si>
     <t xml:space="preserve">SteelScrew</t>
@@ -5014,7 +5098,7 @@
     <t xml:space="preserve">Steel Screw</t>
   </si>
   <si>
-    <t xml:space="preserve">鋼鉄製のネジ</t>
+    <t xml:space="preserve">鋼のネジ</t>
   </si>
   <si>
     <t xml:space="preserve">SteelSpear</t>
@@ -5023,7 +5107,7 @@
     <t xml:space="preserve">Steel Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">鋼鉄の槍</t>
+    <t xml:space="preserve">鋼の槍</t>
   </si>
   <si>
     <t xml:space="preserve">Stew</t>
@@ -5041,7 +5125,7 @@
     <t xml:space="preserve">Stone</t>
   </si>
   <si>
-    <t xml:space="preserve">石材</t>
+    <t xml:space="preserve">石</t>
   </si>
   <si>
     <t xml:space="preserve">StoneArrow</t>
@@ -5050,9 +5134,6 @@
     <t xml:space="preserve">Stone Arrow</t>
   </si>
   <si>
-    <t xml:space="preserve">石の矢</t>
-  </si>
-  <si>
     <t xml:space="preserve">StoneAxe</t>
   </si>
   <si>
@@ -5086,7 +5167,7 @@
     <t xml:space="preserve">Stone Floor Trapdoor</t>
   </si>
   <si>
-    <t xml:space="preserve">石床トラップドア</t>
+    <t xml:space="preserve">石の床・トラップドア</t>
   </si>
   <si>
     <t xml:space="preserve">StoneFrame</t>
@@ -5095,7 +5176,7 @@
     <t xml:space="preserve">Stone Frame</t>
   </si>
   <si>
-    <t xml:space="preserve">石フレーム</t>
+    <t xml:space="preserve">石のフレーム</t>
   </si>
   <si>
     <t xml:space="preserve">StoneFurnace</t>
@@ -5113,7 +5194,7 @@
     <t xml:space="preserve">Stone Halfpieces</t>
   </si>
   <si>
-    <t xml:space="preserve">石材ハーフピース</t>
+    <t xml:space="preserve">石のハーフピース</t>
   </si>
   <si>
     <t xml:space="preserve">StoneHalfpitches</t>
@@ -5122,7 +5203,7 @@
     <t xml:space="preserve">Stone Halfpitches</t>
   </si>
   <si>
-    <t xml:space="preserve">石材三角壁(ハーフ)</t>
+    <t xml:space="preserve">石の三角壁(ハーフ)</t>
   </si>
   <si>
     <t xml:space="preserve">StoneKnife</t>
@@ -5131,7 +5212,7 @@
     <t xml:space="preserve">Stone Knife</t>
   </si>
   <si>
-    <t xml:space="preserve">石製ナイフ</t>
+    <t xml:space="preserve">石のナイフ</t>
   </si>
   <si>
     <t xml:space="preserve">StonePickaxe</t>
@@ -5140,7 +5221,7 @@
     <t xml:space="preserve">Stone Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">石のつるはし</t>
+    <t xml:space="preserve">石のツルハシ</t>
   </si>
   <si>
     <t xml:space="preserve">StonePile</t>
@@ -5149,7 +5230,7 @@
     <t xml:space="preserve">Stone Pile</t>
   </si>
   <si>
-    <t xml:space="preserve">石積み</t>
+    <t xml:space="preserve">石の山</t>
   </si>
   <si>
     <t xml:space="preserve">StoneRamp</t>
@@ -5158,7 +5239,7 @@
     <t xml:space="preserve">Stone Ramp</t>
   </si>
   <si>
-    <t xml:space="preserve">石のスロープ</t>
+    <t xml:space="preserve">石の斜面</t>
   </si>
   <si>
     <t xml:space="preserve">StoneRoof</t>
@@ -5167,7 +5248,7 @@
     <t xml:space="preserve">Stone Roof</t>
   </si>
   <si>
-    <t xml:space="preserve">石屋根</t>
+    <t xml:space="preserve">石の屋根</t>
   </si>
   <si>
     <t xml:space="preserve">StoneRoofCorner</t>
@@ -5185,7 +5266,7 @@
     <t xml:space="preserve">Stone Stairs</t>
   </si>
   <si>
-    <t xml:space="preserve">石階段</t>
+    <t xml:space="preserve">石の階段</t>
   </si>
   <si>
     <t xml:space="preserve">StoneWall</t>
@@ -5194,7 +5275,7 @@
     <t xml:space="preserve">Stone Wall</t>
   </si>
   <si>
-    <t xml:space="preserve">石垣</t>
+    <t xml:space="preserve">石の壁</t>
   </si>
   <si>
     <t xml:space="preserve">StoneWallAngled</t>
@@ -5203,7 +5284,7 @@
     <t xml:space="preserve">Stone Wall Angled</t>
   </si>
   <si>
-    <t xml:space="preserve">石垣の角度</t>
+    <t xml:space="preserve">石の三角壁</t>
   </si>
   <si>
     <t xml:space="preserve">StrengthBoostModule</t>
@@ -5473,7 +5554,7 @@
     <t xml:space="preserve">Titanium Knife</t>
   </si>
   <si>
-    <t xml:space="preserve">チタン製ナイフ</t>
+    <t xml:space="preserve">チタンのナイフ</t>
   </si>
   <si>
     <t xml:space="preserve">TitaniumOre</t>
@@ -5491,7 +5572,7 @@
     <t xml:space="preserve">Titanium Pickaxe</t>
   </si>
   <si>
-    <t xml:space="preserve">チタン製つるはし</t>
+    <t xml:space="preserve">チタンのツルハシ</t>
   </si>
   <si>
     <t xml:space="preserve">TitaniumSickle</t>
@@ -5500,7 +5581,7 @@
     <t xml:space="preserve">Titanium Sickle</t>
   </si>
   <si>
-    <t xml:space="preserve">チタン鎌</t>
+    <t xml:space="preserve">チタンの鎌</t>
   </si>
   <si>
     <t xml:space="preserve">TitaniumSpear</t>
@@ -5509,7 +5590,7 @@
     <t xml:space="preserve">Titanium Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">チタンスピア</t>
+    <t xml:space="preserve">チタンの槍</t>
   </si>
   <si>
     <t xml:space="preserve">TreeSap</t>
@@ -5608,7 +5689,7 @@
     <t xml:space="preserve">Water Sprinkler</t>
   </si>
   <si>
-    <t xml:space="preserve">水スプリンクラー</t>
+    <t xml:space="preserve">スプリンクラー</t>
   </si>
   <si>
     <t xml:space="preserve">Wheat</t>
@@ -5671,7 +5752,7 @@
     <t xml:space="preserve">Wood Bed</t>
   </si>
   <si>
-    <t xml:space="preserve">木製ベッド</t>
+    <t xml:space="preserve">木のベッド</t>
   </si>
   <si>
     <t xml:space="preserve">WoodBow</t>
@@ -5680,7 +5761,7 @@
     <t xml:space="preserve">Wood Bow</t>
   </si>
   <si>
-    <t xml:space="preserve">木製の弓</t>
+    <t xml:space="preserve">木の弓</t>
   </si>
   <si>
     <t xml:space="preserve">WoodChair</t>
@@ -5689,7 +5770,7 @@
     <t xml:space="preserve">Wood Chair</t>
   </si>
   <si>
-    <t xml:space="preserve">木製チェア</t>
+    <t xml:space="preserve">木のチェア</t>
   </si>
   <si>
     <t xml:space="preserve">WoodComposter</t>
@@ -5698,7 +5779,7 @@
     <t xml:space="preserve">Wood Composter</t>
   </si>
   <si>
-    <t xml:space="preserve">木製コンポスター</t>
+    <t xml:space="preserve">木のコンポスター</t>
   </si>
   <si>
     <t xml:space="preserve">WoodCropPlot</t>
@@ -5707,7 +5788,7 @@
     <t xml:space="preserve">Wood Crop Plot</t>
   </si>
   <si>
-    <t xml:space="preserve">木製クロッププロット</t>
+    <t xml:space="preserve">木のクロッププロット</t>
   </si>
   <si>
     <t xml:space="preserve">WoodCupboard</t>
@@ -5716,7 +5797,7 @@
     <t xml:space="preserve">Wood Cupboard</t>
   </si>
   <si>
-    <t xml:space="preserve">木製の食器棚</t>
+    <t xml:space="preserve">木の食器棚</t>
   </si>
   <si>
     <t xml:space="preserve">WoodDoor</t>
@@ -5734,7 +5815,7 @@
     <t xml:space="preserve">Wood Floor</t>
   </si>
   <si>
-    <t xml:space="preserve">木製フロア</t>
+    <t xml:space="preserve">木のフロア</t>
   </si>
   <si>
     <t xml:space="preserve">WoodFloorTrapdoor</t>
@@ -5743,7 +5824,7 @@
     <t xml:space="preserve">Wood Floor Trapdoor</t>
   </si>
   <si>
-    <t xml:space="preserve">木製フロアトラップドア</t>
+    <t xml:space="preserve">木のフロアトラップドア</t>
   </si>
   <si>
     <t xml:space="preserve">WoodHalfpieces</t>
@@ -5752,7 +5833,7 @@
     <t xml:space="preserve">Wood Halfpieces</t>
   </si>
   <si>
-    <t xml:space="preserve">木製ハーフピース</t>
+    <t xml:space="preserve">木のハーフピース</t>
   </si>
   <si>
     <t xml:space="preserve">WoodHalfpitches</t>
@@ -5761,7 +5842,7 @@
     <t xml:space="preserve">Wood Halfpitches</t>
   </si>
   <si>
-    <t xml:space="preserve">木製三角壁(ハーフ)</t>
+    <t xml:space="preserve">木の三角壁(ハーフ)</t>
   </si>
   <si>
     <t xml:space="preserve">WoodLadder</t>
@@ -5770,7 +5851,7 @@
     <t xml:space="preserve">Wood Ladder</t>
   </si>
   <si>
-    <t xml:space="preserve">木製はしご</t>
+    <t xml:space="preserve">木のはしご</t>
   </si>
   <si>
     <t xml:space="preserve">WoodPile</t>
@@ -5788,7 +5869,7 @@
     <t xml:space="preserve">Wood Rag Torch</t>
   </si>
   <si>
-    <t xml:space="preserve">木製ラグ・トーチ</t>
+    <t xml:space="preserve">木のラグ・トーチ</t>
   </si>
   <si>
     <t xml:space="preserve">WoodRailing</t>
@@ -5797,7 +5878,7 @@
     <t xml:space="preserve">Wood Railing</t>
   </si>
   <si>
-    <t xml:space="preserve">木製の手すり</t>
+    <t xml:space="preserve">木の手すり</t>
   </si>
   <si>
     <t xml:space="preserve">WoodRamp</t>
@@ -5806,7 +5887,7 @@
     <t xml:space="preserve">Wood Ramp</t>
   </si>
   <si>
-    <t xml:space="preserve">木製のスロープ</t>
+    <t xml:space="preserve">木のスロープ</t>
   </si>
   <si>
     <t xml:space="preserve">WoodRepairHammer</t>
@@ -5815,7 +5896,7 @@
     <t xml:space="preserve">Wood Repair Hammer</t>
   </si>
   <si>
-    <t xml:space="preserve">木製ハンマー</t>
+    <t xml:space="preserve">木のハンマー</t>
   </si>
   <si>
     <t xml:space="preserve">WoodRoof</t>
@@ -5824,7 +5905,7 @@
     <t xml:space="preserve">Wood Roof</t>
   </si>
   <si>
-    <t xml:space="preserve">木製の屋根</t>
+    <t xml:space="preserve">木の屋根</t>
   </si>
   <si>
     <t xml:space="preserve">WoodRoofCorner</t>
@@ -5833,7 +5914,7 @@
     <t xml:space="preserve">Wood Roof Corner</t>
   </si>
   <si>
-    <t xml:space="preserve">木製の屋根(角)</t>
+    <t xml:space="preserve">木の屋根(角)</t>
   </si>
   <si>
     <t xml:space="preserve">WoodSpear</t>
@@ -5842,7 +5923,7 @@
     <t xml:space="preserve">Wood Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">木製の槍</t>
+    <t xml:space="preserve">木の槍</t>
   </si>
   <si>
     <t xml:space="preserve">WoodStairs</t>
@@ -5851,7 +5932,7 @@
     <t xml:space="preserve">Wood Stairs</t>
   </si>
   <si>
-    <t xml:space="preserve">木製の階段</t>
+    <t xml:space="preserve">木の階段</t>
   </si>
   <si>
     <t xml:space="preserve">WoodTable</t>
@@ -5860,7 +5941,7 @@
     <t xml:space="preserve">Wood Table</t>
   </si>
   <si>
-    <t xml:space="preserve">木製のテーブル</t>
+    <t xml:space="preserve">木のテーブル</t>
   </si>
   <si>
     <t xml:space="preserve">WoodTorch</t>
@@ -5869,7 +5950,7 @@
     <t xml:space="preserve">Wood Torch</t>
   </si>
   <si>
-    <t xml:space="preserve">木製のトーチ</t>
+    <t xml:space="preserve">木のトーチ</t>
   </si>
   <si>
     <t xml:space="preserve">WoodTrapdoor</t>
@@ -5878,7 +5959,7 @@
     <t xml:space="preserve">Wood Trapdoor</t>
   </si>
   <si>
-    <t xml:space="preserve">木製トラップドア</t>
+    <t xml:space="preserve">木のトラップドア</t>
   </si>
   <si>
     <t xml:space="preserve">WoodWall</t>
@@ -5905,7 +5986,7 @@
     <t xml:space="preserve">Wood Window</t>
   </si>
   <si>
-    <t xml:space="preserve">木製ウィンドウ</t>
+    <t xml:space="preserve">木のウィンドウ</t>
   </si>
   <si>
     <t xml:space="preserve">WorkshopRepairKit</t>
@@ -5938,7 +6019,7 @@
     <t xml:space="preserve">Young Coconut</t>
   </si>
   <si>
-    <t xml:space="preserve">ヤングココナッツ</t>
+    <t xml:space="preserve">早熟ココナッツ</t>
   </si>
   <si>
     <t xml:space="preserve">WorkShop</t>
@@ -6024,6 +6105,7 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6114,8 +6196,8 @@
   </sheetPr>
   <dimension ref="A1:G614"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A452" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G464" activeCellId="0" sqref="G464"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A210" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G233" activeCellId="0" sqref="G233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12719,7 +12801,7 @@
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="3" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12730,15 +12812,15 @@
         <v>7</v>
       </c>
       <c r="C348" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" s="3" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F348" s="2"/>
       <c r="G348" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12749,15 +12831,15 @@
         <v>7</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F349" s="2"/>
       <c r="G349" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12768,15 +12850,15 @@
         <v>7</v>
       </c>
       <c r="C350" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D350" s="2"/>
       <c r="E350" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="351" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12787,18 +12869,18 @@
         <v>7</v>
       </c>
       <c r="C351" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F351" s="2"/>
       <c r="G351" s="3" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="352" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="s">
         <v>6</v>
       </c>
@@ -12806,15 +12888,15 @@
         <v>7</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" s="3" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" s="3" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12825,15 +12907,15 @@
         <v>7</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F353" s="2"/>
       <c r="G353" s="3" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12844,15 +12926,15 @@
         <v>7</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D354" s="2"/>
       <c r="E354" s="3" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F354" s="2"/>
       <c r="G354" s="3" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12863,15 +12945,15 @@
         <v>7</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D355" s="2"/>
       <c r="E355" s="3" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F355" s="2"/>
       <c r="G355" s="3" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12882,15 +12964,15 @@
         <v>7</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" s="3" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" s="3" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12901,18 +12983,18 @@
         <v>7</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" s="3" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
       <c r="F357" s="2"/>
       <c r="G357" s="3" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="358" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="s">
         <v>6</v>
       </c>
@@ -12920,15 +13002,15 @@
         <v>7</v>
       </c>
       <c r="C358" s="1" t="s">
-        <v>1028</v>
+        <v>1031</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" s="3" t="s">
-        <v>1029</v>
+        <v>1032</v>
       </c>
       <c r="F358" s="2"/>
       <c r="G358" s="3" t="s">
-        <v>1030</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12939,15 +13021,15 @@
         <v>7</v>
       </c>
       <c r="C359" s="1" t="s">
-        <v>1031</v>
+        <v>1034</v>
       </c>
       <c r="D359" s="2"/>
       <c r="E359" s="3" t="s">
-        <v>1032</v>
+        <v>1035</v>
       </c>
       <c r="F359" s="2"/>
       <c r="G359" s="3" t="s">
-        <v>1033</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12958,15 +13040,15 @@
         <v>7</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>1034</v>
+        <v>1037</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" s="3" t="s">
-        <v>1035</v>
+        <v>1038</v>
       </c>
       <c r="F360" s="2"/>
       <c r="G360" s="2" t="s">
-        <v>1036</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12977,15 +13059,15 @@
         <v>7</v>
       </c>
       <c r="C361" s="1" t="s">
-        <v>1037</v>
+        <v>1040</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" s="3" t="s">
-        <v>1038</v>
+        <v>1041</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" s="2" t="s">
-        <v>1039</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12996,15 +13078,15 @@
         <v>7</v>
       </c>
       <c r="C362" s="1" t="s">
-        <v>1040</v>
+        <v>1043</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" s="3" t="s">
-        <v>1041</v>
+        <v>1044</v>
       </c>
       <c r="F362" s="2"/>
       <c r="G362" s="2" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13015,15 +13097,15 @@
         <v>7</v>
       </c>
       <c r="C363" s="1" t="s">
-        <v>1043</v>
+        <v>1046</v>
       </c>
       <c r="D363" s="2"/>
       <c r="E363" s="3" t="s">
-        <v>1044</v>
+        <v>1047</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" s="2" t="s">
-        <v>1045</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13034,15 +13116,15 @@
         <v>7</v>
       </c>
       <c r="C364" s="1" t="s">
-        <v>1046</v>
+        <v>1049</v>
       </c>
       <c r="D364" s="2"/>
       <c r="E364" s="3" t="s">
-        <v>1047</v>
+        <v>1050</v>
       </c>
       <c r="F364" s="2"/>
       <c r="G364" s="2" t="s">
-        <v>1048</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13053,15 +13135,15 @@
         <v>7</v>
       </c>
       <c r="C365" s="1" t="s">
-        <v>1049</v>
+        <v>1052</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" s="3" t="s">
-        <v>1050</v>
+        <v>1053</v>
       </c>
       <c r="F365" s="2"/>
       <c r="G365" s="2" t="s">
-        <v>1051</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13072,15 +13154,15 @@
         <v>7</v>
       </c>
       <c r="C366" s="1" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" s="3" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="F366" s="2"/>
       <c r="G366" s="2" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13091,15 +13173,15 @@
         <v>7</v>
       </c>
       <c r="C367" s="1" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" s="3" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2" t="s">
-        <v>1056</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13110,15 +13192,15 @@
         <v>7</v>
       </c>
       <c r="C368" s="1" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" s="3" t="s">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="F368" s="2"/>
       <c r="G368" s="2" t="s">
-        <v>1058</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13129,15 +13211,15 @@
         <v>7</v>
       </c>
       <c r="C369" s="1" t="s">
-        <v>1059</v>
+        <v>1062</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" s="3" t="s">
-        <v>1060</v>
+        <v>1063</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" s="2" t="s">
-        <v>1061</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13148,15 +13230,15 @@
         <v>7</v>
       </c>
       <c r="C370" s="1" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="D370" s="2"/>
       <c r="E370" s="3" t="s">
-        <v>1062</v>
+        <v>1065</v>
       </c>
       <c r="F370" s="2"/>
       <c r="G370" s="2" t="s">
-        <v>1063</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13167,15 +13249,15 @@
         <v>7</v>
       </c>
       <c r="C371" s="1" t="s">
-        <v>1064</v>
+        <v>1067</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" s="3" t="s">
-        <v>1065</v>
+        <v>1068</v>
       </c>
       <c r="F371" s="2"/>
       <c r="G371" s="2" t="s">
-        <v>1066</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13186,15 +13268,15 @@
         <v>7</v>
       </c>
       <c r="C372" s="1" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" s="3" t="s">
-        <v>1068</v>
+        <v>1071</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" s="2" t="s">
-        <v>1069</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13205,15 +13287,15 @@
         <v>7</v>
       </c>
       <c r="C373" s="1" t="s">
-        <v>1070</v>
+        <v>1073</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" s="3" t="s">
-        <v>1071</v>
+        <v>1074</v>
       </c>
       <c r="F373" s="2"/>
       <c r="G373" s="2" t="s">
-        <v>1072</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13224,15 +13306,15 @@
         <v>7</v>
       </c>
       <c r="C374" s="1" t="s">
-        <v>1073</v>
+        <v>1076</v>
       </c>
       <c r="D374" s="2"/>
       <c r="E374" s="3" t="s">
-        <v>1074</v>
+        <v>1077</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2" t="s">
-        <v>1075</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13243,15 +13325,15 @@
         <v>7</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>1076</v>
+        <v>1079</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" s="3" t="s">
-        <v>1077</v>
+        <v>1080</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" s="2" t="s">
-        <v>1078</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13262,15 +13344,15 @@
         <v>7</v>
       </c>
       <c r="C376" s="1" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" s="3" t="s">
-        <v>1079</v>
+        <v>1082</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" s="2" t="s">
-        <v>1080</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13281,15 +13363,15 @@
         <v>7</v>
       </c>
       <c r="C377" s="1" t="s">
-        <v>1081</v>
+        <v>1084</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" s="3" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="F377" s="2"/>
       <c r="G377" s="2" t="s">
-        <v>1083</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13300,15 +13382,15 @@
         <v>7</v>
       </c>
       <c r="C378" s="1" t="s">
-        <v>1084</v>
+        <v>1087</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" s="3" t="s">
-        <v>1085</v>
+        <v>1088</v>
       </c>
       <c r="F378" s="2"/>
       <c r="G378" s="2" t="s">
-        <v>1086</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13319,15 +13401,15 @@
         <v>7</v>
       </c>
       <c r="C379" s="1" t="s">
-        <v>1087</v>
+        <v>1090</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" s="3" t="s">
-        <v>1088</v>
+        <v>1091</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" s="2" t="s">
-        <v>1089</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13338,15 +13420,15 @@
         <v>7</v>
       </c>
       <c r="C380" s="1" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" s="3" t="s">
-        <v>1090</v>
+        <v>1093</v>
       </c>
       <c r="F380" s="2"/>
       <c r="G380" s="2" t="s">
-        <v>1091</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13357,15 +13439,15 @@
         <v>7</v>
       </c>
       <c r="C381" s="1" t="s">
-        <v>1092</v>
+        <v>1095</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" s="3" t="s">
-        <v>1093</v>
+        <v>1096</v>
       </c>
       <c r="F381" s="2"/>
       <c r="G381" s="2" t="s">
-        <v>1094</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13376,15 +13458,15 @@
         <v>7</v>
       </c>
       <c r="C382" s="1" t="s">
-        <v>1095</v>
+        <v>1098</v>
       </c>
       <c r="D382" s="2"/>
       <c r="E382" s="3" t="s">
-        <v>1096</v>
+        <v>1099</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" s="2" t="s">
-        <v>1097</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13395,15 +13477,15 @@
         <v>7</v>
       </c>
       <c r="C383" s="1" t="s">
-        <v>1098</v>
+        <v>1101</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" s="3" t="s">
-        <v>1099</v>
+        <v>1102</v>
       </c>
       <c r="F383" s="2"/>
       <c r="G383" s="2" t="s">
-        <v>1100</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13414,15 +13496,15 @@
         <v>7</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>1101</v>
+        <v>1104</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" s="3" t="s">
-        <v>1102</v>
+        <v>1105</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" s="2" t="s">
-        <v>1103</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13433,15 +13515,15 @@
         <v>7</v>
       </c>
       <c r="C385" s="1" t="s">
-        <v>1104</v>
+        <v>1107</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" s="3" t="s">
-        <v>1105</v>
+        <v>1108</v>
       </c>
       <c r="F385" s="2"/>
       <c r="G385" s="2" t="s">
-        <v>1106</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13452,15 +13534,15 @@
         <v>7</v>
       </c>
       <c r="C386" s="1" t="s">
-        <v>1107</v>
+        <v>1110</v>
       </c>
       <c r="D386" s="2"/>
       <c r="E386" s="3" t="s">
-        <v>1108</v>
+        <v>1111</v>
       </c>
       <c r="F386" s="2"/>
       <c r="G386" s="2" t="s">
-        <v>1109</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13471,15 +13553,15 @@
         <v>7</v>
       </c>
       <c r="C387" s="1" t="s">
-        <v>1110</v>
+        <v>1113</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" s="3" t="s">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" s="2" t="s">
-        <v>1112</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13490,15 +13572,15 @@
         <v>7</v>
       </c>
       <c r="C388" s="1" t="s">
-        <v>1113</v>
+        <v>1116</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" s="3" t="s">
-        <v>1114</v>
+        <v>1117</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" s="2" t="s">
-        <v>1115</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13509,15 +13591,15 @@
         <v>7</v>
       </c>
       <c r="C389" s="1" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" s="3" t="s">
-        <v>1117</v>
+        <v>1120</v>
       </c>
       <c r="F389" s="2"/>
       <c r="G389" s="2" t="s">
-        <v>1118</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13528,15 +13610,15 @@
         <v>7</v>
       </c>
       <c r="C390" s="1" t="s">
-        <v>1119</v>
+        <v>1122</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" s="3" t="s">
-        <v>1120</v>
+        <v>1123</v>
       </c>
       <c r="F390" s="2"/>
       <c r="G390" s="2" t="s">
-        <v>1121</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13547,15 +13629,15 @@
         <v>7</v>
       </c>
       <c r="C391" s="1" t="s">
-        <v>1122</v>
+        <v>1125</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" s="3" t="s">
-        <v>1123</v>
+        <v>1126</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" s="2" t="s">
-        <v>1124</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13566,15 +13648,15 @@
         <v>7</v>
       </c>
       <c r="C392" s="1" t="s">
-        <v>1125</v>
+        <v>1128</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" s="3" t="s">
-        <v>1126</v>
+        <v>1129</v>
       </c>
       <c r="F392" s="2"/>
       <c r="G392" s="2" t="s">
-        <v>1127</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13585,15 +13667,15 @@
         <v>7</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>1128</v>
+        <v>1131</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" s="3" t="s">
-        <v>1129</v>
+        <v>1132</v>
       </c>
       <c r="F393" s="2"/>
       <c r="G393" s="2" t="s">
-        <v>1130</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13604,15 +13686,15 @@
         <v>7</v>
       </c>
       <c r="C394" s="1" t="s">
-        <v>1131</v>
+        <v>1134</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" s="3" t="s">
-        <v>1132</v>
+        <v>1135</v>
       </c>
       <c r="F394" s="2"/>
       <c r="G394" s="2" t="s">
-        <v>1133</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13623,15 +13705,15 @@
         <v>7</v>
       </c>
       <c r="C395" s="1" t="s">
-        <v>1134</v>
+        <v>1137</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" s="3" t="s">
-        <v>1135</v>
+        <v>1138</v>
       </c>
       <c r="F395" s="2"/>
       <c r="G395" s="2" t="s">
-        <v>1136</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13642,15 +13724,15 @@
         <v>7</v>
       </c>
       <c r="C396" s="1" t="s">
-        <v>1137</v>
+        <v>1140</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" s="3" t="s">
-        <v>1138</v>
+        <v>1141</v>
       </c>
       <c r="F396" s="2"/>
       <c r="G396" s="2" t="s">
-        <v>1139</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13661,15 +13743,15 @@
         <v>7</v>
       </c>
       <c r="C397" s="1" t="s">
-        <v>1140</v>
+        <v>1143</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" s="3" t="s">
-        <v>1141</v>
+        <v>1144</v>
       </c>
       <c r="F397" s="2"/>
       <c r="G397" s="2" t="s">
-        <v>1142</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13680,15 +13762,15 @@
         <v>7</v>
       </c>
       <c r="C398" s="1" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" s="3" t="s">
-        <v>1144</v>
+        <v>1147</v>
       </c>
       <c r="F398" s="2"/>
       <c r="G398" s="2" t="s">
-        <v>1145</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13699,15 +13781,15 @@
         <v>7</v>
       </c>
       <c r="C399" s="1" t="s">
-        <v>1146</v>
+        <v>1149</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" s="3" t="s">
-        <v>1147</v>
+        <v>1150</v>
       </c>
       <c r="F399" s="2"/>
       <c r="G399" s="2" t="s">
-        <v>1148</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13718,15 +13800,15 @@
         <v>7</v>
       </c>
       <c r="C400" s="1" t="s">
-        <v>1149</v>
+        <v>1152</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" s="3" t="s">
-        <v>1150</v>
+        <v>1153</v>
       </c>
       <c r="F400" s="2"/>
       <c r="G400" s="2" t="s">
-        <v>1151</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13737,15 +13819,15 @@
         <v>7</v>
       </c>
       <c r="C401" s="1" t="s">
-        <v>1152</v>
+        <v>1155</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" s="3" t="s">
-        <v>1153</v>
+        <v>1156</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" s="2" t="s">
-        <v>1154</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13756,15 +13838,15 @@
         <v>7</v>
       </c>
       <c r="C402" s="1" t="s">
-        <v>1155</v>
+        <v>1158</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" s="3" t="s">
-        <v>1156</v>
+        <v>1159</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" s="2" t="s">
-        <v>1157</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13775,15 +13857,15 @@
         <v>7</v>
       </c>
       <c r="C403" s="1" t="s">
-        <v>1158</v>
+        <v>1161</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" s="3" t="s">
-        <v>1159</v>
+        <v>1162</v>
       </c>
       <c r="F403" s="2"/>
       <c r="G403" s="2" t="s">
-        <v>1160</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13794,15 +13876,15 @@
         <v>7</v>
       </c>
       <c r="C404" s="1" t="s">
-        <v>1161</v>
+        <v>1164</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" s="3" t="s">
-        <v>1162</v>
+        <v>1165</v>
       </c>
       <c r="F404" s="2"/>
       <c r="G404" s="2" t="s">
-        <v>1163</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="405" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13813,15 +13895,15 @@
         <v>7</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" s="3" t="s">
-        <v>1164</v>
+        <v>1167</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" s="2" t="s">
-        <v>1165</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13832,15 +13914,15 @@
         <v>7</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>1166</v>
+        <v>1169</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" s="3" t="s">
-        <v>1167</v>
+        <v>1170</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" s="2" t="s">
-        <v>1168</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13851,15 +13933,15 @@
         <v>7</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" s="3" t="s">
-        <v>1169</v>
+        <v>1172</v>
       </c>
       <c r="F407" s="2"/>
       <c r="G407" s="2" t="s">
-        <v>1170</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13870,15 +13952,15 @@
         <v>7</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>1171</v>
+        <v>1174</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" s="3" t="s">
-        <v>1172</v>
+        <v>1175</v>
       </c>
       <c r="F408" s="2"/>
       <c r="G408" s="2" t="s">
-        <v>1173</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13889,15 +13971,15 @@
         <v>7</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>1174</v>
+        <v>1177</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" s="3" t="s">
-        <v>1175</v>
+        <v>1178</v>
       </c>
       <c r="F409" s="2"/>
       <c r="G409" s="2" t="s">
-        <v>1176</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13908,15 +13990,15 @@
         <v>7</v>
       </c>
       <c r="C410" s="1" t="s">
-        <v>1177</v>
+        <v>1180</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" s="3" t="s">
-        <v>1178</v>
+        <v>1181</v>
       </c>
       <c r="F410" s="2"/>
       <c r="G410" s="2" t="s">
-        <v>1179</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13927,15 +14009,15 @@
         <v>7</v>
       </c>
       <c r="C411" s="1" t="s">
-        <v>1180</v>
+        <v>1183</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" s="3" t="s">
-        <v>1181</v>
+        <v>1184</v>
       </c>
       <c r="F411" s="2"/>
       <c r="G411" s="2" t="s">
-        <v>1182</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13946,15 +14028,15 @@
         <v>7</v>
       </c>
       <c r="C412" s="1" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" s="3" t="s">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="F412" s="2"/>
       <c r="G412" s="2" t="s">
-        <v>1185</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13965,15 +14047,15 @@
         <v>7</v>
       </c>
       <c r="C413" s="1" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="D413" s="2"/>
       <c r="E413" s="3" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="F413" s="2"/>
       <c r="G413" s="2" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13984,15 +14066,15 @@
         <v>7</v>
       </c>
       <c r="C414" s="1" t="s">
-        <v>1189</v>
+        <v>1192</v>
       </c>
       <c r="D414" s="2"/>
       <c r="E414" s="3" t="s">
-        <v>1190</v>
+        <v>1193</v>
       </c>
       <c r="F414" s="2"/>
       <c r="G414" s="2" t="s">
-        <v>1191</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14003,15 +14085,15 @@
         <v>7</v>
       </c>
       <c r="C415" s="1" t="s">
-        <v>1192</v>
+        <v>1195</v>
       </c>
       <c r="D415" s="2"/>
       <c r="E415" s="3" t="s">
-        <v>1193</v>
+        <v>1196</v>
       </c>
       <c r="F415" s="2"/>
       <c r="G415" s="2" t="s">
-        <v>1194</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14022,15 +14104,15 @@
         <v>7</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>1195</v>
+        <v>1198</v>
       </c>
       <c r="D416" s="2"/>
       <c r="E416" s="3" t="s">
-        <v>1196</v>
+        <v>1199</v>
       </c>
       <c r="F416" s="2"/>
       <c r="G416" s="2" t="s">
-        <v>1197</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14041,15 +14123,15 @@
         <v>7</v>
       </c>
       <c r="C417" s="1" t="s">
-        <v>1198</v>
+        <v>1201</v>
       </c>
       <c r="D417" s="2"/>
       <c r="E417" s="3" t="s">
-        <v>1199</v>
+        <v>1202</v>
       </c>
       <c r="F417" s="2"/>
       <c r="G417" s="2" t="s">
-        <v>1200</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14060,15 +14142,15 @@
         <v>7</v>
       </c>
       <c r="C418" s="1" t="s">
-        <v>1201</v>
+        <v>1204</v>
       </c>
       <c r="D418" s="2"/>
       <c r="E418" s="3" t="s">
-        <v>1202</v>
+        <v>1205</v>
       </c>
       <c r="F418" s="2"/>
       <c r="G418" s="2" t="s">
-        <v>1203</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14079,15 +14161,15 @@
         <v>7</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>1204</v>
+        <v>1207</v>
       </c>
       <c r="D419" s="2"/>
       <c r="E419" s="3" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="F419" s="2"/>
       <c r="G419" s="2" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14098,15 +14180,15 @@
         <v>7</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="D420" s="2"/>
       <c r="E420" s="3" t="s">
-        <v>1208</v>
+        <v>1211</v>
       </c>
       <c r="F420" s="2"/>
       <c r="G420" s="2" t="s">
-        <v>1209</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14117,15 +14199,15 @@
         <v>7</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>1210</v>
+        <v>1213</v>
       </c>
       <c r="D421" s="2"/>
       <c r="E421" s="3" t="s">
-        <v>1211</v>
+        <v>1214</v>
       </c>
       <c r="F421" s="2"/>
       <c r="G421" s="2" t="s">
-        <v>1212</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14136,15 +14218,15 @@
         <v>7</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="D422" s="2"/>
       <c r="E422" s="3" t="s">
-        <v>1213</v>
+        <v>1216</v>
       </c>
       <c r="F422" s="2"/>
       <c r="G422" s="2" t="s">
-        <v>1214</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14155,15 +14237,15 @@
         <v>7</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>1215</v>
+        <v>1218</v>
       </c>
       <c r="D423" s="2"/>
       <c r="E423" s="3" t="s">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="F423" s="2"/>
       <c r="G423" s="2" t="s">
-        <v>1217</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14174,15 +14256,15 @@
         <v>7</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>1218</v>
+        <v>1221</v>
       </c>
       <c r="D424" s="2"/>
       <c r="E424" s="3" t="s">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="F424" s="2"/>
       <c r="G424" s="2" t="s">
-        <v>1220</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="425" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14193,15 +14275,15 @@
         <v>7</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>1221</v>
+        <v>1224</v>
       </c>
       <c r="D425" s="2"/>
       <c r="E425" s="3" t="s">
-        <v>1222</v>
+        <v>1225</v>
       </c>
       <c r="F425" s="2"/>
       <c r="G425" s="2" t="s">
-        <v>1223</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14212,11 +14294,11 @@
         <v>7</v>
       </c>
       <c r="C426" s="1" t="s">
-        <v>1224</v>
+        <v>1227</v>
       </c>
       <c r="D426" s="2"/>
       <c r="E426" s="3" t="s">
-        <v>1225</v>
+        <v>1228</v>
       </c>
       <c r="F426" s="2"/>
       <c r="G426" s="2" t="s">
@@ -14231,15 +14313,15 @@
         <v>7</v>
       </c>
       <c r="C427" s="1" t="s">
-        <v>1226</v>
+        <v>1229</v>
       </c>
       <c r="D427" s="2"/>
       <c r="E427" s="3" t="s">
-        <v>1227</v>
+        <v>1230</v>
       </c>
       <c r="F427" s="2"/>
       <c r="G427" s="2" t="s">
-        <v>1228</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14250,15 +14332,15 @@
         <v>7</v>
       </c>
       <c r="C428" s="1" t="s">
-        <v>1229</v>
+        <v>1232</v>
       </c>
       <c r="D428" s="2"/>
       <c r="E428" s="3" t="s">
-        <v>1230</v>
+        <v>1233</v>
       </c>
       <c r="F428" s="2"/>
       <c r="G428" s="2" t="s">
-        <v>1231</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14269,15 +14351,15 @@
         <v>7</v>
       </c>
       <c r="C429" s="1" t="s">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="D429" s="2"/>
       <c r="E429" s="3" t="s">
-        <v>1233</v>
+        <v>1236</v>
       </c>
       <c r="F429" s="2"/>
       <c r="G429" s="2" t="s">
-        <v>1234</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14288,15 +14370,15 @@
         <v>7</v>
       </c>
       <c r="C430" s="1" t="s">
-        <v>1235</v>
+        <v>1238</v>
       </c>
       <c r="D430" s="2"/>
       <c r="E430" s="3" t="s">
-        <v>1236</v>
+        <v>1239</v>
       </c>
       <c r="F430" s="2"/>
       <c r="G430" s="2" t="s">
-        <v>1237</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14307,15 +14389,15 @@
         <v>7</v>
       </c>
       <c r="C431" s="1" t="s">
-        <v>1238</v>
+        <v>1241</v>
       </c>
       <c r="D431" s="2"/>
       <c r="E431" s="3" t="s">
-        <v>1239</v>
+        <v>1242</v>
       </c>
       <c r="F431" s="2"/>
       <c r="G431" s="2" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14326,15 +14408,15 @@
         <v>7</v>
       </c>
       <c r="C432" s="1" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="D432" s="2"/>
       <c r="E432" s="3" t="s">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="F432" s="2"/>
       <c r="G432" s="2" t="s">
-        <v>1242</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14345,15 +14427,15 @@
         <v>7</v>
       </c>
       <c r="C433" s="1" t="s">
-        <v>1243</v>
+        <v>1246</v>
       </c>
       <c r="D433" s="2"/>
       <c r="E433" s="3" t="s">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="F433" s="2"/>
       <c r="G433" s="2" t="s">
-        <v>1245</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14364,15 +14446,15 @@
         <v>7</v>
       </c>
       <c r="C434" s="1" t="s">
-        <v>1246</v>
+        <v>1249</v>
       </c>
       <c r="D434" s="2"/>
       <c r="E434" s="3" t="s">
-        <v>1247</v>
+        <v>1250</v>
       </c>
       <c r="F434" s="2"/>
       <c r="G434" s="2" t="s">
-        <v>1248</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14383,15 +14465,15 @@
         <v>7</v>
       </c>
       <c r="C435" s="1" t="s">
-        <v>1249</v>
+        <v>1252</v>
       </c>
       <c r="D435" s="2"/>
       <c r="E435" s="3" t="s">
-        <v>1250</v>
+        <v>1253</v>
       </c>
       <c r="F435" s="2"/>
       <c r="G435" s="2" t="s">
-        <v>1251</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14402,15 +14484,15 @@
         <v>7</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="D436" s="2"/>
       <c r="E436" s="3" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="F436" s="2"/>
       <c r="G436" s="2" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14421,15 +14503,15 @@
         <v>7</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>1255</v>
+        <v>1258</v>
       </c>
       <c r="D437" s="2"/>
       <c r="E437" s="3" t="s">
-        <v>1256</v>
+        <v>1259</v>
       </c>
       <c r="F437" s="2"/>
       <c r="G437" s="2" t="s">
-        <v>1257</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14440,15 +14522,15 @@
         <v>7</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>1258</v>
+        <v>1261</v>
       </c>
       <c r="D438" s="2"/>
       <c r="E438" s="3" t="s">
-        <v>1259</v>
+        <v>1262</v>
       </c>
       <c r="F438" s="2"/>
       <c r="G438" s="2" t="s">
-        <v>1260</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14459,15 +14541,15 @@
         <v>7</v>
       </c>
       <c r="C439" s="1" t="s">
-        <v>1261</v>
+        <v>1264</v>
       </c>
       <c r="D439" s="2"/>
       <c r="E439" s="3" t="s">
-        <v>1262</v>
+        <v>1265</v>
       </c>
       <c r="F439" s="2"/>
       <c r="G439" s="2" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14478,15 +14560,15 @@
         <v>7</v>
       </c>
       <c r="C440" s="1" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="D440" s="2"/>
       <c r="E440" s="3" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="F440" s="2"/>
       <c r="G440" s="2" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14497,15 +14579,15 @@
         <v>7</v>
       </c>
       <c r="C441" s="1" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="D441" s="2"/>
       <c r="E441" s="3" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="F441" s="2"/>
       <c r="G441" s="2" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14516,15 +14598,15 @@
         <v>7</v>
       </c>
       <c r="C442" s="1" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="D442" s="2"/>
       <c r="E442" s="3" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="F442" s="2"/>
       <c r="G442" s="2" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14535,15 +14617,15 @@
         <v>7</v>
       </c>
       <c r="C443" s="1" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="D443" s="2"/>
       <c r="E443" s="3" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="F443" s="2"/>
       <c r="G443" s="2" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14554,15 +14636,15 @@
         <v>7</v>
       </c>
       <c r="C444" s="1" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="D444" s="2"/>
       <c r="E444" s="3" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="F444" s="2"/>
       <c r="G444" s="2" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14573,15 +14655,15 @@
         <v>7</v>
       </c>
       <c r="C445" s="1" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="D445" s="2"/>
       <c r="E445" s="3" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="F445" s="2"/>
       <c r="G445" s="2" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14592,15 +14674,15 @@
         <v>7</v>
       </c>
       <c r="C446" s="1" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="D446" s="2"/>
       <c r="E446" s="3" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="F446" s="2"/>
       <c r="G446" s="2" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14611,15 +14693,15 @@
         <v>7</v>
       </c>
       <c r="C447" s="1" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="D447" s="2"/>
       <c r="E447" s="3" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="F447" s="2"/>
       <c r="G447" s="2" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14630,15 +14712,15 @@
         <v>7</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D448" s="2"/>
       <c r="E448" s="3" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="F448" s="2"/>
       <c r="G448" s="2" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14649,15 +14731,15 @@
         <v>7</v>
       </c>
       <c r="C449" s="1" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="D449" s="2"/>
       <c r="E449" s="3" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="F449" s="2"/>
       <c r="G449" s="2" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14668,15 +14750,15 @@
         <v>7</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="D450" s="2"/>
       <c r="E450" s="3" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="F450" s="2"/>
       <c r="G450" s="2" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14687,15 +14769,15 @@
         <v>7</v>
       </c>
       <c r="C451" s="1" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="D451" s="2"/>
       <c r="E451" s="3" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="F451" s="2"/>
       <c r="G451" s="2" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14706,15 +14788,15 @@
         <v>7</v>
       </c>
       <c r="C452" s="1" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D452" s="2"/>
       <c r="E452" s="3" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="F452" s="2"/>
       <c r="G452" s="2" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14725,15 +14807,15 @@
         <v>7</v>
       </c>
       <c r="C453" s="1" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="D453" s="2"/>
       <c r="E453" s="3" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="F453" s="2"/>
       <c r="G453" s="2" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14744,15 +14826,15 @@
         <v>7</v>
       </c>
       <c r="C454" s="1" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D454" s="2"/>
       <c r="E454" s="3" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="F454" s="2"/>
       <c r="G454" s="2" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14763,15 +14845,15 @@
         <v>7</v>
       </c>
       <c r="C455" s="1" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="D455" s="2"/>
       <c r="E455" s="3" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="F455" s="2"/>
       <c r="G455" s="2" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14782,15 +14864,15 @@
         <v>7</v>
       </c>
       <c r="C456" s="1" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D456" s="2"/>
       <c r="E456" s="3" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="F456" s="2"/>
       <c r="G456" s="2" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14801,15 +14883,15 @@
         <v>7</v>
       </c>
       <c r="C457" s="1" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="D457" s="2"/>
       <c r="E457" s="3" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="F457" s="2"/>
       <c r="G457" s="2" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="458" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14820,15 +14902,15 @@
         <v>7</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D458" s="2"/>
       <c r="E458" s="3" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="F458" s="2"/>
       <c r="G458" s="2" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14839,15 +14921,15 @@
         <v>7</v>
       </c>
       <c r="C459" s="1" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="D459" s="2"/>
       <c r="E459" s="3" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="F459" s="2"/>
       <c r="G459" s="2" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14858,15 +14940,15 @@
         <v>7</v>
       </c>
       <c r="C460" s="1" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D460" s="2"/>
       <c r="E460" s="3" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="F460" s="2"/>
       <c r="G460" s="2" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14877,15 +14959,15 @@
         <v>7</v>
       </c>
       <c r="C461" s="1" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="D461" s="2"/>
       <c r="E461" s="3" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="F461" s="2"/>
       <c r="G461" s="2" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14896,15 +14978,15 @@
         <v>7</v>
       </c>
       <c r="C462" s="1" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="D462" s="2"/>
       <c r="E462" s="3" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="F462" s="2"/>
       <c r="G462" s="2" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14915,15 +14997,15 @@
         <v>7</v>
       </c>
       <c r="C463" s="1" t="s">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="D463" s="2"/>
       <c r="E463" s="3" t="s">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="F463" s="2"/>
       <c r="G463" s="2" t="s">
-        <v>1335</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14934,15 +15016,15 @@
         <v>7</v>
       </c>
       <c r="C464" s="1" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="D464" s="2"/>
       <c r="E464" s="3" t="s">
-        <v>1336</v>
+        <v>1339</v>
       </c>
       <c r="F464" s="2"/>
       <c r="G464" s="2" t="s">
-        <v>1337</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14953,15 +15035,15 @@
         <v>7</v>
       </c>
       <c r="C465" s="1" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="D465" s="2"/>
       <c r="E465" s="3" t="s">
-        <v>1338</v>
+        <v>1341</v>
       </c>
       <c r="F465" s="2"/>
       <c r="G465" s="2" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="466" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14972,15 +15054,15 @@
         <v>7</v>
       </c>
       <c r="C466" s="1" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="D466" s="2"/>
       <c r="E466" s="3" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="F466" s="2"/>
       <c r="G466" s="2" t="s">
-        <v>1342</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14991,15 +15073,15 @@
         <v>7</v>
       </c>
       <c r="C467" s="1" t="s">
-        <v>1343</v>
+        <v>1346</v>
       </c>
       <c r="D467" s="2"/>
       <c r="E467" s="3" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="F467" s="2"/>
       <c r="G467" s="2" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15010,15 +15092,15 @@
         <v>7</v>
       </c>
       <c r="C468" s="1" t="s">
-        <v>1346</v>
+        <v>1349</v>
       </c>
       <c r="D468" s="2"/>
       <c r="E468" s="3" t="s">
-        <v>1347</v>
+        <v>1350</v>
       </c>
       <c r="F468" s="2"/>
       <c r="G468" s="2" t="s">
-        <v>1348</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15029,15 +15111,15 @@
         <v>7</v>
       </c>
       <c r="C469" s="1" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="D469" s="2"/>
       <c r="E469" s="3" t="s">
-        <v>1350</v>
+        <v>1353</v>
       </c>
       <c r="F469" s="2"/>
       <c r="G469" s="2" t="s">
-        <v>1351</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15048,15 +15130,15 @@
         <v>7</v>
       </c>
       <c r="C470" s="1" t="s">
-        <v>1352</v>
+        <v>1355</v>
       </c>
       <c r="D470" s="2"/>
       <c r="E470" s="3" t="s">
-        <v>1353</v>
+        <v>1356</v>
       </c>
       <c r="F470" s="2"/>
       <c r="G470" s="2" t="s">
-        <v>1354</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="471" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15067,15 +15149,15 @@
         <v>7</v>
       </c>
       <c r="C471" s="1" t="s">
-        <v>1355</v>
+        <v>1358</v>
       </c>
       <c r="D471" s="2"/>
       <c r="E471" s="3" t="s">
-        <v>1356</v>
+        <v>1359</v>
       </c>
       <c r="F471" s="2"/>
       <c r="G471" s="2" t="s">
-        <v>1357</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15086,15 +15168,15 @@
         <v>7</v>
       </c>
       <c r="C472" s="1" t="s">
-        <v>1358</v>
+        <v>1361</v>
       </c>
       <c r="D472" s="2"/>
       <c r="E472" s="3" t="s">
-        <v>1359</v>
+        <v>1362</v>
       </c>
       <c r="F472" s="2"/>
       <c r="G472" s="2" t="s">
-        <v>1360</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15105,15 +15187,15 @@
         <v>7</v>
       </c>
       <c r="C473" s="1" t="s">
-        <v>1361</v>
+        <v>1364</v>
       </c>
       <c r="D473" s="2"/>
       <c r="E473" s="3" t="s">
-        <v>1362</v>
+        <v>1365</v>
       </c>
       <c r="F473" s="2"/>
       <c r="G473" s="2" t="s">
-        <v>1363</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15124,15 +15206,15 @@
         <v>7</v>
       </c>
       <c r="C474" s="1" t="s">
-        <v>1364</v>
+        <v>1367</v>
       </c>
       <c r="D474" s="2"/>
       <c r="E474" s="3" t="s">
-        <v>1365</v>
+        <v>1368</v>
       </c>
       <c r="F474" s="2"/>
       <c r="G474" s="2" t="s">
-        <v>1366</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15143,15 +15225,15 @@
         <v>7</v>
       </c>
       <c r="C475" s="1" t="s">
-        <v>1367</v>
+        <v>1370</v>
       </c>
       <c r="D475" s="2"/>
       <c r="E475" s="3" t="s">
-        <v>1368</v>
+        <v>1371</v>
       </c>
       <c r="F475" s="2"/>
       <c r="G475" s="2" t="s">
-        <v>1369</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15162,15 +15244,15 @@
         <v>7</v>
       </c>
       <c r="C476" s="1" t="s">
-        <v>1370</v>
+        <v>1373</v>
       </c>
       <c r="D476" s="2"/>
       <c r="E476" s="3" t="s">
-        <v>1371</v>
+        <v>1374</v>
       </c>
       <c r="F476" s="2"/>
       <c r="G476" s="2" t="s">
-        <v>1372</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15181,15 +15263,15 @@
         <v>7</v>
       </c>
       <c r="C477" s="1" t="s">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="D477" s="2"/>
       <c r="E477" s="3" t="s">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="F477" s="2"/>
       <c r="G477" s="2" t="s">
-        <v>1375</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15200,15 +15282,15 @@
         <v>7</v>
       </c>
       <c r="C478" s="1" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="D478" s="2"/>
       <c r="E478" s="3" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="F478" s="2"/>
       <c r="G478" s="2" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15219,15 +15301,15 @@
         <v>7</v>
       </c>
       <c r="C479" s="1" t="s">
-        <v>1378</v>
+        <v>1381</v>
       </c>
       <c r="D479" s="2"/>
       <c r="E479" s="3" t="s">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="F479" s="2"/>
       <c r="G479" s="2" t="s">
-        <v>1380</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15238,15 +15320,15 @@
         <v>7</v>
       </c>
       <c r="C480" s="1" t="s">
-        <v>1381</v>
+        <v>1384</v>
       </c>
       <c r="D480" s="2"/>
       <c r="E480" s="3" t="s">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="F480" s="2"/>
       <c r="G480" s="2" t="s">
-        <v>1383</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15257,15 +15339,15 @@
         <v>7</v>
       </c>
       <c r="C481" s="1" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="D481" s="2"/>
       <c r="E481" s="3" t="s">
-        <v>1384</v>
+        <v>1387</v>
       </c>
       <c r="F481" s="2"/>
       <c r="G481" s="2" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15276,15 +15358,15 @@
         <v>7</v>
       </c>
       <c r="C482" s="1" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="D482" s="2"/>
       <c r="E482" s="3" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="F482" s="2"/>
       <c r="G482" s="2" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15295,15 +15377,15 @@
         <v>7</v>
       </c>
       <c r="C483" s="1" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="D483" s="2"/>
       <c r="E483" s="3" t="s">
-        <v>1389</v>
+        <v>1392</v>
       </c>
       <c r="F483" s="2"/>
       <c r="G483" s="3" t="s">
-        <v>1390</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15314,15 +15396,15 @@
         <v>7</v>
       </c>
       <c r="C484" s="1" t="s">
-        <v>1391</v>
+        <v>1394</v>
       </c>
       <c r="D484" s="2"/>
       <c r="E484" s="3" t="s">
-        <v>1392</v>
+        <v>1395</v>
       </c>
       <c r="F484" s="2"/>
       <c r="G484" s="3" t="s">
-        <v>1393</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15333,15 +15415,15 @@
         <v>7</v>
       </c>
       <c r="C485" s="1" t="s">
-        <v>1394</v>
+        <v>1397</v>
       </c>
       <c r="D485" s="2"/>
       <c r="E485" s="3" t="s">
-        <v>1395</v>
+        <v>1398</v>
       </c>
       <c r="F485" s="2"/>
       <c r="G485" s="3" t="s">
-        <v>1396</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15352,15 +15434,15 @@
         <v>7</v>
       </c>
       <c r="C486" s="1" t="s">
-        <v>1397</v>
+        <v>1400</v>
       </c>
       <c r="D486" s="2"/>
       <c r="E486" s="3" t="s">
-        <v>1398</v>
+        <v>1401</v>
       </c>
       <c r="F486" s="2"/>
       <c r="G486" s="3" t="s">
-        <v>1399</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15371,15 +15453,15 @@
         <v>7</v>
       </c>
       <c r="C487" s="1" t="s">
-        <v>1400</v>
+        <v>1403</v>
       </c>
       <c r="D487" s="2"/>
       <c r="E487" s="3" t="s">
-        <v>1401</v>
+        <v>1404</v>
       </c>
       <c r="F487" s="2"/>
       <c r="G487" s="3" t="s">
-        <v>1402</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15390,15 +15472,15 @@
         <v>7</v>
       </c>
       <c r="C488" s="1" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="D488" s="2"/>
       <c r="E488" s="3" t="s">
-        <v>1403</v>
+        <v>1406</v>
       </c>
       <c r="F488" s="2"/>
       <c r="G488" s="2" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15409,15 +15491,15 @@
         <v>7</v>
       </c>
       <c r="C489" s="1" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="D489" s="2"/>
       <c r="E489" s="3" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="F489" s="2"/>
       <c r="G489" s="2" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15428,15 +15510,15 @@
         <v>7</v>
       </c>
       <c r="C490" s="1" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="D490" s="2"/>
       <c r="E490" s="3" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="F490" s="2"/>
       <c r="G490" s="2" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15447,15 +15529,15 @@
         <v>7</v>
       </c>
       <c r="C491" s="1" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="D491" s="2"/>
       <c r="E491" s="3" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="F491" s="2"/>
       <c r="G491" s="2" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15466,15 +15548,15 @@
         <v>7</v>
       </c>
       <c r="C492" s="1" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="D492" s="2"/>
       <c r="E492" s="3" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="F492" s="2"/>
       <c r="G492" s="2" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15485,15 +15567,15 @@
         <v>7</v>
       </c>
       <c r="C493" s="1" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="D493" s="2"/>
       <c r="E493" s="3" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="F493" s="2"/>
       <c r="G493" s="2" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="494" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15504,15 +15586,15 @@
         <v>7</v>
       </c>
       <c r="C494" s="1" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="D494" s="2"/>
       <c r="E494" s="3" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="F494" s="2"/>
       <c r="G494" s="2" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15523,15 +15605,15 @@
         <v>7</v>
       </c>
       <c r="C495" s="1" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="D495" s="2"/>
       <c r="E495" s="3" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="F495" s="2"/>
       <c r="G495" s="2" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15542,15 +15624,15 @@
         <v>7</v>
       </c>
       <c r="C496" s="1" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="D496" s="2"/>
       <c r="E496" s="3" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="F496" s="2"/>
       <c r="G496" s="2" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15561,15 +15643,15 @@
         <v>7</v>
       </c>
       <c r="C497" s="1" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="D497" s="2"/>
       <c r="E497" s="3" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="F497" s="2"/>
       <c r="G497" s="2" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15580,15 +15662,15 @@
         <v>7</v>
       </c>
       <c r="C498" s="1" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="D498" s="2"/>
       <c r="E498" s="3" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="F498" s="2"/>
       <c r="G498" s="2" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15599,15 +15681,15 @@
         <v>7</v>
       </c>
       <c r="C499" s="1" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="D499" s="2"/>
       <c r="E499" s="3" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="F499" s="2"/>
       <c r="G499" s="2" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15618,15 +15700,15 @@
         <v>7</v>
       </c>
       <c r="C500" s="1" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="D500" s="2"/>
       <c r="E500" s="3" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="F500" s="2"/>
       <c r="G500" s="2" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15637,15 +15719,15 @@
         <v>7</v>
       </c>
       <c r="C501" s="1" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="D501" s="2"/>
       <c r="E501" s="3" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="F501" s="2"/>
       <c r="G501" s="2" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="502" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15656,15 +15738,15 @@
         <v>7</v>
       </c>
       <c r="C502" s="1" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D502" s="2"/>
       <c r="E502" s="3" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="F502" s="2"/>
       <c r="G502" s="2" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15675,15 +15757,15 @@
         <v>7</v>
       </c>
       <c r="C503" s="1" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="D503" s="2"/>
       <c r="E503" s="3" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="F503" s="2"/>
       <c r="G503" s="2" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15694,15 +15776,15 @@
         <v>7</v>
       </c>
       <c r="C504" s="1" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D504" s="2"/>
       <c r="E504" s="3" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="F504" s="2"/>
       <c r="G504" s="2" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15713,15 +15795,15 @@
         <v>7</v>
       </c>
       <c r="C505" s="1" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="D505" s="2"/>
       <c r="E505" s="3" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="F505" s="2"/>
       <c r="G505" s="2" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15732,15 +15814,15 @@
         <v>7</v>
       </c>
       <c r="C506" s="1" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="D506" s="2"/>
       <c r="E506" s="3" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="F506" s="2"/>
       <c r="G506" s="2" t="s">
-        <v>1454</v>
+        <v>606</v>
       </c>
     </row>
     <row r="507" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15751,15 +15833,15 @@
         <v>7</v>
       </c>
       <c r="C507" s="1" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="D507" s="2"/>
       <c r="E507" s="3" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="F507" s="2"/>
       <c r="G507" s="2" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15770,15 +15852,15 @@
         <v>7</v>
       </c>
       <c r="C508" s="1" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="D508" s="2"/>
       <c r="E508" s="3" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="F508" s="2"/>
       <c r="G508" s="2" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15789,15 +15871,15 @@
         <v>7</v>
       </c>
       <c r="C509" s="1" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="D509" s="2"/>
       <c r="E509" s="3" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
       <c r="F509" s="2"/>
       <c r="G509" s="2" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15808,15 +15890,15 @@
         <v>7</v>
       </c>
       <c r="C510" s="1" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
       <c r="D510" s="2"/>
       <c r="E510" s="3" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
       <c r="F510" s="2"/>
       <c r="G510" s="2" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15827,15 +15909,15 @@
         <v>7</v>
       </c>
       <c r="C511" s="1" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
       <c r="D511" s="2"/>
       <c r="E511" s="3" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
       <c r="F511" s="2"/>
       <c r="G511" s="2" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15846,15 +15928,15 @@
         <v>7</v>
       </c>
       <c r="C512" s="1" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
       <c r="D512" s="2"/>
       <c r="E512" s="3" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
       <c r="F512" s="2"/>
       <c r="G512" s="2" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15865,15 +15947,15 @@
         <v>7</v>
       </c>
       <c r="C513" s="1" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
       <c r="D513" s="2"/>
       <c r="E513" s="3" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="F513" s="2"/>
       <c r="G513" s="2" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15884,15 +15966,15 @@
         <v>7</v>
       </c>
       <c r="C514" s="1" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="D514" s="2"/>
       <c r="E514" s="3" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F514" s="2"/>
       <c r="G514" s="2" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15903,15 +15985,15 @@
         <v>7</v>
       </c>
       <c r="C515" s="1" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="D515" s="2"/>
       <c r="E515" s="3" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="F515" s="2"/>
       <c r="G515" s="2" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15922,15 +16004,15 @@
         <v>7</v>
       </c>
       <c r="C516" s="1" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="D516" s="2"/>
       <c r="E516" s="3" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
       <c r="F516" s="2"/>
       <c r="G516" s="2" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15941,15 +16023,15 @@
         <v>7</v>
       </c>
       <c r="C517" s="1" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
       <c r="D517" s="2"/>
       <c r="E517" s="3" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
       <c r="F517" s="2"/>
       <c r="G517" s="2" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15960,15 +16042,15 @@
         <v>7</v>
       </c>
       <c r="C518" s="1" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
       <c r="D518" s="2"/>
       <c r="E518" s="3" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
       <c r="F518" s="2"/>
       <c r="G518" s="2" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15979,15 +16061,15 @@
         <v>7</v>
       </c>
       <c r="C519" s="1" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
       <c r="D519" s="2"/>
       <c r="E519" s="3" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
       <c r="F519" s="2"/>
       <c r="G519" s="2" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15998,15 +16080,15 @@
         <v>7</v>
       </c>
       <c r="C520" s="1" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
       <c r="D520" s="2"/>
       <c r="E520" s="3" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="F520" s="2"/>
       <c r="G520" s="2" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16017,15 +16099,15 @@
         <v>7</v>
       </c>
       <c r="C521" s="1" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
       <c r="D521" s="2"/>
       <c r="E521" s="3" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
       <c r="F521" s="2"/>
       <c r="G521" s="2" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16036,15 +16118,15 @@
         <v>7</v>
       </c>
       <c r="C522" s="1" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="D522" s="2"/>
       <c r="E522" s="3" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
       <c r="F522" s="2"/>
       <c r="G522" s="2" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16055,15 +16137,15 @@
         <v>7</v>
       </c>
       <c r="C523" s="1" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
       <c r="D523" s="2"/>
       <c r="E523" s="3" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
       <c r="F523" s="2"/>
       <c r="G523" s="2" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16074,15 +16156,15 @@
         <v>7</v>
       </c>
       <c r="C524" s="1" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
       <c r="D524" s="2"/>
       <c r="E524" s="3" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
       <c r="F524" s="2"/>
       <c r="G524" s="2" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16093,15 +16175,15 @@
         <v>7</v>
       </c>
       <c r="C525" s="1" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="D525" s="2"/>
       <c r="E525" s="3" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
       <c r="F525" s="2"/>
       <c r="G525" s="2" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16112,15 +16194,15 @@
         <v>7</v>
       </c>
       <c r="C526" s="1" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="D526" s="2"/>
       <c r="E526" s="3" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
       <c r="F526" s="2"/>
       <c r="G526" s="2" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16131,15 +16213,15 @@
         <v>7</v>
       </c>
       <c r="C527" s="1" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
       <c r="D527" s="2"/>
       <c r="E527" s="3" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
       <c r="F527" s="2"/>
       <c r="G527" s="2" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16150,15 +16232,15 @@
         <v>7</v>
       </c>
       <c r="C528" s="1" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
       <c r="D528" s="2"/>
       <c r="E528" s="3" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
       <c r="F528" s="2"/>
       <c r="G528" s="2" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16169,15 +16251,15 @@
         <v>7</v>
       </c>
       <c r="C529" s="1" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
       <c r="D529" s="2"/>
       <c r="E529" s="3" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
       <c r="F529" s="2"/>
       <c r="G529" s="2" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16188,15 +16270,15 @@
         <v>7</v>
       </c>
       <c r="C530" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="D530" s="2"/>
       <c r="E530" s="3" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="F530" s="2"/>
       <c r="G530" s="2" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16207,15 +16289,15 @@
         <v>7</v>
       </c>
       <c r="C531" s="1" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
       <c r="D531" s="2"/>
       <c r="E531" s="3" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
       <c r="F531" s="2"/>
       <c r="G531" s="2" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16226,15 +16308,15 @@
         <v>7</v>
       </c>
       <c r="C532" s="1" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
       <c r="D532" s="2"/>
       <c r="E532" s="3" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
       <c r="F532" s="2"/>
       <c r="G532" s="2" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16245,15 +16327,15 @@
         <v>7</v>
       </c>
       <c r="C533" s="1" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
       <c r="D533" s="2"/>
       <c r="E533" s="3" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
       <c r="F533" s="2"/>
       <c r="G533" s="2" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16264,15 +16346,15 @@
         <v>7</v>
       </c>
       <c r="C534" s="1" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
       <c r="D534" s="2"/>
       <c r="E534" s="3" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
       <c r="F534" s="2"/>
       <c r="G534" s="2" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16283,15 +16365,15 @@
         <v>7</v>
       </c>
       <c r="C535" s="1" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
       <c r="D535" s="2"/>
       <c r="E535" s="3" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
       <c r="F535" s="2"/>
       <c r="G535" s="2" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16302,15 +16384,15 @@
         <v>7</v>
       </c>
       <c r="C536" s="1" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
       <c r="D536" s="2"/>
       <c r="E536" s="3" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
       <c r="F536" s="2"/>
       <c r="G536" s="2" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16321,15 +16403,15 @@
         <v>7</v>
       </c>
       <c r="C537" s="1" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
       <c r="D537" s="2"/>
       <c r="E537" s="3" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
       <c r="F537" s="2"/>
       <c r="G537" s="2" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16340,15 +16422,15 @@
         <v>7</v>
       </c>
       <c r="C538" s="1" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
       <c r="D538" s="2"/>
       <c r="E538" s="3" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="F538" s="2"/>
       <c r="G538" s="2" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16359,15 +16441,15 @@
         <v>7</v>
       </c>
       <c r="C539" s="1" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
       <c r="D539" s="2"/>
       <c r="E539" s="3" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
       <c r="F539" s="2"/>
       <c r="G539" s="2" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16378,15 +16460,15 @@
         <v>7</v>
       </c>
       <c r="C540" s="1" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
       <c r="D540" s="2"/>
       <c r="E540" s="3" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
       <c r="F540" s="2"/>
       <c r="G540" s="2" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16397,15 +16479,15 @@
         <v>7</v>
       </c>
       <c r="C541" s="1" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
       <c r="D541" s="2"/>
       <c r="E541" s="3" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
       <c r="F541" s="2"/>
       <c r="G541" s="2" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16416,15 +16498,15 @@
         <v>7</v>
       </c>
       <c r="C542" s="1" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
       <c r="D542" s="2"/>
       <c r="E542" s="3" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
       <c r="F542" s="2"/>
       <c r="G542" s="2" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16435,15 +16517,15 @@
         <v>7</v>
       </c>
       <c r="C543" s="1" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
       <c r="D543" s="2"/>
       <c r="E543" s="3" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
       <c r="F543" s="2"/>
       <c r="G543" s="2" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16454,15 +16536,15 @@
         <v>7</v>
       </c>
       <c r="C544" s="1" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
       <c r="D544" s="2"/>
       <c r="E544" s="3" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
       <c r="F544" s="2"/>
       <c r="G544" s="2" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="545" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16473,15 +16555,15 @@
         <v>7</v>
       </c>
       <c r="C545" s="1" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="D545" s="2"/>
       <c r="E545" s="3" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="F545" s="2"/>
       <c r="G545" s="2" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16492,15 +16574,15 @@
         <v>7</v>
       </c>
       <c r="C546" s="1" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
       <c r="D546" s="2"/>
       <c r="E546" s="3" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
       <c r="F546" s="2"/>
       <c r="G546" s="2" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16511,15 +16593,15 @@
         <v>7</v>
       </c>
       <c r="C547" s="1" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
       <c r="D547" s="2"/>
       <c r="E547" s="3" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
       <c r="F547" s="2"/>
       <c r="G547" s="2" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16530,15 +16612,15 @@
         <v>7</v>
       </c>
       <c r="C548" s="1" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="D548" s="2"/>
       <c r="E548" s="3" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
       <c r="F548" s="2"/>
       <c r="G548" s="2" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16549,15 +16631,15 @@
         <v>7</v>
       </c>
       <c r="C549" s="1" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
       <c r="D549" s="2"/>
       <c r="E549" s="3" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
       <c r="F549" s="2"/>
       <c r="G549" s="2" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16568,15 +16650,15 @@
         <v>7</v>
       </c>
       <c r="C550" s="1" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
       <c r="D550" s="2"/>
       <c r="E550" s="3" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
       <c r="F550" s="2"/>
       <c r="G550" s="2" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16587,15 +16669,15 @@
         <v>7</v>
       </c>
       <c r="C551" s="1" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
       <c r="D551" s="2"/>
       <c r="E551" s="3" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
       <c r="F551" s="2"/>
       <c r="G551" s="2" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16606,15 +16688,15 @@
         <v>7</v>
       </c>
       <c r="C552" s="1" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
       <c r="D552" s="2"/>
       <c r="E552" s="3" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
       <c r="F552" s="2"/>
       <c r="G552" s="2" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16625,15 +16707,15 @@
         <v>7</v>
       </c>
       <c r="C553" s="1" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
       <c r="D553" s="2"/>
       <c r="E553" s="3" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
       <c r="F553" s="2"/>
       <c r="G553" s="2" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16644,15 +16726,15 @@
         <v>7</v>
       </c>
       <c r="C554" s="1" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
       <c r="D554" s="2"/>
       <c r="E554" s="3" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
       <c r="F554" s="2"/>
       <c r="G554" s="2" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16663,15 +16745,15 @@
         <v>7</v>
       </c>
       <c r="C555" s="1" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
       <c r="D555" s="2"/>
       <c r="E555" s="3" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
       <c r="F555" s="2"/>
       <c r="G555" s="2" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16682,15 +16764,15 @@
         <v>7</v>
       </c>
       <c r="C556" s="1" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="D556" s="2"/>
       <c r="E556" s="3" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
       <c r="F556" s="2"/>
       <c r="G556" s="2" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16701,15 +16783,15 @@
         <v>7</v>
       </c>
       <c r="C557" s="1" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="D557" s="2"/>
       <c r="E557" s="3" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
       <c r="F557" s="2"/>
       <c r="G557" s="2" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16720,15 +16802,15 @@
         <v>7</v>
       </c>
       <c r="C558" s="1" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
       <c r="D558" s="2"/>
       <c r="E558" s="3" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
       <c r="F558" s="2"/>
       <c r="G558" s="2" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16739,15 +16821,15 @@
         <v>7</v>
       </c>
       <c r="C559" s="1" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
       <c r="D559" s="2"/>
       <c r="E559" s="3" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="F559" s="2"/>
       <c r="G559" s="2" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16758,15 +16840,15 @@
         <v>7</v>
       </c>
       <c r="C560" s="1" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="D560" s="2"/>
       <c r="E560" s="3" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="F560" s="2"/>
       <c r="G560" s="2" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16777,15 +16859,15 @@
         <v>7</v>
       </c>
       <c r="C561" s="1" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="D561" s="2"/>
       <c r="E561" s="3" t="s">
-        <v>1614</v>
+        <v>1616</v>
       </c>
       <c r="F561" s="2"/>
       <c r="G561" s="2" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16796,15 +16878,15 @@
         <v>7</v>
       </c>
       <c r="C562" s="1" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="D562" s="2"/>
       <c r="E562" s="3" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="F562" s="2"/>
       <c r="G562" s="2" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16815,15 +16897,15 @@
         <v>7</v>
       </c>
       <c r="C563" s="1" t="s">
-        <v>1619</v>
+        <v>1621</v>
       </c>
       <c r="D563" s="2"/>
       <c r="E563" s="3" t="s">
-        <v>1620</v>
+        <v>1622</v>
       </c>
       <c r="F563" s="2"/>
       <c r="G563" s="2" t="s">
-        <v>1621</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16834,15 +16916,15 @@
         <v>7</v>
       </c>
       <c r="C564" s="1" t="s">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="D564" s="2"/>
       <c r="E564" s="3" t="s">
-        <v>1623</v>
+        <v>1625</v>
       </c>
       <c r="F564" s="2"/>
       <c r="G564" s="2" t="s">
-        <v>1624</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16853,15 +16935,15 @@
         <v>7</v>
       </c>
       <c r="C565" s="1" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="D565" s="2"/>
       <c r="E565" s="3" t="s">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="F565" s="2"/>
       <c r="G565" s="2" t="s">
-        <v>1626</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16872,15 +16954,15 @@
         <v>7</v>
       </c>
       <c r="C566" s="1" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="D566" s="2"/>
       <c r="E566" s="3" t="s">
-        <v>1628</v>
+        <v>1630</v>
       </c>
       <c r="F566" s="2"/>
       <c r="G566" s="2" t="s">
-        <v>1629</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16891,15 +16973,15 @@
         <v>7</v>
       </c>
       <c r="C567" s="1" t="s">
-        <v>1630</v>
+        <v>1632</v>
       </c>
       <c r="D567" s="2"/>
       <c r="E567" s="3" t="s">
-        <v>1631</v>
+        <v>1633</v>
       </c>
       <c r="F567" s="2"/>
       <c r="G567" s="2" t="s">
-        <v>1632</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16910,15 +16992,15 @@
         <v>7</v>
       </c>
       <c r="C568" s="1" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="D568" s="2"/>
       <c r="E568" s="3" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
       <c r="F568" s="2"/>
       <c r="G568" s="2" t="s">
-        <v>1634</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16929,15 +17011,15 @@
         <v>7</v>
       </c>
       <c r="C569" s="1" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
       <c r="D569" s="2"/>
       <c r="E569" s="3" t="s">
-        <v>1636</v>
+        <v>1638</v>
       </c>
       <c r="F569" s="2"/>
       <c r="G569" s="2" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16948,15 +17030,15 @@
         <v>7</v>
       </c>
       <c r="C570" s="1" t="s">
-        <v>1638</v>
+        <v>1640</v>
       </c>
       <c r="D570" s="2"/>
       <c r="E570" s="3" t="s">
-        <v>1639</v>
+        <v>1641</v>
       </c>
       <c r="F570" s="2"/>
       <c r="G570" s="2" t="s">
-        <v>1640</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16967,15 +17049,15 @@
         <v>7</v>
       </c>
       <c r="C571" s="1" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="D571" s="2"/>
       <c r="E571" s="3" t="s">
-        <v>1641</v>
+        <v>1643</v>
       </c>
       <c r="F571" s="2"/>
       <c r="G571" s="2" t="s">
-        <v>1642</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16986,15 +17068,15 @@
         <v>7</v>
       </c>
       <c r="C572" s="1" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="D572" s="2"/>
       <c r="E572" s="3" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="F572" s="2"/>
       <c r="G572" s="2" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17005,15 +17087,15 @@
         <v>7</v>
       </c>
       <c r="C573" s="1" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="D573" s="2"/>
       <c r="E573" s="3" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="F573" s="2"/>
       <c r="G573" s="2" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17024,15 +17106,15 @@
         <v>7</v>
       </c>
       <c r="C574" s="1" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="D574" s="2"/>
       <c r="E574" s="3" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="F574" s="2"/>
       <c r="G574" s="2" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17043,15 +17125,15 @@
         <v>7</v>
       </c>
       <c r="C575" s="1" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="D575" s="2"/>
       <c r="E575" s="3" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="F575" s="2"/>
       <c r="G575" s="2" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17062,15 +17144,15 @@
         <v>7</v>
       </c>
       <c r="C576" s="1" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="D576" s="2"/>
       <c r="E576" s="3" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="F576" s="2"/>
       <c r="G576" s="2" t="s">
-        <v>1655</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17081,15 +17163,15 @@
         <v>7</v>
       </c>
       <c r="C577" s="1" t="s">
-        <v>1656</v>
+        <v>1658</v>
       </c>
       <c r="D577" s="2"/>
       <c r="E577" s="3" t="s">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="F577" s="2"/>
       <c r="G577" s="2" t="s">
-        <v>1658</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17100,15 +17182,15 @@
         <v>7</v>
       </c>
       <c r="C578" s="1" t="s">
-        <v>1659</v>
+        <v>1661</v>
       </c>
       <c r="D578" s="2"/>
       <c r="E578" s="3" t="s">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="F578" s="2"/>
       <c r="G578" s="2" t="s">
-        <v>1661</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17119,15 +17201,15 @@
         <v>7</v>
       </c>
       <c r="C579" s="1" t="s">
-        <v>1662</v>
+        <v>1664</v>
       </c>
       <c r="D579" s="2"/>
       <c r="E579" s="3" t="s">
-        <v>1663</v>
+        <v>1665</v>
       </c>
       <c r="F579" s="2"/>
       <c r="G579" s="2" t="s">
-        <v>1664</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17138,15 +17220,15 @@
         <v>7</v>
       </c>
       <c r="C580" s="1" t="s">
-        <v>1665</v>
+        <v>1667</v>
       </c>
       <c r="D580" s="2"/>
       <c r="E580" s="3" t="s">
-        <v>1666</v>
+        <v>1668</v>
       </c>
       <c r="F580" s="2"/>
       <c r="G580" s="2" t="s">
-        <v>1667</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="581" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17157,15 +17239,15 @@
         <v>7</v>
       </c>
       <c r="C581" s="1" t="s">
-        <v>1668</v>
+        <v>1670</v>
       </c>
       <c r="D581" s="2"/>
       <c r="E581" s="3" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="F581" s="2"/>
       <c r="G581" s="2" t="s">
-        <v>1670</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17176,15 +17258,15 @@
         <v>7</v>
       </c>
       <c r="C582" s="1" t="s">
-        <v>1671</v>
+        <v>1673</v>
       </c>
       <c r="D582" s="2"/>
       <c r="E582" s="3" t="s">
-        <v>1672</v>
+        <v>1674</v>
       </c>
       <c r="F582" s="2"/>
       <c r="G582" s="2" t="s">
-        <v>1673</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17195,15 +17277,15 @@
         <v>7</v>
       </c>
       <c r="C583" s="1" t="s">
-        <v>1674</v>
+        <v>1676</v>
       </c>
       <c r="D583" s="2"/>
       <c r="E583" s="3" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="F583" s="2"/>
       <c r="G583" s="2" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17214,15 +17296,15 @@
         <v>7</v>
       </c>
       <c r="C584" s="1" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="D584" s="2"/>
       <c r="E584" s="3" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="F584" s="2"/>
       <c r="G584" s="2" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17233,15 +17315,15 @@
         <v>7</v>
       </c>
       <c r="C585" s="1" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="D585" s="2"/>
       <c r="E585" s="3" t="s">
-        <v>1681</v>
+        <v>1683</v>
       </c>
       <c r="F585" s="2"/>
       <c r="G585" s="2" t="s">
-        <v>1682</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17252,15 +17334,15 @@
         <v>7</v>
       </c>
       <c r="C586" s="1" t="s">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="D586" s="2"/>
       <c r="E586" s="3" t="s">
-        <v>1684</v>
+        <v>1686</v>
       </c>
       <c r="F586" s="2"/>
       <c r="G586" s="2" t="s">
-        <v>1685</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17271,15 +17353,15 @@
         <v>7</v>
       </c>
       <c r="C587" s="1" t="s">
-        <v>1686</v>
+        <v>1688</v>
       </c>
       <c r="D587" s="2"/>
       <c r="E587" s="3" t="s">
-        <v>1687</v>
+        <v>1689</v>
       </c>
       <c r="F587" s="2"/>
       <c r="G587" s="2" t="s">
-        <v>1688</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17290,15 +17372,15 @@
         <v>7</v>
       </c>
       <c r="C588" s="1" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="D588" s="2"/>
       <c r="E588" s="3" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="F588" s="2"/>
       <c r="G588" s="2" t="s">
-        <v>1691</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17309,15 +17391,15 @@
         <v>7</v>
       </c>
       <c r="C589" s="1" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="D589" s="2"/>
       <c r="E589" s="3" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="F589" s="2"/>
       <c r="G589" s="2" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17328,15 +17410,15 @@
         <v>7</v>
       </c>
       <c r="C590" s="1" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="D590" s="2"/>
       <c r="E590" s="3" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="F590" s="2"/>
       <c r="G590" s="2" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17347,15 +17429,15 @@
         <v>7</v>
       </c>
       <c r="C591" s="1" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="D591" s="2"/>
       <c r="E591" s="3" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="F591" s="2"/>
       <c r="G591" s="2" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17366,15 +17448,15 @@
         <v>7</v>
       </c>
       <c r="C592" s="1" t="s">
-        <v>1701</v>
+        <v>1703</v>
       </c>
       <c r="D592" s="2"/>
       <c r="E592" s="3" t="s">
-        <v>1702</v>
+        <v>1704</v>
       </c>
       <c r="F592" s="2"/>
       <c r="G592" s="2" t="s">
-        <v>1703</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17385,15 +17467,15 @@
         <v>7</v>
       </c>
       <c r="C593" s="1" t="s">
-        <v>1704</v>
+        <v>1706</v>
       </c>
       <c r="D593" s="2"/>
       <c r="E593" s="3" t="s">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="F593" s="2"/>
       <c r="G593" s="2" t="s">
-        <v>1706</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17404,15 +17486,15 @@
         <v>7</v>
       </c>
       <c r="C594" s="1" t="s">
-        <v>1707</v>
+        <v>1709</v>
       </c>
       <c r="D594" s="2"/>
       <c r="E594" s="3" t="s">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="F594" s="2"/>
       <c r="G594" s="2" t="s">
-        <v>1709</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17423,15 +17505,15 @@
         <v>7</v>
       </c>
       <c r="C595" s="1" t="s">
-        <v>1710</v>
+        <v>1712</v>
       </c>
       <c r="D595" s="2"/>
       <c r="E595" s="3" t="s">
-        <v>1711</v>
+        <v>1713</v>
       </c>
       <c r="F595" s="2"/>
       <c r="G595" s="2" t="s">
-        <v>1712</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17442,15 +17524,15 @@
         <v>7</v>
       </c>
       <c r="C596" s="1" t="s">
-        <v>1713</v>
+        <v>1715</v>
       </c>
       <c r="D596" s="2"/>
       <c r="E596" s="3" t="s">
-        <v>1714</v>
+        <v>1716</v>
       </c>
       <c r="F596" s="2"/>
       <c r="G596" s="2" t="s">
-        <v>1715</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17461,15 +17543,15 @@
         <v>7</v>
       </c>
       <c r="C597" s="1" t="s">
-        <v>1716</v>
+        <v>1718</v>
       </c>
       <c r="D597" s="2"/>
       <c r="E597" s="3" t="s">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="F597" s="2"/>
       <c r="G597" s="2" t="s">
-        <v>1718</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17480,15 +17562,15 @@
         <v>7</v>
       </c>
       <c r="C598" s="1" t="s">
-        <v>1719</v>
+        <v>1721</v>
       </c>
       <c r="D598" s="2"/>
       <c r="E598" s="3" t="s">
-        <v>1720</v>
+        <v>1722</v>
       </c>
       <c r="F598" s="2"/>
       <c r="G598" s="2" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17499,15 +17581,15 @@
         <v>7</v>
       </c>
       <c r="C599" s="1" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="D599" s="2"/>
       <c r="E599" s="3" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="F599" s="2"/>
       <c r="G599" s="2" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17518,15 +17600,15 @@
         <v>7</v>
       </c>
       <c r="C600" s="1" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="D600" s="2"/>
       <c r="E600" s="3" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="F600" s="2"/>
       <c r="G600" s="2" t="s">
-        <v>1727</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17537,15 +17619,15 @@
         <v>7</v>
       </c>
       <c r="C601" s="1" t="s">
-        <v>1728</v>
+        <v>1730</v>
       </c>
       <c r="D601" s="2"/>
       <c r="E601" s="3" t="s">
-        <v>1729</v>
+        <v>1731</v>
       </c>
       <c r="F601" s="2"/>
       <c r="G601" s="2" t="s">
-        <v>1730</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17556,15 +17638,15 @@
         <v>7</v>
       </c>
       <c r="C602" s="1" t="s">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="D602" s="2"/>
       <c r="E602" s="3" t="s">
-        <v>1732</v>
+        <v>1734</v>
       </c>
       <c r="F602" s="2"/>
       <c r="G602" s="2" t="s">
-        <v>1733</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17575,15 +17657,15 @@
         <v>7</v>
       </c>
       <c r="C603" s="1" t="s">
-        <v>1734</v>
+        <v>1736</v>
       </c>
       <c r="D603" s="2"/>
       <c r="E603" s="3" t="s">
-        <v>1735</v>
+        <v>1737</v>
       </c>
       <c r="F603" s="2"/>
       <c r="G603" s="2" t="s">
-        <v>1736</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17594,15 +17676,15 @@
         <v>7</v>
       </c>
       <c r="C604" s="1" t="s">
-        <v>1737</v>
+        <v>1739</v>
       </c>
       <c r="D604" s="2"/>
       <c r="E604" s="3" t="s">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="F604" s="2"/>
       <c r="G604" s="2" t="s">
-        <v>1739</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17613,15 +17695,15 @@
         <v>7</v>
       </c>
       <c r="C605" s="1" t="s">
-        <v>1740</v>
+        <v>1742</v>
       </c>
       <c r="D605" s="2"/>
       <c r="E605" s="3" t="s">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="F605" s="2"/>
       <c r="G605" s="2" t="s">
-        <v>1742</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17632,15 +17714,15 @@
         <v>7</v>
       </c>
       <c r="C606" s="1" t="s">
-        <v>1743</v>
+        <v>1745</v>
       </c>
       <c r="D606" s="2"/>
       <c r="E606" s="3" t="s">
-        <v>1744</v>
+        <v>1746</v>
       </c>
       <c r="F606" s="2"/>
       <c r="G606" s="2" t="s">
-        <v>1745</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17651,15 +17733,15 @@
         <v>7</v>
       </c>
       <c r="C607" s="1" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="D607" s="2"/>
       <c r="E607" s="3" t="s">
-        <v>1746</v>
+        <v>1748</v>
       </c>
       <c r="F607" s="2"/>
       <c r="G607" s="2" t="s">
-        <v>1747</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17670,15 +17752,15 @@
         <v>7</v>
       </c>
       <c r="C608" s="1" t="s">
-        <v>1748</v>
+        <v>1750</v>
       </c>
       <c r="D608" s="2"/>
       <c r="E608" s="3" t="s">
-        <v>1749</v>
+        <v>1751</v>
       </c>
       <c r="F608" s="2"/>
       <c r="G608" s="2" t="s">
-        <v>1750</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17689,13 +17771,13 @@
         <v>7</v>
       </c>
       <c r="C609" s="1" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="E609" s="1" t="s">
-        <v>1751</v>
+        <v>1753</v>
       </c>
       <c r="G609" s="0" t="s">
-        <v>1752</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17706,13 +17788,13 @@
         <v>7</v>
       </c>
       <c r="C610" s="4" t="s">
-        <v>1753</v>
+        <v>1755</v>
       </c>
       <c r="E610" s="4" t="s">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="G610" s="0" t="s">
-        <v>1755</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17723,13 +17805,13 @@
         <v>7</v>
       </c>
       <c r="C611" s="0" t="s">
-        <v>1756</v>
+        <v>1758</v>
       </c>
       <c r="E611" s="0" t="s">
-        <v>1757</v>
+        <v>1759</v>
       </c>
       <c r="G611" s="0" t="s">
-        <v>1758</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17740,13 +17822,13 @@
         <v>7</v>
       </c>
       <c r="C612" s="0" t="s">
-        <v>1759</v>
+        <v>1761</v>
       </c>
       <c r="E612" s="0" t="s">
-        <v>1760</v>
+        <v>1762</v>
       </c>
       <c r="G612" s="0" t="s">
-        <v>1761</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17757,13 +17839,13 @@
         <v>7</v>
       </c>
       <c r="C613" s="0" t="s">
-        <v>1252</v>
+        <v>1255</v>
       </c>
       <c r="E613" s="0" t="s">
-        <v>1253</v>
+        <v>1256</v>
       </c>
       <c r="G613" s="0" t="s">
-        <v>1254</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17774,19 +17856,19 @@
         <v>7</v>
       </c>
       <c r="C614" s="0" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="E614" s="0" t="s">
-        <v>1762</v>
+        <v>1764</v>
       </c>
       <c r="G614" s="0" t="s">
-        <v>1763</v>
+        <v>1765</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ObjectNames.xlsx
+++ b/ObjectNames.xlsx
@@ -2605,7 +2605,7 @@
     <t xml:space="preserve">Inaris Dias Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">イナリスディアスアックス</t>
+    <t xml:space="preserve">イナリスディアス斧</t>
   </si>
   <si>
     <t xml:space="preserve">InarisGrisSpear</t>
@@ -2614,7 +2614,7 @@
     <t xml:space="preserve">Inaris Gris Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">イナリスグリススピア</t>
+    <t xml:space="preserve">イナリスグリス槍</t>
   </si>
   <si>
     <t xml:space="preserve">InarisNevesPickaxe</t>
@@ -2935,7 +2935,7 @@
     <t xml:space="preserve">Larkwell Martinez Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">ラークウェル・マルチネス・アックス</t>
+    <t xml:space="preserve">ラークウェル・マルチネス・斧</t>
   </si>
   <si>
     <t xml:space="preserve">LarkwellMartinezHammer</t>
@@ -2980,7 +2980,7 @@
     <t xml:space="preserve">Larkwell Martinez Sickle</t>
   </si>
   <si>
-    <t xml:space="preserve">ラークウェルマルチネス シックル</t>
+    <t xml:space="preserve">ラークウェルマルチネス 鎌</t>
   </si>
   <si>
     <t xml:space="preserve">LarkwellMartinezSpear</t>
@@ -2989,7 +2989,7 @@
     <t xml:space="preserve">Larkwell Martinez Spear</t>
   </si>
   <si>
-    <t xml:space="preserve">ラークウェル・マルチネス・スピア</t>
+    <t xml:space="preserve">ラークウェル・マルチネス・槍</t>
   </si>
   <si>
     <t xml:space="preserve">LarkwellMartinezTacticalBackpack</t>
@@ -5026,7 +5026,7 @@
     <t xml:space="preserve">Steel Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">スティールアックス</t>
+    <t xml:space="preserve">鋼の斧</t>
   </si>
   <si>
     <t xml:space="preserve">SteelBloom</t>
@@ -5035,7 +5035,7 @@
     <t xml:space="preserve">Steel Bloom</t>
   </si>
   <si>
-    <t xml:space="preserve">スティールブルーム</t>
+    <t xml:space="preserve">鋼粉</t>
   </si>
   <si>
     <t xml:space="preserve">SteelBolt</t>
@@ -5044,7 +5044,7 @@
     <t xml:space="preserve">Steel Bolt</t>
   </si>
   <si>
-    <t xml:space="preserve">スティールボルト</t>
+    <t xml:space="preserve">鋼のボルト</t>
   </si>
   <si>
     <t xml:space="preserve">SteelHammer</t>
@@ -5053,7 +5053,7 @@
     <t xml:space="preserve">Steel Hammer</t>
   </si>
   <si>
-    <t xml:space="preserve">スティールハンマー</t>
+    <t xml:space="preserve">鋼のハンマー</t>
   </si>
   <si>
     <t xml:space="preserve">SteelIngot</t>
@@ -5518,7 +5518,7 @@
     <t xml:space="preserve">Titanium Axe</t>
   </si>
   <si>
-    <t xml:space="preserve">チタンアックス</t>
+    <t xml:space="preserve">チタンの斧</t>
   </si>
   <si>
     <t xml:space="preserve">TitaniumBolt</t>
@@ -5527,7 +5527,7 @@
     <t xml:space="preserve">Titanium Bolt</t>
   </si>
   <si>
-    <t xml:space="preserve">チタンボルト</t>
+    <t xml:space="preserve">チタンのボルト</t>
   </si>
   <si>
     <t xml:space="preserve">TitaniumHammer</t>
@@ -6196,8 +6196,8 @@
   </sheetPr>
   <dimension ref="A1:G614"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A210" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G233" activeCellId="0" sqref="G233"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A285" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G314" activeCellId="0" sqref="G314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ObjectNames.xlsx
+++ b/ObjectNames.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3080" uniqueCount="1772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="1775">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -463,6 +463,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I</t>
     </r>
@@ -489,6 +490,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">II</t>
     </r>
@@ -515,6 +517,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">III</t>
     </r>
@@ -739,6 +742,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I</t>
     </r>
@@ -765,6 +769,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">II</t>
     </r>
@@ -791,6 +796,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">III</t>
     </r>
@@ -1147,6 +1153,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -1164,6 +1171,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -3737,6 +3745,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">II </t>
     </r>
@@ -3772,6 +3781,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">I </t>
     </r>
@@ -4584,6 +4594,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4601,6 +4612,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4627,6 +4639,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4644,6 +4657,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4670,6 +4684,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4687,6 +4702,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -4713,6 +4729,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(</t>
     </r>
@@ -4730,6 +4747,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">)</t>
     </r>
@@ -6056,6 +6074,15 @@
   </si>
   <si>
     <t xml:space="preserve">スコーピオンのはさみ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BiofuelRadar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biofuel Radar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイオ燃料レーダー</t>
   </si>
 </sst>
 </file>
@@ -6102,6 +6129,7 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -6186,10 +6214,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G616"/>
+  <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A609" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G604" activeCellId="0" sqref="G604"/>
+      <selection pane="topLeft" activeCell="C618" activeCellId="0" sqref="C618"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17891,10 +17919,27 @@
         <v>1771</v>
       </c>
     </row>
+    <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B617" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C617" s="1" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E617" s="1" t="s">
+        <v>1773</v>
+      </c>
+      <c r="G617" s="1" t="s">
+        <v>1774</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="atEnd" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="overThenDown" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/ObjectNames.xlsx
+++ b/ObjectNames.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="1775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3090" uniqueCount="1778">
   <si>
     <t xml:space="preserve">Project</t>
   </si>
@@ -6084,6 +6084,15 @@
   <si>
     <t xml:space="preserve">バイオ燃料レーダー</t>
   </si>
+  <si>
+    <t xml:space="preserve">BiofuelExtractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biofuel Extractor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイオ燃料抽出機</t>
+  </si>
 </sst>
 </file>
 
@@ -6092,7 +6101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -6133,6 +6142,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -6180,7 +6196,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6195,6 +6211,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -6214,10 +6234,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:G618"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A609" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C618" activeCellId="0" sqref="C618"/>
+      <selection pane="topLeft" activeCell="G619" activeCellId="0" sqref="G619"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17936,6 +17956,23 @@
         <v>1774</v>
       </c>
     </row>
+    <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B618" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E618" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="G618" s="1" t="s">
+        <v>1777</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
